--- a/fML기초/99_과제/3_제주맛집_크롤링_지도/files/Instagram_Crawling/4_1_crawling_result.xlsx
+++ b/fML기초/99_과제/3_제주맛집_크롤링_지도/files/Instagram_Crawling/4_1_crawling_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="762">
   <si>
     <t>content</t>
   </si>
@@ -31,55 +31,2275 @@
     <t>tags</t>
   </si>
   <si>
-    <t>제주 #사라오름 산정호수🏞."제주도민이 알려주는 진짜 제주도" @jejumini 입니다..백록담에 버금간다는 산정호수가 있는 장소..오름중에 가장 높은 곳이며, 백록담을 오르는 성판악 코스중간에 사라오름으로 향하는 갈림길이 나옵니다 (왕복4시간 코스)..평소에는 호수라 말하기 무색할 만큼 말라 있지만, 장마 태풍등 기록적 폭우가 내리면 만수가 되어 폭우가 선사한 장관을 보실 수 있어요 (1년에 1-2번뿐 기회가 없음)..지난주부터 시작된 장마로 산정호수를 볼 수 있지 않을까 기대했지만 생각보다 마른 장마로 이번은 아쉽게도 만수까진 안될거 같네요(위 사진,영상 작년 가을 촬영본)...유네스코 자연 유산에 추가된 산정호수로 달려가세요🐎...[추천코스: 사라오름 &gt; #제주돈아서귀포점 (흑돼지) &gt; #서귀다원 ]....🔹제주여행 코스 무료로 도움 드려요 (DM주세요)🔹...(제주미니 모든 포스팅은 핸드폰으로 촬영📱)---------------------------------------------------------------[ 제주미니 투어 - 무조건 무료❗ ].※일시 : 매주 토요일 (평일 진행 예정)※코스시간 : 13:00 ~ 18:00[히든스팟] &gt; [콜라보업체] &gt; [카페] &gt; [히든스팟]※인원 : 15명 (뚜벅님 4명, 차량11명 )※자격 : 팔로워 누구나 (도민부터~여행객까지)※신청방법 : DM ( 내용: 인원/날짜/차량유무 )- 투어참가 조건 없으며, 사연 보내지 말아주세요- 우천시 투어 취소.렌트한 차량으로 제 차량을 따라 다니면서 함께 구경하시면 되구요, 뚜벅이 4분(명)까지 제 차량에 탑승 가능합니다^^..&lt;제주미니 콜라보 업체 : 참가자 무료 이용&gt;※ 한라산 소주 : 제주미니 에디션 한라산 소주※ 제주라프(LAF) : 짚라인, 야간전시, 족욕.※ 씨에스호텔 : 브런치 식사 &amp; 피크닉 투어.※ 김녕요트투어 : 최고급 요트 - 돌고래 생태 투어※ 더클리프 (썬셋클리프) : 매월 음료 100잔 무료※ 우픽스냅 : 박상우 사진작가 스냅투어※ 원앤온리 : 프리미엄 브런치 투어(매주 콜라보 업체는 변경 됩니다 - 일정 확인해 주세요).🔹️제주미니무료 투어일정🔹️(최신게시글을 통해 코스와 일정을 확인하세요)..※ 매주 토요일 진행(위 일정 안나온 투어 사전예약 불가)...( DM으로 신청 주시면 됩니다^^ 인원/날짜/차량유무 )-모든 분들께 당첨/마감 답장 다 해드려요---------------------------------------------------------------...#제주미니 #jejumini</t>
-  </si>
-  <si>
-    <t>다양한 해산물과 환상적인 바다뷰를 보면서 식사를 할수 있는 #성산일출봉 #코코마마.계절마다 특색있는 음료수도 판매하고 있고네이버예약시 보다 편리하게 이용 가능하네요⠀🦀제주 서귀포시 성산읍 일출로 258-11 성산🦀064-782-5569🦀코코마마⠀.#성산맛집 #성산일출봉맛집 #서귀포맛집#제주맛집 #제주도맛집 #애월맛집 #우도맛집#제주도여행 #월정리카페 #오설록맛집#산방산맛집 #모슬포맛집 #서귀포카페</t>
-  </si>
-  <si>
-    <t>⠀⠀@think.jeju💡띵크서포터즈💡⠀이 조합 박제해주세요💖성게밥 먹고 라면ㄲㄲ오늘은 여기로 정했다⠀@@당장 출똥하라!⠀📍제주 서귀포시 성산읍 일출로 259 #경미네집📍07:00 - 18:30⠀#띵크추천 #띵크제주 #사랑분식 #애월맛집 #동문시장맛집 #동문시장 #공항근처맛집 #제주공항맛집 #제주공항근처맛집 #제주도여행 #제주도맛집 #제주도분식맛집 #협재맛집 #서귀포맛집 #경미휴게소#중문맛집 #우도맛집 #성산일출봉맛집 #월정리맛집</t>
-  </si>
-  <si>
-    <t>전국에서 알아주는 진짜로컬맛집찾는다면 "돌집식당"밥도둑세트👍👍간장게장 못 먹는 사람도 반할 수 밖에없는연어장과 딱새우장,전복장까지 모둠으로구성되어 있지만 커플세트로🥰먹어도 되는 곳이라 착한 가격에 만날 수 있는⠀레알찐찐맛집😍😍😍⠀표선근처에 가면 무조건 한번쯤 들려봐야하는맛집으로 강추드리고 싶은 곳💕💕⠀🧭돌집식당제주🗺서귀포시 표선면 서성일로 23⏰매일 10:00 - 21:00 수요일 휴무📞064-787-3720#표선맛집 #제주표선맛집 #제주도표선맛집#우도맛집 #제주간장게장맛집 #제주도간장게장맛집#제주간장게장 #제주도간장게장 #제주밥집 #제주도밥집</t>
-  </si>
-  <si>
-    <t>𖤐맛있는 힐링이 필요할 때!특별하고 맛있는 즐거움이 있는 곳!산도롱맨도롱에서 맛있는 갈비국수 드셔보세요!..산도롱맨도롱주소 : 서귀포시 성산읍 일주동로 5105영업시간 : 08:00 ~ 재료소진시까지문의 : 064-782-5105...#제주맛집베스트#제주맛집여행#섭지코지#광치기해변#우도맛집#종달리#종달리맛집#하도리맛집#세화리맛집#제주도맛집탐방</t>
+    <t>🐈🌿파란색 대문을 넘으면 펼쳐지는여름을 쏙 빼닮은 공간-찜통일 줄 알았던 테라스가 의외로 선선해서, 귀여운 침입자들이 자주 걸음 해줘서 더 좋았던 곳 💚,#니콘 #nikonZ50 #daily_nikon</t>
+  </si>
+  <si>
+    <t>서울숲 오후 “스테키동”은 하루10그릇, 주말 20그릇 한정 수량 &amp; 모든 메인 메뉴는 재료 소진시 시간과 상관 없이 마감됩니다.출시하자마자 인기 좋은 신메뉴 “차슈정식”도 꼭 드셔보시길 바랍니다:)문 앞 웨이팅 리스트 작성해주시고 현장 대기 해주셔야합니다🙇🏼‍♂️오늘도 정성스러운 한 상 준비해 놓을게요. 따뜻한 국과 디저트가지 준비되는 서울숲 오후에서 든든한 식사 하시길 바랍니다:)-코로나 예방으로 손이 닿는 모든 곳은 철저하게 소독제로 소독합니다.문 앞 비치된 손소독제 꼭 사용 부탁드립니다🙏🏻--#서울숲오후#스테키동#서울숲#서울숲맛집#서울숲카페#서울숲핫플#성수동#성수동맛집#성수맛집#성수카페#성수핫플#블루보틀성수#갤러리아포레맛집#갤러리아포레#뚝섬맛집#뚝섬핫플#뚝섬카페</t>
+  </si>
+  <si>
+    <t>시몬스 침대 브랜드 창립 150주년을 기념해 힙플레이스 성수동에서 시몬스 하드웨어 스토어 오픈했어용🌞각종 스테이셔너리 및 패션아이템 등 라이프 굿즈를 매주 새롭게 만나볼 수 있고, 오픈을 기념해 프랑스 비주얼 아티스트 장 줄리앙이 드로잉한 한정판 카톡 이모티콘을 선착순 무료로 제공한답니다!💛✨주소: 성동구 성수이로 12길 24월 1일부터 6월 28일시간: All week 12시-8시pm⠀⠀⠀#시몬스 #시몬스침대 #시몬스테라스 #시몬스하드웨어스토어 #simmonshardwarestore</t>
+  </si>
+  <si>
+    <t>아무생각없이 웃고 떠들었던 하루.</t>
+  </si>
+  <si>
+    <t>[DA ROBE - 성수]⠀⠀여러 매거진, 그리고 SNS에서도 핫했던 다로베 ❗️⠀시그니처 피자와 파스타를 먹어보고 왔다✨⠀“다로베 + 부라타추가”⠀어느 매장을 가던, 그 매장의 이름을 딴 메뉴나시그니처메뉴를 맛보는 것을 즐긴다.매장의 이름을 건 메뉴인만큼, 맛의 실패도 적고,이 매장만의 특색을 느낄 수 있기 때문이다.⠀이 피자는 “비스마르크”라는 이름으로 나가다가,“다로베”로 네이밍을 변경했다고 한다.그렇다는건, 믿고 먹어도 될 대표메뉴가 아닐까?✨⠀계란, 바질, 물소치즈, 트러플오일 그리고 프로슈토가 조화롭게 어우러졌다.거기에 부라타를 추가하여 풍미와 부드러움까지 더해지니, 왜 시그니처인지 알 것 같다😋⠀⠀“포르치니 크레마 파스타”⠀버섯향 가득담긴 넓은 원통형의 파스타면의 면적이 넓어 진득한 크림소스를 한가득 머금고 있다.식감도 재미있고, 버섯의 풍미와 간도 적절하니,버섯을 싫어하지 않는다면 호불호 없을 메뉴👏🏻⠀하지만 다로베 피자와 부드럽고, 크리미한 느낌이 겹치기때문에, 다른 파스타를 드셔보는 것이 좋을 것 같네요😀⠀⠀</t>
+  </si>
+  <si>
+    <t>복숭아와 라벤더의 조화를 좋아해주시는분들이 많아서 다행이에요☺️ 오늘도 여름디저트 넉넉히 준비해놓았으니 12시부터 만나용🏝 #bbhay #비비해이-@j__w.n 님께서 찍어주셨어요 :)</t>
+  </si>
+  <si>
+    <t>새 옷인디 .. 성수동 가서 청소하고 옴 😊</t>
+  </si>
+  <si>
+    <t>#냐냐_냠냠 #냐냐_다이어트⠀200523 점심 ෆ• 헤이보울⠀다이어터 둘의 주말 성수동 데이트 👀#스무디볼 뇸뇸 with @reun._.2</t>
+  </si>
+  <si>
+    <t>오늘 수요일인줄 알았는데 목요일이라 기분이 좋아 ,,,...#목요팅 #목요일 #출근중 #연무장 #성수핫플 #성수동핫플 #루프탑카페 #날씨좋아 #여름날씨 #반팔 #반바지 #츄리닝 #출근룩 #강남역 #건대입구 #서울숲 #한남동 #주말뭐하지 #seoul #나들이 #일개미 #소통스타그램 #댓글소통</t>
+  </si>
+  <si>
+    <t>_⠀요렇게 박시한 상의 제품과 함께하면 힙한 느낌까지!!!🤟🏻🤟🏻 만능슬랙스💛⠀상의 👉🏽 노앙 @official_nohant하의 👉🏽 림잇⠀</t>
+  </si>
+  <si>
+    <t>💜오늘 여러분의 행복은 무엇 이었나요?💜파랑새가 여러분의 행복을 응원 합니다.🐦파랑새를 찾아 와주신 @suah__aa 님의 오늘도 행복하셨기를 바랄게요✨</t>
+  </si>
+  <si>
+    <t>내 컨셉은 무심한듯 시크한거임ㅋ🖤🧐그런 의미에서 #서울무채색카페 갈거임ㅋ@이 갬성 너두 rgrg? 옷맞춰입고 ㄱㄱ🖤🤍..#무채색카페 #색감카페 #흑백카페 #성수카페 #성수동카페 #성수핫플 #성수데이트 #성수동핫플 #성수동데이트</t>
+  </si>
+  <si>
+    <t>..히히히 선물 받았지요~😍..별로 안달다고 하던데... 난왜 달지??맛있게 냠냠 아껴먹는중 😜..참 고급지다 저상자 색별로 다 모으고 싶음😝...#index #indexcaramel #수제카라멜 #생카라멜 #화요일#칼퇴성공</t>
+  </si>
+  <si>
+    <t>@__mu_use3 혼자 베이킹 했을때두 재밋었는데남편이랑 같이하니까 더 재밋네🙈❤️여보도 백수할래,,?ㅋㅋㅋ-남편이 만든 라이언 시강,,🤣--#백수라이프#공방데이트</t>
+  </si>
+  <si>
+    <t>#일상을여행처럼린다G 비룡 수발러 지코깡 춤 췄던 곳, #바이산..#성수핫플#놀면뭐하니#서울여행지#바이산대림창고#놀면뭐하니촬영장소#성수카페</t>
+  </si>
+  <si>
+    <t>나 눈돌아가는 소리 여기까지도 들려 👀👀</t>
+  </si>
+  <si>
+    <t>와 이건 꼭 가봐야해요. 미쳤어요. 게다가 말 그대로 브캉스.  #브릭캠퍼스 #브캉스 #성수핫플 #서울숲전시</t>
+  </si>
+  <si>
+    <t>오늘 점심 커피타임은 사무실 근처에 핫한 카페에서 ~ ☕️ 사무실 근처에 예쁘고 유명한 카페가 점점 더 많아져서 점심에 한 곳씩 가보는 중이예요 😉 성수동 핫플 아시면 많이많이 공유해주세요</t>
+  </si>
+  <si>
+    <t>ㅤㅤㅤㅤㅤ윤기있는 피부를 원하는 글로우 러버들 주목❕ㅤㅤㅤㅤㅤ아모레성수 신제품존에서는헤라 블라인드 테스트가 한창이랍니다 ✨ㅤㅤㅤㅤㅤ화려한 오일광, 은은한 자연광,파우더 매트광 쿠션 등 3가지 제품을 테스트 한 후 마음에 드는 쿠션에 투표하면여러분의 의견이 반영된 헤라 신제품 쿠션이 출시됩니다!ㅤㅤㅤㅤㅤ7월 19일(일)까지 이어지는헤라 블라인드 테스트 투표에 참여하고신제품 출시 후 증정되는 미니 쿠션도 받아보세요 :)ㅤㅤㅤㅤㅤCome to HERA blind testat AMOREseongsu new product zone.ㅤㅤㅤㅤㅤYou can test 3 types of Cushion products and vote to the favorite one, then the most popular product will be launched officially.ㅤㅤㅤㅤㅤJoin in the voting event by 19th July Sunday for a mini Cushion gift given after the launching.ㅤㅤㅤㅤㅤ#아모레성수 #헤라 #쿠션추천#AMOREseongsu #HERA #recommendcushion</t>
+  </si>
+  <si>
+    <t>저희 매장 꾸준히 인기 좋았던 아이❤️ 이번엔 민트 옐로우 컬러 추가해서 가져왔어요!!😆😆😆크로스도 가능 하구 깔끔한 디자인에 너무이뻐요😻.#키메네상점</t>
+  </si>
+  <si>
+    <t>성수동 청주한씨는 한식오마카세입니다-7월은 보양의 계절💪그래서 준비한 트러플영계 크림리조또🐣닭죽보다 고급진 네이밍 찾으려고 애써봄-깊은 보울 속 무심히 툭 얹은미니 산삼 덕분에 풍부해진 향!-코스 중간쯤 나와서술 마실 때 속이 든든해집니다🔥술을 끊으면 되는데 어차피 안되잖아요🤭기력보충과 동시에 과음하면다 괜찮아요🙃⠀#청주한씨 #알콜소비촉진위원회#닭은치킨이지 #양념반후라이드반#그래도여름엔 #치킨대신 #성수동청주한씨#한식오마카세 #성수맛집 #성수술집 #성수핫플#한경희셰프 #한식주점 #여름보양식 #트러플리조또</t>
+  </si>
+  <si>
+    <t>#Doros #도로스 ㅤㅤㅤㅤ-#ssfashion #ootd #daily #instalike #selfie #fashion #bag #summerbag #followforfollowback #model #👜 #studio #맞팔 #좋반 #여름신상 #신상가방 #여름패션 #20대쇼핑몰 #30대쇼핑몰 #데일리룩 #데일리코디 #성수동카페 #바캉스룩 #젤리슈즈 #여름신발 #토트백 #성수핫플 #신상업뎃</t>
+  </si>
+  <si>
+    <t>#Doros #도로스 ㅤㅤㅤㅤ-#ssfashion #ootd #daily #instalike #selfie #fashion #bag #summerbag #followforfollowback #model #👜 #studio #맞팔 #좋반 #여름신상 #신상가방 #여름패션 #20대쇼핑몰 #30대쇼핑몰 #데일리룩 #데일리코디 #성수동카페 #바캉스룩 #젤리슈즈 #여름신발 #토트백 #성수핫플 #여름가방</t>
+  </si>
+  <si>
+    <t>#Doros #도로스 ㅤㅤㅤㅤ-#ssfashion #ootd #daily #instalike #selfie #fashion #bag #summerbag #followforfollowback #model #👜 #studio #맞팔 #좋반 #여름신상 #신상가방 #여름패션 #20대쇼핑몰 #30대쇼핑몰 #데일리룩 #데일리코디 #성수동카페 #바캉스룩 #젤리슈즈 #여름신발 #토트백 #성수핫플 #마크라메가방</t>
+  </si>
+  <si>
+    <t>#Doros #도로스 ㅤㅤㅤㅤ-#macrame #ootd #daily #instalike #selfie #fashion #bag #summerbag #followforfollowback #model #👜 #studio #맞팔 #좋반 #여름신상 #신상가방 #여름패션 #20대가방 #30대가방 #데일리룩 #데일리코디 #성수동카페 #여행가방 #젤리슈즈 #여름신발 #토트백 #성수핫플 #마크라메가방</t>
+  </si>
+  <si>
+    <t>#Doros #도로스 ㅤㅤㅤㅤ-#macrame #ootd #daily #instalike #selfie #fashion #bag #summerbag #followforfollowback #model #👜 #studio #맞팔 #좋반 #여름신상 #신상가방 #여름패션 #20대가방 #30대가방 #데일리룩 #데일리코디 #성수동카페 #촬영 #젤리슈즈 #여름신발 #토트백 #성수핫플 #마크라메가방</t>
+  </si>
+  <si>
+    <t>카페 전세 내써요,,🤭정말 아무도 없어서 스튜디오 온줄▫️▪️◽</t>
+  </si>
+  <si>
+    <t>카페 디절ㄹㄹㄹㄹㄹㅌㅡ..#옹근달 #성수핫플 #카페 #디저트 #커피 #일상 #소통 #여행 #먹스타그램 #핫플 #커피스타그램 #요리 #서울 #홍대 #건대 #이태원 #가로수길 #성수 #합정 #을지로 #food #selfie #fashion #fff</t>
+  </si>
+  <si>
+    <t>💧하루 종일 눅눅한 오늘💧시원하고 뽀송한 뚝섬미술관에서 데이트 하기💖⠀#뚝섬미술관 에서 #파랑새 가 기다리고 있을게요💖⠀파랑새와 함께해주신 @ye_jin327 님의 행복을 응원합니다💙⠀파랑새 전시는 여러분들의 안전한 관람을 위해 방역과 청결에 최선을 다하고 있습니다💪💙⠀코로나 19 예방을 위해 여러분들의 모범적인 관람 예절에 감사드립니다🙆</t>
+  </si>
+  <si>
+    <t>⠀흐린 화요일 입니다☁️🌧언제나처럼 여덟시까지 열려 있어요!</t>
+  </si>
+  <si>
+    <t>#rawcoffeestand#로우커피스탠드@아이스아메리카노⠀골목골목. 테이크아웃 위주. 저렴하고 좋은 커피. 맞은편에 쉴 수 있는 작은 공간이 있다. 화창한 날 커피 테이크아웃을 위해 찾아갔다. 뜨거웠지만 햇빛과 너무 어울리는 곳이었다. 이곳뿐만 아니라 성수동의 골목골목을 다니다 보면 의도치 않은 행복을 느낀다. 작지만 동화 같은 감성이 가득 한 곳.⠀산미는 느끼지 못했고, 무던한 맛이었다. 적절한 쓴맛과 감칠맛. 살짝 연한감도 있었다.⠀커피맛선호도80공간선호도85</t>
+  </si>
+  <si>
+    <t>#수제돈카츠 전문점 #오레노카츠 입니다!🤟오늘도 날씨가 좋네요!☀️저희는 즐거운 마음으로 오픈준비 중입니다오늘도 맛있는 돈카츠를 내기위해뚝딱뚝딱 준비하고 있어요!🙌오늘 점심은 돈카츠 어떠세요?🙆🏻‍♀️</t>
+  </si>
+  <si>
+    <t>🧸🧺🍎🥝🥑🍙 .......#ig_korea #seoultravel #iseoulu #dametraveler #darlingescape #momentsofmine #picnictime #travelbloggerkorea #seoulforestpark #seoulforest #daily #성수동 #성수핫플 #서울숲 #서울숲나들이 #서울숲피크닉 #시나의두시 #피크닉도시락 #좋반 #좋아요 #소통 #일상</t>
+  </si>
+  <si>
+    <t>어제 회사 조퇴하고 17시간 잤는데도 졸리네여----병원에서는 그냥 감기라고 합니다 뿌슝빠슝😖</t>
+  </si>
+  <si>
+    <t>#morelloartstudio 어렵게만 생각했던 미술을 쉽게 자신만의 작품을 만들어 보는 공간 morello art stuido 입니다..누구나 쉽게 그림을 배울 수 있습니다 그림을 전혀 그려보지 않으신 분들도 멋진 작품을 완성 할 수 있어요새로운 취미에 도전해보세요 🙋🏻‍♀️..유화수채화드로잉오일파스텔..문의💌DM / 카카오톡 채널 ; morelloart.🎨모든 클래스는 100% 예약제로 운영됩니다</t>
+  </si>
+  <si>
+    <t>마트다녀오는 길에 발견한 너무너무 익숙한 폰트!!!카페바이산...카페키츠네</t>
+  </si>
+  <si>
+    <t>#다꾸 #문구 덕후라면 꼭 가봐야 할 #오브젝트 #오브젝트성수점 📝 직접 고르고 조합하는 재미가 있는 다이어리와 파우치 그리고 모나미 볼펜! 그밖에도 귀여운 스티커와 엽서, 리빙 소품들이 참 많다! 어쩌겠습니까.. 또 돈을 썼지요...💸</t>
+  </si>
+  <si>
+    <t>오늘의 #모모아일상⠀온통 제 스타일 메뉴들로 가득😋야밤에 자꾸 생각나는 맛...🧡⠀요알못은 역시 돈 주고 사먹는게보기도 좋고 먹기도 좋구나😂⠀집에서도 이렇게 만들어 먹고 싶은데....저는 요리가 왤케 어려울까용ㅋㅋㅋㅋㅋ⠀인스타에서 예뿌게 뚝딱 만드는 분들 보면정말 신기하고 부러워용❣️⠀</t>
+  </si>
+  <si>
+    <t>After checking out @hince_official for @leilaha223 's bday present a few months ago, I visited again to check out their new products. Leila said she liked the gifts and after visiting, I was really interested in their products for myself! They came out with nail polishes and new lip glosses since my last visit in February, but released a new eyeshadow palette this week (it wasn't in the store when I visited).Of course I picked up the blush I had been lusting after for 4 months now, the True Dimension Cheek Glow in Mellow. 🤩 And one of the lip glosses, Gleam On (I know they don't match at all but it is a beautiful color).They reorganized their Seongsu shop, so visit if you want to see Hince products in person! I think many of you would like their aesthetic. Swipe to see more pictures and videos~..@hince_official...I will show the two products I bought later.🥰...#힌스 #힌스아뜰리에 #성수핫플 #뚝섬역 #코덕환영 #코스메틱 #코덕 #코덕맞팔 #코덕스타그램 #핑크스타그램 #뷰티블로거 #코덕그램 #여름메이크업 #내돈내산 #립스틱덕후 #hince #hincelipstick #hinceatelier #ヒンス #abbeatthealgorithm #magicalgirlguidetoseoul #koreanmakeup #abcommunity #asianbeautyblogger #rasianbeauty #mabubsonyeoreview #seoulshopping #seoulstagram #kbeautyshopping #summermakeup</t>
+  </si>
+  <si>
+    <t>커플사진 1탄#여친스타그램 #깔스타그램 #커플스타그램 #성수동 #성수핫플 #성수맛집 #나누리잡화점</t>
+  </si>
+  <si>
+    <t>행보칸치뤌</t>
+  </si>
+  <si>
+    <t>화려한 음식이 나를감싸네~~~💡🧇🥔🍳🥬🌽🍤</t>
+  </si>
+  <si>
+    <t>.🌿the 숨 skincare🌿.[스킨플래닝].스킨플래닝이란??해외에서는 스킨플래닝,더마플래닝이라 불리우며 전 세계적으로 가장 트렌디한 관리로 떠오르는 뷰티 스킨케어 시술입니다.여기서 더마플래닝(Dema Planning)이란 피부를 뜻하는더마(Dema)와 대패질을 뜻하는 플래닝(Planning)이 합쳐진 스킨케어를 의미하는 이단어는 1970년 성형외과 의사의 트리트먼트에서 시작하여 현재 미국, 영국까지 선풍적인 인기를 끌고있는 프리미엄 스킨케어 관리입니다.맨허튼에 위치한 패션 부티크 '파이브 스토리'의 창립자인클리어 올셴이 한 매체의 인터뷰에서 더마플래닝을 받는다고할 정도로 이미 해외에서 스킨케어 루틴으로써 잡은 뷰티 프로그램입니다.피부의 죽은 각질과 노폐물, 솜털과 잔털뿐 아니라 각종 먼지와 노폐물까지 제거하는 특별한 기술을 섬세한동양인 피부에 맞추어서 개발된 전문 트리트먼트인'더숨 더마플래닝'은 일반적으로 널리 알려져있는 왁싱과 실면도, 각질제거 관리와는 달리 관리중 통증과부작용이 거의 없으며, 관리 직후 즉각적인 톤업은 물론매끄러운 피부 결과 본연의 광을 되찾아주는프리미엄 관리입니다..._▪️예약 상담 문의▪️📞010-3564-0668➡️네이버검색:"더숨뷰티"➡️오픈카톡 상단클릭📌💡빠른상담은 오픈카톡입니다🙏시술중엔 답변이 다소 늦을수 있으나   순차적으로 빠른답변드릴수 있도록 하겠습니다..#더숨뷰티#스킨플래닝#더마플래닝#피부스케일링#스킨케어#각질케어#각질제거#피지제거#동안피부#노화방지#피부미인#피부관리#MTS#물광피부#탱클탱글#깐달걀피부#skinplaning#썬크림#재생크림#알로에수딩#후관리중요#솜털제거#잔털제거#피부톤업#애기피부#반영구#눈썹문신#성수핫플</t>
+  </si>
+  <si>
+    <t>하트시그널 임한결님 카페 ! 실물보고 너무 잘생겨서 깜짝 놀랬 ,,,ㅎㅎㅎ사진은 같이 못 찍어서 속상했지만  커피가 진짜 맛있어서 용서됨 ! 🙈</t>
+  </si>
+  <si>
+    <t>: 🐰⠀아니 모 내가 토끼머리띠를 잘 못할 수도 이찌..😗 답답한 마음을 못 참고 결국 포토그래퍼가 다시 해줌ㅋㅋㅋㅋㅋㅋ⠀#아모레성수 #성수동 #amoreseongsu #selfies #sel#planterior #운동하는여자 #헬스하는여자 #연우어디가#주말일상 #액자식정원 #성수데이트 #성수 #성수핫플</t>
+  </si>
+  <si>
+    <t>속눈썹펌 1+1 이벤트중🖤1인가격에 2인시술가족과 친구와 함께 오셔서 예뻐지세용:)⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀▫️ʙ.ʙ 속눈썹펌▫️•JC컬/C컬 선택 가능•뿌리부터 ᴄᴜʀʟ ᴜᴘ!•속눈썹 길이, 눈매에 따른 맞춤시술•속눈썹 클리닉 s/ᴠ⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀🗓예약 및 문의프로필 상단 오픈카톡 링크타고성함/연락처/원하시는시술/원하시는날짜&amp;시간 남겨주시면 최대한 빠르게 답변 드리겠습니다!⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀#성수동속눈썹#뚝섬속눈썹연장 #서울숲 #성수동카페 #속눈썹연장 #속눈썹펌 #뷰러펌 #강남속눈썹연장 #왕십리반영구 #뚝섬역 #성수핫플 #성수동눈썹문신 #반영구눈썹 #성수동미용실 #성수동맛집 #왕십리속눈썹 #한양대 #메이크업 #반영구화장 #타투</t>
+  </si>
+  <si>
+    <t>안녕이 영원한 안녕은 아니겠지요~~~</t>
+  </si>
+  <si>
+    <t>#성수동핫플투어..여긴 또 뭐야?? 🤩🤩아트전시장이랑 샵이랑 같이 공존하는곳.스토리가 있는 곳인데 사실 좀 어려....웠...😅😅.어릴 적 회사는 역삼동이라 진짜 뭐 골목에 모델만 있고 청국장집만 있고 뭐 그랬는데 성수동에서 일하니 산책할 맛이 난다요🥰.#성수ader#adererror #ader#성수핫플#누가만들었는지감탄#패션#오오티디#데일리룩#검검패션#더워#데일리룩코디 #검청패션#일상#좋아요#세틴팬츠#세틴좋아#하늘짱이쁨#아더에러 #아더에러성수#아더에러쇼룸</t>
+  </si>
+  <si>
+    <t>느무이쁜 동그리 토트백❤️크로스끈도 있어서 크로스 가능 하단 사실👍🏻컬러 4개 에욤😊* 블랙 컬러는 체인끈나머지 컬러는 합피끈 입니다🙏🏻</t>
+  </si>
+  <si>
+    <t>귀엽고 살 게 잔뜩 있는 공간#오키로북스 #오키로북스파크</t>
+  </si>
+  <si>
+    <t>이런게 성수갬성?우디집문 못찾아서 헤맴#우디집 #성수핫플 #성수동가볼만힌곳 #성수동카페 #갬성카페</t>
+  </si>
+  <si>
+    <t>월요일에는 더 맛있는걸 먹어줘야쥬?🦋오늘 계정해킹 당해서 넘나 당황쓰...;;그러지맙시다 젭알^^</t>
+  </si>
+  <si>
+    <t>.MAEDEUP 페인팅 원데이클래스⠀매듭 공방의 페인팅클래스가 시작됩니다🤍쉽고 선명하게 세라믹페인팅을 경험해 볼 수 있도록 준비해 두었어요☺️⠀평소에 좋아하던 다양한 이미지를 채워 나만의 그릇을 만들어보세요🎨⠀원데이/정규수업 문의는 프로필 하단에 네이버모두 홈페이지를 클릭하여 자세한 정보를 확인할 수 있습니다✔️⠀</t>
+  </si>
+  <si>
+    <t>#카페간다예 #벤허커피 #BNHR⠀한남동에 이어 얼마전에 성수에 새로 오픈한 벤허커피에 엄마랑 같이 방문! 🤩 생각보다 넓고 조용해서 너무 좋았어요~ 요즘 핫한 갬성 카페들이 자리도 좁고 공간도 비좁은데 반해 여기는 자리도 넓고 공간도 매우 넓어서 엄마도 좋아하셨어요!⠀엄마랑 #성수 #데이트 #성공적 🧡⠀매일 11:00~21:00@bnhrcoffee⠀⠀</t>
+  </si>
+  <si>
+    <t>⠀✔️탐광 성수성수에 있는 카레집 탐광이에요.요즘 굉장한 핫플이라 5시 디너오픈 전 방문했는데 오픈시각에는 웨이팅이 그렇게까지 길진 않았어요!뉴 에비카츠돈과 대창카레 츠케멘을 먹었어요. 에비는 사진에서 보는 것처럼 새우가 탱글탱글하고 같이 찍어먹는 콘마요 타르타르 소스의 궁합이 잘 맞아요. 츠케멘은 면이 방금 뽑은 것과 같이 탱글탱글해서 카레에 폭 찍어먹으면 넘맛있어요.💗 같이 곁들여 나오는 부추 반찬도 너무 맛있어요!</t>
+  </si>
+  <si>
+    <t>.한쥬 시작~🙃럭키한 하루우🍀~</t>
+  </si>
+  <si>
+    <t>결혼 너무너무 축하해용~&gt;&lt;식 끝나구 핫플에서 뒷풀이 ^__^흐흐......#성수 #성수핫플 #카페 #맛집 #어반소스 #나도이제인싸😎 #ㅋㅋㅋㅋㅋㅋㅋㅋ #여긴뭔데 #컵도이뻐 #크크 #결혼축하해요🎉 #내가제일축하해❤️ #집들이는 #언제쯤 #❔#일상 #daily</t>
+  </si>
+  <si>
+    <t>🕊</t>
+  </si>
+  <si>
+    <t>와보고 싶던 메쉬!!!!아이스라떼연한느낌인데 맛있다내가  진하게 먹는건가샷추가 할걸 너무 핫플이라야외서 호로록 먹구 호로록 가기</t>
+  </si>
+  <si>
+    <t>#일상을여행처럼예능, 드라마에 가본 곳이나오면 참 반가워요비룡 가족모임으로 찜 쪄먹고심은지 작곡가님 만난 장소. .#성수핫플#놀면뭐하니#서울여행지#할아버지공장#놀면뭐하니촬영장소#성수카페</t>
+  </si>
+  <si>
+    <t>.사람 너무 많아..😺</t>
+  </si>
+  <si>
+    <t>#로스트성수#로스트인내추럴 벌써 이렇게 핫하다니 예상은 했지만 이제 예약 걱정해야 되겠군요...😂 예약안하시고 오셔서 돌아가시는 분들이 많아 안타까웠네요 ㅠㅠ 예약은 필수!! 참! 오늘은 휴무에요!#톰리#톰리_성수</t>
+  </si>
+  <si>
+    <t>#성수동 #어니언⭐️3.5/5빵천국❣️ 팡도르 앙버터 공주밤빵 존맛탱</t>
+  </si>
+  <si>
+    <t>#성수동 #라무진.라무진이야 사실 뭐 #양갈비 좋아하는 사람들에겐 워낙 유명한 곳이지만 성수에도 있다는 반가운 마음에 업로드. #성수카페거리 에도 있긴한데 내가 방문했던 곳은 #라무진성수점 이니 헷갈리면 아니 됨.이 곳 시그니처인 #프렌치렉 과 양갈비는 기본으로 시켜주고 시작 (생맥주도 빼놓을 수 없지) 라무진의 좋은 점은 일단 시키기만 하면 알아서 다 구워주시고 원하는 야채구이도 무제한으로 먹을 수 있다는 점 그리고 잘못하면 양 비린내가 나는 곳이 많은데 고기 자체에도 엄청 신경 쓰는 것 같아 비린내 걱정은 네버에버 하지 않아도 된다는 점! 소고기를 먹는건자 양고기를 먹는건지 모를만큼 육즙팡팡에 부드럽고 맛있듬 ㅠㅠ 아 여기 #마늘밥 은 처음 먹어봤는데 별미로 추천.모든 매장이 다 그런지는 모르겠지만 상당히 많은 라무진은 다찌 형식으로 되어 셰프님들이 앞에서 직접 구워 주심. 뭔가 분위기 잡고 싶거나 데이트, 첫 소개팅(은 아닌가?) 하기 좋은 장소! 주차는 매장 앞에 2대 정도 할 수 있는데 걍 도로에다 세우는거라 웬만하면 차 안가져가는 걸 추천(근처 공영주차장이 있다고 듣긴 함).#라무진성수✔️ 위치: 서울 성동구 아차산로7길 28 1층 20호 (맨 뒷장 지도 참고) ✔️ 전화번호: 02-463-1001✔️ 매일 17:00 ~ 24:00✔️ 징기스칸 프렌치렉 27,000원 징기스칸 양갈비 27,000원 마늘밥 3,000원 .#성수동맛집 #성수양갈비 #성수양고기 #징기스칸 #성수양꼬치 #성수동술집 #성수역술집 #성수역맛집 #양갈비맛집 #양고기맛집 #성수생맥주 #삿뽀로 #성수카페거리맛집 #데이트추천 #데이트장소 #성수데이트 #소개팅장소 #성수소개팅 #분위기맛집 #성수핫플 #소통#찐성수</t>
+  </si>
+  <si>
+    <t>고객님들 오늘 매장 오셔야해요~~😉신상이랑 세일 옴총 디피될 예정☺️10시까지 영업해요😻</t>
+  </si>
+  <si>
+    <t>5시 오픈이라 가게 앞에서 신나게 사진찍었당🧚🏻</t>
+  </si>
+  <si>
+    <t>이미 유명한 핫플이지만 자주 들리는곳이에요🙂여긴 쑥 라떼가 진짜 맛있어요🍵👍🏻 진한 녹차 라떼 느낌🤟🏻</t>
+  </si>
+  <si>
+    <t>💙친구와 파랑새와 행복찾기💙⠀여름과 어울리는 파랑 가득한 #뚝섬미술관 에서가족과 친구와 연인과 행복찾기 여행을 떠나보시는건 어떨까요?⠀파랑새와 함께 해주신 @na_hyun_a04 님의 행복을 응원합니다💙⠀뚝섬미술관과 파랑새전시회는 여러분들의 안전한 관람을 위해 방역과 청결에 최선을 다하고 있습니다💪💙⠀코로나 19 예방을 위해 여러분들의 모범적인 관람 예절에 감사드립니다🙆</t>
+  </si>
+  <si>
+    <t>⠀비 소식이 많은 이번주☔️우산 잘 챙겨서 외출 하세요!한 주도 화이팅 입니다💪🏻⠀⠀⠀⠀✔️월요일 10:00 - 20:00</t>
+  </si>
+  <si>
+    <t>⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀ ⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀🏠</t>
+  </si>
+  <si>
+    <t>정말 좋았다구요💜</t>
+  </si>
+  <si>
+    <t>그리워질줄알아찌 •ɞ•</t>
+  </si>
+  <si>
+    <t>화요일 청담동에서 모델구합니다🥰</t>
+  </si>
+  <si>
+    <t>ㅋ̆̈ㅋ̆̈ㅋ̆̈ㅋ̆̈ㅋ̆̈</t>
+  </si>
+  <si>
+    <t>화요일 청담동에서 염색 커트 모델 구합니다💗💌프로필 오픈카톡 또는 디엠주세요💌</t>
+  </si>
+  <si>
+    <t>랜만에 가르마 바꾼 날 🍃</t>
+  </si>
+  <si>
+    <t>화요일 청담동에서 염색 모델구합니다💗원하시는 스타일로 이쁘게 해드릴게요!!💌프로플 오픈카톡 또는 디엠 주세요💌</t>
+  </si>
+  <si>
+    <t>봄 맞이 발랄한 염색 하셔야죠 🥰 매주화요일 청담역 9번출구 앞 준오아카데미에서 염색 해드립니다 💗 -💌프로필 오픈카톡 또는 dm 주세용💌</t>
+  </si>
+  <si>
+    <t>화요일 청담동에서 염색 모델 구합니다 💌dm 또는 프로필 오픈카톡 문의주세요💌</t>
+  </si>
+  <si>
+    <t>#냉모밀세트 드시러 오세요 .근처 다른집가셨다가 후회 하셨다면서요~~ ㅎ .하루나 오셔서 한 푸세요~ ^^.#성수동하루나 #성수동맛집하루나#모밀맛집#소바맛집#돈까스맛집 #맛스타그램#성수핫플</t>
+  </si>
+  <si>
+    <t>주말 생각하며 월요일 견뎌내기 ! 🖤 모두모두 월요팅이에요 !! 🌿</t>
+  </si>
+  <si>
+    <t>화요일 청담동에서 염색 모델구합니다💗💗</t>
+  </si>
+  <si>
+    <t>지난주말 정말 많은분들의 방문에 너무 감사드립니다💓 오늘 날씨 너무좋아서 기분좋게 오픈준비하고있어요 오늘도 12시부터 6시까지 뵐게요! #bbhay #비비해이-내일과 모레(화,수)는 정기휴무날입니다!-@pyoji21 님께서 찍어주셨어요:) 진짜 이렇게 예쁘게 찍어주시다늬..🥺</t>
+  </si>
+  <si>
+    <t>빵모닝! 월요병 스코니로 극뽁 해보세요☺️</t>
+  </si>
+  <si>
+    <t>생존신고 함둥---사실 두통때문에 곧 사망 예정 🤯</t>
+  </si>
+  <si>
+    <t>여기 너무너무 좋았자냐〰️〰️🤍🤍</t>
+  </si>
+  <si>
+    <t>❤️루프탑으로 올라가서 보던 서울의 뷰.빼꼼 보이던 롯데타워가 너무나 귀여웠다.일몰시간 맞춰서 가면 더더더 예쁠 것 같다😆</t>
+  </si>
+  <si>
+    <t>😆☕️ 카페 연무장📍 서울 성동구 연무장길 36 쏘비트타워 8층 카페연무장💌 @yeonmujang.루프탑이 인상적이던 연무장.미래 도시 온 것 같았다😉</t>
+  </si>
+  <si>
+    <t>polarathome / 인정소비link in bio ⬆️...#인정소비 #소비일상 #폴라앳홈 #polarathome #구매후기 #내돈내산 #맞팔선팔환영 #좋아요반사 #맞팔환영 #블로그 #솔직후기 #성수핫플 #성수핫플레이스</t>
+  </si>
+  <si>
+    <t>지인들 스토리.피드에 종종 올라오던 🥢#웨이팅맛집 🥢#성수맛집 = 👉🏻#소바식당 에 혼밥장인도 다녀왔지요~~~~(씁..! 이것은 무려 일주전,,, 사진이 좀 못나와서 계속 미뤘네요 깔깔~ 누가보면 평소에는 잘찍는줄~~)-#소바식당성수점 에 갔는데요~ 올해 모밀 처음 먹는 사람 나야나^^~ 소바 자주 안먹는데 오램맘ㄴ에 먹으니까 맛있더라고요! 개인적으로 모든 웨이팅 맛집이 그렇듯 소름끼칠정도로 맛있진 않지만! 맛있는 모밀~예쁜 분위기~정갈한 식당~이라서 마음에 들었습니다.-🍱#성게알덮밥 은 1인분에 거의 2만원정도였던 걸로 기억함. (방금확인했는데 1인분 18000) 꽤 ㅐ비쌌는데 이게 수요미식회 나온 메뉴?고 제일 유명하다고 해서 시켰다! 근데 생각보다 쏘쏘!ㅎㅎㅎㅎ 성게알 본연의 맛을 잘 몰라서 그럴수도.. 개인적으로 게딱지밥보다 감칠맛이나 자극적인 맛이 덜한듯. 그래서 게딱지밥 먹고 성게알덮밥 먹으면 밍밍하다고 느꼈음.-🦀#게딱지장덮밥 8천냥이 제일 맛있었습니다. 제 최애ㅣ 삼각김밥도 게딱지장 맛이었거든요. 사실 딱 그 맛이 났는데 고급지고 건강한 버전이었달까. 여튼 전 이게 제 원픽. 근데 애들도 이게 제일 맛있었대요ㅋㅋ-🦐#단새우냉소바 만천냥, #전복냉소바 만이천냥 두 메뉴의 소바는 맛이 똑같음 토핑만 다름. 전복소바에는 전복 하나를 쪼개서 넣어주고, 새우소바는 새우 두개 넣어줌. -배고파서 다 맛있게 먹었다! 막 단골되고 싶을 정도는 아닌데 다시 가게되면 게딱지덮밥? 그건 꼭 시켜먹을거임...#성수 #성수동 #성수맛집 #성수소바맛집 #성수핫플 #서울숲맛집 #성수동맛집 #성수역 #먹스타그램 #맛스타그램 #맛집스타그램 #소바 #메밀소바 #모밀소바 #전복소바 #새우소바 #게딱지볶음밥 #게딱지밥 #게딱지장 #게딱지비빔밥 #서울숲 #서울숲맛집추천 #성수맛집추천</t>
+  </si>
+  <si>
+    <t>🎨ᴋɪᴛsᴄʜ ʟᴏᴏᴋ이렇게 스타일링 해두고 이건 어떤 스타일일까 고민하다가 찾은 #키치룩 💛💙살짝 촌스러우면서 톡톡튀는 귀여운 스타일링이었습니다 (*´∀`*)ゞ 하핳다들 월요팅 ..‼️</t>
+  </si>
+  <si>
+    <t>#20200703#FRI.오랜만에 은영이 송별회로 모인 포춘쿠키🥠완전체로 못모인건 아쉽지만😢이날 총 식비 30만원 실화냐구여ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ담엔 제주도에서 만나욤❤️</t>
+  </si>
+  <si>
+    <t>얼굴이 안나온것만 잘나왔네성수 최고넵💝 인스타갬성 잘~ 배우고 갑니다 @been_eun_ ......#성수핫플 #성수다락 #할아버지공장 #인스타갬성 #보조개 #아파 #너무 #많이 #웃어서 #ㅎㅎㅎ</t>
+  </si>
+  <si>
+    <t>#우동가조쿠 #성수점날 더워서 급 냉우동 우동가조쿠가 생각난날!!우동가조쿠는 왕십리가 본점인데브레이크 타임때문에 못가서 아쉬웠당그런데 웬걸! 성수점도 있는데주말엔 브레이크타임이 없지모야!너무 먹고싶어서 달려갔는데오랜 기다림 끝이 나온 우동!#붓가케우동 (#냉우동) #가조쿠우동 #타마고우동 이렇게 세개를 시켰당가격대비 아주 후륭한 #가성비맛집 👍🏼👍🏼👍🏼타마고우동은 주말 한정메뉴라 시켜봤는데계란덕분에 목넘김이 부드러운 우동메뉴판에 적힌대로 계란좋아라는사람들은 좋아할듯💞💞많이 기다리고 먹어서 그런지정말 다 맛있었다😋거기에 #새우튀김 과 #유부초밥 까지 배터지게 먹었다용 ❕❕#정파리픽</t>
+  </si>
+  <si>
+    <t>👔-엑스엑스엑스엑스라지 블레이저 멋있G 아르코로 한 줄 피드 완성 〰️</t>
+  </si>
+  <si>
+    <t>.시나브로 늘어난 골목골목 예쁜 카페들:)@favor.seoul #favorseoul</t>
+  </si>
+  <si>
+    <t>☀️-아르코 발도장 찍기 성공적 👣</t>
+  </si>
+  <si>
+    <t>줄서서 먹는 성수핫플맛 자체로만 따지자면.. 음..맛은 좋은데 줄 설 정도는 모르겠다다만 손님이 그리 많은데도 친절한걸 보니 여긴 제대로 된 곳이다 싶었다.비주얼 + 적당한 맛 + 친절함 이면 끝났지 뭐 ㅋㅋㅋㅋ...#성수동맛집 #성수핫플 #성수다락#먹스타그램 #맛스타그램 #주말점심#미쳤니 #다이어트는내일부터</t>
+  </si>
+  <si>
+    <t>바스버거에서 #탐욕버거 #와사비쉬림프버거 먹구 왔어요💛탐욕버거도 맛있는데 개인적으로 저는 와사비쉬림프버거가 최공👍🏻 진짜 통통한 새우가 한두개아니고 여러개  푸짐하게 들어있고, 와사비가 느끼함을 잡아줘서 징짜 맛있어요 ㅠㅠ💛하와이안버거두 추천🤫</t>
+  </si>
+  <si>
+    <t>#서울숲맛집 #파르코 #다헤맛집브레이킹타임 없어서 너무 좋은곳! 웨이팅이 없게하여 이 맛을 만천하에 알려야한다어중간한 시간에 가시는 것을 추천!! 진짜 풍미에 향에 간만에 함냐함냐 맛나게 묵었던 피자식어도 맛있고 꼬다리도 맛있고 저 해산물로제도 매콤한게 딱 내스타일이다ㅎㅎ리조토한입 피자한입 피자꼬다리에 리조토올려서 한입 즐거운 탄수폭탄시간! 금주기간이라 술안마셨지만 와인 땡기는 맛 정말 맛있다구ㅋㅋ</t>
+  </si>
+  <si>
+    <t>#주말정리찾아와 주신 귀한 발걸음 덕분에어제 오늘 심심하지 않게 잘 보냈습니다아!.오픈 첫 주말동안 가장 많은 예쁨을 받은 아이예요✨이 아이의 영롱한 자태를 다 담아주지 못해서 미안하네요-제가 제 구두를 신고있는걸 보시고는언니는 발 예쁘니까 뭘 신어도 예쁘지-— 하시는 분들이 꽤 계신데,아니예요오-하고 발을 꺼내 보여드리면 놀라십니다들😂😂제 발은 절대 예쁘지 않아요.태어날 때부터 못생긴 발이 컴플렉스였는데, 그 덕분에 구두를 만들면서 어떻게 하면 발이 예뻐보일까-를 많이 고민합니다.발볼부분이 크로스라인으로 잡혀있어발볼이 넓으신 (저처럼🙈) 분들도 아프지 않게 신으실 수 있어요-발이 예쁘신 분들은 금상첨화겠지유.....(부럽게)저는 이거 하늘색 찜콩!💎💎.#발밍아웃 #무지외반증 #퇴근길</t>
+  </si>
+  <si>
+    <t>샌드위치 맛집🥪분위기 맛집😋</t>
+  </si>
+  <si>
+    <t>💛항상 이뻤던 민승언니랑 주말데이트💛언니가 나를처음봤을때가 19살이였는뎅벌써 나는 27살이 되었다😊항상 저 예뻐해줘서 고마워요 언닝😊🧡언니이 8월에 같이생일파티해요우리❤🎂🎉</t>
+  </si>
+  <si>
+    <t>화요일 청담동에서 염색 커트 모델 구합니다💗원하시는 스타일로 이쁘게 해드릴게요🥰💌프로필 오픈카톡 또는 디엠주세요💌</t>
+  </si>
+  <si>
+    <t>여름휴가 준비 도와드릴게요💗청담동에서 염색 커트 모델 구합니다🥰💌프로필 오픈카톡 또는 디엠주세요💌</t>
+  </si>
+  <si>
+    <t>애쉬한 느낌으로 톤다운 하기 🥰#헤어모델 모집중 편하게 연락주세요💗</t>
+  </si>
+  <si>
+    <t>만찢녀(만화 찢고 나온 여자) 느낌 뿜뿜🥰여름이 다가오는 중 💗 탈색이 두려우시면 #옴브레 스타일 염색 도전해보세용 손상없이 이뿐머리 해드릴게요🔥💈💈헤어모델 상시 모집중💈💈🔥💌프로필 링크 또는 DM 주세요💌</t>
+  </si>
+  <si>
+    <t>손상없이 이쁜 머리 하셔야죠 😘 #헤어모델 모집중 입니다 엄마 이모 언니 동생 전부 가능합니다💗💌프로필 오픈카톡 또는 DM 문의 주세요💌</t>
+  </si>
+  <si>
+    <t>매주 화요일 청담역 9번출구 염색 모델 구합니다 ♥ 💌dm 또는 프로필 오픈카톡 문의주세요💌</t>
+  </si>
+  <si>
+    <t>화요일 청담동에서 염색모델 구합니다 🥰💌프로필 오픈카톡 또는 디엠 주세용💌</t>
+  </si>
+  <si>
+    <t>화요일 청담동에서 염색 모델 구합니다 🥰 💌프로필 오픈카톡 또는 디엠으로 문의 주세용💌</t>
+  </si>
+  <si>
+    <t>#성수연방 사장님 센스대박👍🏻</t>
+  </si>
+  <si>
+    <t>어반소스의 낮과 밤🌞🌙</t>
+  </si>
+  <si>
+    <t>Yujins happyday☺</t>
+  </si>
+  <si>
+    <t>.immute에서 MAEDEUP의 컵을 만나볼 수 있습니다➰</t>
+  </si>
+  <si>
+    <t>⠀주말 잘 보내셨나요?유난히 날씨가 좋아 피크닉세트 대여해서서울숲에 여유 즐기러 떠나신 분들도시원한 매장에서 수박빙수 드시는 분들도많아 덕분에 저희는 바쁜 주말을 보냈습니다😉모쪼록 즐겁고 맛있는 주말 보내셨기를 바라구요⠀다음주에도 수박 빵빵하게 채워 두겠습니다편안한 밤 보내세요🥰</t>
+  </si>
+  <si>
+    <t>😎 #성수핫플 #성수scene #성수동카페 #맞팔 #맞팔해요 #소통해요</t>
+  </si>
+  <si>
+    <t>💛..#노랑노랑</t>
+  </si>
+  <si>
+    <t>사진 찍어주는건  좋은데 내 스타일 필터가 아니네🥰그래도 고마워💛</t>
+  </si>
+  <si>
+    <t>.7월의 색상싱그럽고 밝은 원색의 흙이 추가되었어요☺️7월의 색으로 첫 원데이를 진행했는데 어떻게 나올지 너무 기대돼요➰⠀원데이/정규문의는 프로필에 네이버모두 링크를 눌러 확인해주세요✔️⠀휴가철이지만 조심스러운 요즘 프라이빗한 수업으로 여행 같은 시간을 만들어봐요🌊⠀(수강생/강사 모두 마스크 착용하여 수업 진행하고 있습니다😷)</t>
+  </si>
+  <si>
+    <t>미쳐가는중........#틱톡입문#틱톡병아리#틱린이#취미생김#성수동#성수#성수핫플#할아버지공장 #할방공#틱톡뜨자#데일리#오오티디#오오티디룩#tiktok #tiktokdance #tiktokchallenge #ootd #ootdlook #daily #ffff #f4f #맞팔#선팔#인친#좋아요#like4like</t>
+  </si>
+  <si>
+    <t>‍🌈이번 한 주도 모두들 행복하셨기를‍‍🌈⠀파랑새는 쉬지 않고 여러분들을 기다리고 있을게요💙⠀행복을 찾으러 와주신 @xxexhee 님의 행복을 응원해요💙:)⠀#뚝섬미술관 과 #파랑새전시회  는 여러분들의 안전한 관람을 위해 방역과 청결에 최선을 다하고 있습니다💪💙⠀코로나 19 예방을 위해 여러분들의 모범적인 관람 예절에 감사드립니다🙆</t>
+  </si>
+  <si>
+    <t>나 이따 배드민턴 치로 갈꼬야~룩 🏸</t>
+  </si>
+  <si>
+    <t>화요일 청담동에서 염색 커트 모델 구합니다😍😍원하시는 스타일로 이쁘게 해드릴게요💗💌프로필 오픈카톡 또는 디엠 주세요💌</t>
+  </si>
+  <si>
+    <t>오랜만에 여유여유🌳</t>
+  </si>
+  <si>
+    <t>나의 최애 서점😘부천은 멀어서 못갔는데 지금 성수동에서 팝업스토어 하고 있어서 부지런히 다녀왔다. 성수동도 꽤 멀지만..😂 구매한 책들 다 좋고, 책들마다 소개글과 밑줄들이 구매할 때 참고하기에 너무 좋다. 온라인 주문하면 손편지를 써주고 예쁜 포장을 받을 수 있다. 오프라인에서도 장문의 편지를, 또 포장을 추가해서 받을 수 있다. 그리고 정말 반갑게 맞이해주신다!🤍 (유튜브에서 팝업 준비 과정을 보고 가면 더 재미가 쏠쏠함)#sona_seoul</t>
+  </si>
+  <si>
+    <t>✏️성수카페 #마를리..🌝🌝🌝🌝(4/5)매일 9:00 - 23:00 아메리카노(4.0),아인슈페너(5.5)..성수카페 마를리에 다녀왔습니다☕️워낙 더웠던 날씨 탓에 비교적.?.? 한적한?? 곳으로 이끌림을 당했는데 마를리에 도착해 있더라구요 ㅎㅎㅎㅎ저는 개인적으로 산미가 아주 조금 있는 커피를 선호하는 편인데, 커피의 향이 진하면서 산미가 느껴저 만족스러웠습니다!친구와 함께 카페에 가면 꼭 아메리카노와 아인슈페너를 먹는데, 혹시나 시나몬 향을 좋아하지 않으신 분들은 꼭 직원분에게 말씀해주세요!!+땀을 식히고 내가 온 카페에 대해 알아보던 중 이곳은 성수에서 너무나 핫한 카페라는 걸 뒤늦게 알게되었어요...그래서 인지 제가 들어가고 얼마지나지 않아서 웨이팅 줄이 엄청 길어졌어용!!</t>
+  </si>
+  <si>
+    <t>⠀#성수동 #여음⠀- 성수에 엄청 핫한 맛집이 있다는 소문 듣고 방문!웨이팅 피해서 최대한 오픈시간 맞춰서 댕겨왔어여저희가 들어간 뒤로 줄이 막 생겨나더라구여🤗⠀- 출시 얼마안된 신메뉴 #명란크림파스타 와 #깍두기대창필라프 그리고 #가츠산도 주문했어요담백하고 고소하면서도 매콤한 파스타 맛이 정말 일품이에요좀 느끼하다 싶으면 필라프로!김치볶음밥 같은데? 하는 순간 대창이 미각을 강타해요🤛🏼🤛🏼탱글한 식감이 더해지면서 맛이 한층 좋아진답니다😍⠀- 가츠산도에는 엄청 두툼한 생등심이 들어가있어요부드러운 등심에 소스가 촉촉하게 발려있어서최고에요👍👍⠀- 다른 맛있는 메뉴도 많던데 또 와서 먹어봐야겠어요!친구랑 연인이랑 데이트 장소로 추천해요~⠀👉 서울 성동구 서울숲4길 26-24 1층#성수 #성수맛집 #성수동맛집 #성수동카페 #성수핫플 #성수데이트 #뚝섬맛집 #서울숲 #서울숲맛집 #서울숲파스타 #서울숲데이트 #파스타맛집 #성수동파스타 #성수동핫플 #맛집추천 #먹스타그램 #맛집스타그램 #먹스타맞팔 #좋아요 #소통</t>
+  </si>
+  <si>
+    <t>#일상을여행처럼우연히 지나친 건물벽화가마음에 들어서 후다닥 찍었어요.예쁘게 남기고 싶었는데할 줄 아는 포즈는 사랑의 총알뿐모델 포즈 척척 하는 분들 넘 부러워요..#서울나들이#성수핫플#골목길</t>
+  </si>
+  <si>
+    <t>.예쁜건 맛도좋지❣-#푸딘코#헤이보울#성수핫플#집에서도_만들어봐야지#다이어트식단#옴뇸뇸</t>
+  </si>
+  <si>
+    <t>.동번서번. 오늘은 서울숲! 맛집웨이팅은 힘들군 😢 들어가면 다 먹어버릴테다찐 성수 핫플거리는 여기였네... 언니덜 담엔 내가 모십니다. 🤨</t>
+  </si>
+  <si>
+    <t>식물 그림을 보면 자연스레 눈이 가는...🌷 예쁜 꽃 일러스트에 뾰옹🥰드디어 와본 성수 카멜 커피 ☕️ 👍🏼👍🏼🤎🤎</t>
+  </si>
+  <si>
+    <t>초록초록한 향기가 참 잘 어울리는 주말♡ 다음주엔 비가 많이 온대요~ 오늘의 햇살을 즐기세요^^ #하쉬그린 의 향기를어떤분은 잔디를 깍은 뒤에 퍼지는 초록초록한 향기라고 느끼기도 하시고어떤분은 꽃다발 한가득 들고있는 느낌이라고도 하시죠^^ 모두의 취향이 다르고, 그래서 향기도 모두에게 다른 느낌으로 다가가기 마련이니까요.궁금한 하쉬그린,오프라인에서 직접 시향을 하고싶다면성수동 편집매장 #아이디어개러지 에서 만나보실 수 있어요~#아이디어개러지 서울 성동구 왕십리로 14길 21-4 1층(2호선 뚝섬역 1번 출구 도보 2분 거리)시간 : 평일 오전 11시 ~ 오후 8시, 토일 오후 1시 ~ 오후 8시 .#블루보틀성수 뒷쪽 길이고,요즘 한참 인기 많은 메이크업 브랜드인 HINCE 성수 아틀리에 바로 맞은편이니~ 성수동에 오실 일이 있다면 들러보세요^^로에 제품은 물론이고, 멋진 가죽 제품들과 안경까지 다양하게 만나보실 수 있어요.온라인 구매는 홈페이지 www.loe-cosmetics.com 혹은 네이버 스마트스토어 (프로필 링크)에서 가능합니다♡</t>
+  </si>
+  <si>
+    <t>클리프디자인#성수카페 #구욱희씨 다녀왔어요.아직 #가오픈 중이지만 아기자기하고 예쁜 색감에 리프레쉬되는 느낌이었답니다. 거기다 달달하고 다양한 디저트까지,클리프가 추천드릴만한 카페였어요.즐거운 주말 마무리하세요😀ㆍㆍwww.kliffdesign.co.kr</t>
+  </si>
+  <si>
+    <t>성수로운 남자........#성수 #성수동 #성수핫플 #성스러운 #멋진남자 #운동하는남자 #핏줄 #selfie #selca #daily #likeforfollow #like4likes #follow #followers #follow4followback #photography #photo #instagram #instagood #instadaily #daily #fff #lfl #좋반 #좋아요 #좋아요반사 #맞팔 #선팔하면맞팔 #팔로미 #팔로우</t>
+  </si>
+  <si>
+    <t>일욜일엔 오셔도 됩니다(저는 불토로 일욜에는 더 폐인이지만요.....)</t>
+  </si>
+  <si>
+    <t>&lt;성수명당&gt;생참치김밥에 술한잔 하러 성수명당에 방문사람이 많고 음악이 커서 불금 보내기 딱 좋은 북적이는 분위기 생참치김밥은 우니추가 없이 그냥 먹어도아름다운 비주얼에 넘나.. 맛있는것..골뱅이 비빔칼국수는 매콤달콤 쫄깃했고통삼겹 김치찜도 고기가 많이 들어서 좋았으나둘 다 특색있는 맛은 아니었음성수에서 또 다른 분위기를 느끼고 싶다면한 번 쯤은 갈만하다다만 하이엔드 소주바라는 컨셉을 감안해도 가격이 너무 비싼편인듯위치: 서울 성동구 연무장19길 10 1층 (성수역과 건대역 사이 가운데쯤)가격: 메뉴판첨부</t>
+  </si>
+  <si>
+    <t>레트로 갬성</t>
+  </si>
+  <si>
+    <t>&lt;성수동 제스티살룬&gt;이영자버거로 유명한 제스티살룬웨이팅 실패로 못 먹었다는 사람이 많아토요일 3시반쯤 방문하자 바로 착석가능쉬림프버거의 크기는 평범하지만안에 든 새우패티의 크기는 평범하지 않음통새우도 들어있고 바삭바삭 매우 고소!!!집 앞에 있다면 쉬림프버거를 먹으러 자주 가겠으나 멀리서 찾아갈 만큼 특별한 맛은 아님말하자면 롯데리아 새우버거의아주아주아주아주 맛있고 풍성한 맛의 버전그래두 존맛 ㅎㅎㅎ웨이팅 없으면 또 갈듯위치: 서울 성동구 서울숲2길 19 2층 (서울숲거리)가격: 제스티갈릭버거 9,300원와사비쉬림프버거 10,300원</t>
+  </si>
+  <si>
+    <t>#셔링탑 에 내 최애 #스키니진👖너무 좋아서 3개 쟁여둠😛#일상#기록 #어니언#어니언카페#onioncafe#성수카페#성수핫플#ootd#skinnyjeans#오오티디#데일리룩#스트릿룩#흰티에청바지#청바지핏#몸매스타그램#전신샷#립합#히프나틱</t>
+  </si>
+  <si>
+    <t>여긴 #decaf #디카페인 있어 넘 쥬아☕️💛💙날씨 기분 모든게 완벽했던 토욜🦋#일상#기록#어니언#어니언카페#onioncafe#성수카페#성수핫플#ootd#오오티디#데일리룩#스트릿룩#흰티에청바지#스키니진#청바지핏</t>
+  </si>
+  <si>
+    <t>🍹🥧-CENTER COFFEE/ 서울숲 센터커피A COTE DU PARC/ 서울숲 아꼬떼 뒤 파르크-패션후르츠 에이드 6.0버터쿠키라떼 6.0브리오슈 3.9-서울숲과 가장 가까운 카페.창가에 앉으면서 햇살 맞는게 꿀⭐️버터쿠키라떼 최고라고 같이 온 친구가 극찬을 했다.빵을 먹고 싶으면 카페 뒤에 연결된 베이커리로 가서 빵사와서 카페에서 먹을 수 있다.🤎🥮🥧🧁.#성수카페 #성수핫플 #서울숲카페 #서울숲 #센터커피 #아꼬떼뒤파르크</t>
+  </si>
+  <si>
+    <t>#브릭캠퍼스#브캉스#여름전시#성수핫플#서울숲전시</t>
+  </si>
+  <si>
+    <t>브랙캠퍼스 좋네요 #브릭캠퍼스 #브캉스 #여름전시 #성수핫플 #서울숲전시</t>
+  </si>
+  <si>
+    <t>뭘봐 임마!---#아르코</t>
+  </si>
+  <si>
+    <t>#압구정곱창 #성수 #압구정 #압구정로데오 #압구정맛집 #성수 #성수핫플 #데어바타테 #전시회</t>
+  </si>
+  <si>
+    <t>🎨👩🏻‍🎨 ....#주말힐링 #성수핫플 #성수미술관 #언니랑 #취미생활 #그래픽디자인 #이랑 #달라 #재밌었다 #직딩일상 #기분전환 #성수역 #데이트 #24 #25</t>
+  </si>
+  <si>
+    <t>ʀᴇᴛʀᴏ. #성수빈티지</t>
+  </si>
+  <si>
+    <t>주말엔 파랑새와 행복도 찾고 인생샷도 건지고📷❗⠀#뚝섬미술관 에서 #파랑새 와 특별한 일요일을 보내시는 어떠세요🍀?⠀행복을 찾으러 와주신 @in_seo_memory 님의 일요일도 행복하세요:)💙⠀파랑새 전시는 여러분들의 안전한 관람을 위해 방역과 청결에 최선을 다하고 있습니다💪💙⠀코로나 19 예방을 위해 여러분들의 모범적인 관람 예절에 감사드립니다🙆⠀</t>
+  </si>
+  <si>
+    <t>큰 간판없이 공장사이에 껴있는집이라 찾아오기힘드실텐데 어제도 많은손님들의 방문에 정말 감사드립니다 항상 이리치이고 저리치이는 불쌍한.. 그치만 많은분들이 예뻐라해주시는 우리 입간판이만 의지한채 벌써 거의 1년이 다되어가네요 😔⠀오늘은 일요이라 1시오픈이니 꼭 참고부탁드리며 맛있는 여름디저트들로 맞이할게요! #bbhay #비비해이-@sshani_d 님께서 찍어주셨어요:)</t>
+  </si>
+  <si>
+    <t>06.22.20.....PC @jac_eun#성수카페 #성수연방 #성수동카페 #성수동 #성수 #성수핫플 #성수핫플레이스 #촬영데이트 #소확행 #웜톤 #안경 #안경페션 #안경스타그램 #glowing #glassesfashion #glassesgirl #glasses #brickwall #bobhaircut #inmyfeels #inmyhappyplace #seongsu</t>
+  </si>
+  <si>
+    <t>❤️너는 누나를 만나 반갑고아빠는 동생만나 반갑고엄마는 신상 오브제를 만나 반갑구나 ㅋㅋㅋ#성수핫플 #fe26 #우리셋#모두 #만족 #주말 #힐링 #만남 #쇼핑</t>
+  </si>
+  <si>
+    <t>성수동 뚝섬에서 푸짐한 저녁~~^^카페오롯 저녁 메뉴.....#카페오롯 #뚝섬핫플 #성수카페 #성수핫플</t>
+  </si>
+  <si>
+    <t>🌈-인싸들의 성지.. 성수 아르코.. 나도 드디어.. !오늘의 성수 다 좋았으니까사진 차근차근.. 피드도배.. 🙂🙃</t>
+  </si>
+  <si>
+    <t>나의 쎈뇨자들 언니들과 수다수다 만나면 사진 백만장 찍어주시고 🤣바른길로 안내해주시는 👩‍👩‍👧‍👧..........#일상 #데일리 #악세사리 #핸드백 #디자인 #디자이너 #주말 #저녁 #모임 #와인 #오랜만에 #성수동 #맛집 #핫플 #재즈공연 #라이브공연 #감성 #공감 #공간 #좋아요 #제주도 라도 #떠나요 #성수모임 #성수핫플 #성수맛집</t>
+  </si>
+  <si>
+    <t>드디어 올리는 수국이랑📸⠀#𝙘𝙖𝙛𝙚 #𝙧𝙚𝙫𝙞𝙚𝙬⠀여기는 #할아버지공장 이라는 성수 카페인데, 대형카페임에도 자리가 없을 정도로 사람이 많았다. 특히 수국이 피어있는 야외공간이 유명한데, 수국이 가득 피어서 사진 찍으면 백발백중 예쁘다✨ 서울에서 수국 구경을 하고 싶은 분들은 가보시는 걸 추천드립니다!!!</t>
+  </si>
+  <si>
+    <t>사랑해요 아모레 💕</t>
+  </si>
+  <si>
+    <t>⠀✔️DAROBE 다로베 성수성수에서 유명한 피자 다로베 에요.시그니처인 다로베 피자와 포르치니 크림 파스타를 먹었어요. 평일에 갔는데도 1시간 대기를 했어요. 피자 도우가 굉장히 쫄깃해요. 햄이랑 궁합도 너무 좋구요. 크림파스타는 굉장히 진한 버섯의 향과 크림의 조화가 너무 좋았어요.🤍🍕🍝 쫄깃한 도우의 피자 좋아하시는 분들은 너무 좋아하실 것 같아요.</t>
+  </si>
+  <si>
+    <t>💜주말엔 파랑새와 행복 찾기💜⠀도심에서 울려 퍼지는 파랑새소리를 따라 행복을 찾으러 오세요.⠀오늘도 행복을 찾으러 와주신 @jun__8849 님의 행복을 응원합니다💜⠀❗뚝섬미술관 코로나19 예방 수칙❗1. 거리두기 입장(입장시 마스크 필수착용)2. 전시장 방역(전시장 상시 소독)3. 전 직원 마스크 착용4. 입장 전 체온 체크 후 입장5. 전시장내 손 소독제 비치</t>
+  </si>
+  <si>
+    <t>화요일 청담동에서 염색 커트 모델 구합니다 💗💌프로필 오픈 카톡 또는 디엠 주세용💌</t>
+  </si>
+  <si>
+    <t>#성수동#옹근달⭐️3/5#성수역 에 큰 카페가 새로 오픈했다고 해서 가봤다베이커리 종류가 엄청 많았는데 한 가지 아쉬웠던 건 덮개도 없이 빵이 그대로 밖에 나와있어서 위생적으로 찝찝했다는 점ㅠ아 아쉬웠던 점 한 가지 더요즘 인더스트리얼 인테리어가 유행인 건 알지만 2층 벽은 너무 역겨울 정도로 더러웠다ㅠ🍰체리케이크:크림이 부드러웠지만 화장품맛?인공적인 맛이 강했다🥖허니베르:맛있었다🧈바닐라파운드케이크:이건 짱 맛있었다전체적으로 가격대는 있지만 좌석이 넓어서 그냥 만만하게 가기 좋을 듯</t>
+  </si>
+  <si>
+    <t>-한식 오마카세를 기반으로 한 술집성수동 "청주한씨"가 잡지에 실렸어요!매거진 바앤다이닝 7월의 뉴플레이스😉-한경희 셰프가 내드리는 신선한 제철요리와새롭고 다양한 전통주를 만나보세요!🍶지금 네이버에서 예약 가능합니다📌⠀#청주한씨 #정상적인멘션왜죠#이거슨광고용 #콘텐츠 #정상인코스프레중#바앤다이닝 #만세🙆‍♀️ #정기구독갑시다#성수동청주한씨 #한식오마카세 #한식주점 #한경희셰프#성수맛집 #성수술집 #성수핫플 #되고싶어라🙏#매니저님미남설 #쏘스윗🥰 #셰프님🐷</t>
+  </si>
+  <si>
+    <t>#일상을여행처럼성수동 한바퀴전혀 생각하지 못한 곳에툭, 감성적인 카페 발견..#서울나들이#성수핫플#골목풍경</t>
+  </si>
+  <si>
+    <t>Stop feeling bad for doing whats best for you you know you worth it💡연무장 까페 굿즈들 기대해주세요! 티셔츠에 적힌 문구처럼 자신을 더 사랑하고 아끼는 한주 주말 보내세요! 🖤 당신은 그럴가치가 있으니까요! #토우드편집샵 #연무장카페 #연무장길 #성수편집샵 #연무장굿즈 #쏘비트타워 #성수핫플 #성수카페 #TOWED</t>
+  </si>
+  <si>
+    <t>주말에도 스콘 신매뉴 테스트중 입니다!😊</t>
+  </si>
+  <si>
+    <t>오마이가쉬-.....문 열었습니다....#성수동#성수동술집#성수술집#펍포레스트#성수동바#성수동위스키#성수동칵테일#성수동카페거리#성수동핫플#성수동핫플레이스#성수동데이트#성수동맛집추천#성수동회식#인스타맛집그램#인스타술집그램#성수동맛집#성수맛집#성수동핫플레이스#성수동데이트#성수동핫플#성수핫플#성수술집#성수핫플레이스#성수동맛집추천#pubforest</t>
+  </si>
+  <si>
+    <t>세상 핫플...인싸성지군..---#아르코#arco</t>
+  </si>
+  <si>
+    <t>#브릭캠퍼스#브캉스#성수핫플</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>#압구정카페 #압구정맛집 #건대맛집 #건대카페 #성수맛집 #성수카페 #뚝섬 #한강공원 #성신여대맛집 #성신여대 #서울맛집 #서울카페 #서울숲 #서울숲카페 #신사동맛집 #신사역 #압구정로데오 #서울핫플 #송파 #강남 #강남역 #강남헤어모델 #서울헤어모델 #강남핫플 #성수핫플 #연남동핫플</t>
+  </si>
+  <si>
+    <t>♥ 발리아쥬와 올리브 브라운 컬러 ♥염색 모델 구합니다 -💌dm 또는 프로필 오픈카톡 문의주세요💌</t>
+  </si>
+  <si>
+    <t>여기 진짜 취향저격이네,자리도 맘에 들고 오늘도 찾아온 블린이 과제 시간블로그한지 한 달하고 조금 지났는데 투데이 200찍혀서 신기!이따가 잭슨카멜레온 쇼룸 구경 가봐야징😊</t>
+  </si>
+  <si>
+    <t>오빠랑 우연히 걷다가 온 카페. 너무 이뻐서 뭐지? 했는데 알고보니 친구랑 찾아보던 성수 핫플 리스트에 있던 카페였다. 이게 웬 횡재냐 하며 총총총 들어왔다. 이것이 바로 소소한 행복.❣️</t>
+  </si>
+  <si>
+    <t>#LindaLatte</t>
+  </si>
+  <si>
+    <t>토욜에 몰아서..오지...마...세요...쉬고싶어요...</t>
+  </si>
+  <si>
+    <t>좋아하는곳👩🏾‍🦱.#우디집..#기록#일상#운동하는여자</t>
+  </si>
+  <si>
+    <t>⠀더운 날 마스크 많이 답답하지만꼭 잘 착용 하시고 방문 해주세요!안전하고 건강한 하루 보내시길 바랍니다🙏🏻⠀⠀⠀⠀⠀✔️토요일 11:00 - 21:00</t>
+  </si>
+  <si>
+    <t>모리 그린데이즈 필로그래피</t>
+  </si>
+  <si>
+    <t>성수까지가서 먹방 클리어😍또오기힘드니까 메뉴 다 시켜먹기..#성수명당 #성수동맛집 #성수핫플 #고등어초밥 #찐맛탱 #꼭먹어야해 #비싼건함정 #송별회 #은영이잘가 #이쁜애옆에이쁜애 #귀요미들 #먹스타그램 #휴무</t>
+  </si>
+  <si>
+    <t>💙화창한 토요일💙파랑새와 함께 행복 찾기 여행을 떠나보세요🍒⠀파랑새를 찾아 와주신 @seeeem2_o_ 님의 행복을응원합니다 :)💙⠀</t>
+  </si>
+  <si>
+    <t>너무 예쁜 수강후기🤍🙏🏻캔들 받침대로 사용한다고 하셨는데 너무 귀엽고 예뻐요😭🍒 감사해용ㅠ ㅠ🤍⠀7월 색소지 원데이는 여름의 시원함과 어울리는 톡톡튀는 컬러가 추가됐습니다🌊</t>
+  </si>
+  <si>
+    <t>오늘의 데일리룩..#스트릿캐주얼 #트렌디베이직</t>
+  </si>
+  <si>
+    <t>자두에이드 와 후루츠에이드자두에이드에 빠져서 4개 주문하고그리고 후루츠에이드 한번 드셔 본다고 저렇게 포장해달라구 감사합니다아마 자두에이드에 빠져 내일 또 오실껄요 ㅋㅋ맛나게 드세요</t>
+  </si>
+  <si>
+    <t>.우니참치김밥을위해서 두번방문음식도 사람도이조합 어쩔거야🙊🙉🙈❣#우니 #우니참치김밥 #파스타 #스테이크 #성수명당 #하이앤드소주바 #성수맛집 #성수핫플 #성수역 #성수동핫플레이스 #성수</t>
+  </si>
+  <si>
+    <t>토요일도 사피엔스는 활짝 열려있습니다⚡️주말에는 대청소👀❤️ 뉴 식구 헨리를 모셔왔어요🙈</t>
+  </si>
+  <si>
+    <t>화요일 청담동에서 염색 모델 구합니다💗💌프로필 오픈카톡 또는 DM 주세요💌</t>
+  </si>
+  <si>
+    <t>나도 성수핫플 다녀왔지🤩장소 블로그 포스팅했어요⭐️</t>
+  </si>
+  <si>
+    <t>💙💙💙💙💙</t>
+  </si>
+  <si>
+    <t>⠀⠀⠀⠀[ 서울숲  𝐒𝐂𝐄𝐍𝐄𝐑𝐘  시너리 ]⠀⠀• 𝖲𝗎𝗆𝗆𝖾𝗋 𝖥𝗈𝗋𝖾𝗌𝗍 𝖠𝖽𝖾 (썸머 포레스트 에이드) — 𝟕.𝟎⠀⠀⠀7월의 여름과 너무나도 잘 어울리는 시너리,하지만 2주 전에 주연이와 다녀왔다는 건 안 비밀 ☺︎︎⠀키위청 에이드는 처음 먹어보는데,어찌나 상큼하던지 더위가 단숨에 날아갔다 !⠀⠀⠀_______________⠀⠀𝗼𝗳𝗳 𝖬𝗈𝗇𝖽𝖺𝗒⠀𝖳𝗎𝖾𝗌𝖽𝖺𝗒 𝗍𝗈 𝖳𝗁𝗎𝗋𝗌𝖽𝖺𝗒𝗼𝗽𝗲𝗻 𝟣𝟤:𝟢𝟢𝗰𝗹𝗼𝘀𝗲 𝟤𝟢:𝟢𝟢𝖥𝗋𝗂𝖽𝖺𝗒 𝗍𝗈 𝖲𝗎𝗇𝖽𝖺𝗒𝗼𝗽𝗲𝗻 𝟣𝟤:𝟢𝟢𝗰𝗹𝗼𝘀𝗲 𝟤𝟤:𝟢𝟢⠀⠀⠀⠀</t>
+  </si>
+  <si>
+    <t>날씨  촉촉</t>
+  </si>
+  <si>
+    <t>✅프라두블레 미니 딸기우유핑크🌸45000무배 ...두블레화이트 대자 인기 터지는거 아시죠.. 미니 나왔어유 🥰말하기도 입아픈 두블레.. 미니사이즈인데.딸기우유 핑크라니..? 안할이유를 참는게 빠를것일지니.. 진짜 컬러감 완존 딸기우유 ..💛💛💛존예니까 믿어 의심치 말아요 그저이쁘단말밖엔 ㅠㅠㅠ 갠적으로 두블레화이트 대자에 빠져 허우적거렸던 사람으로써 미니는 무조건이지유😘😍🥰...✅사이즈:17*18*10✅소재 : 고급인조가죽 (스크래치에 강한소재)..#메리클로젯 #가방맛집 #두블레 #프라다두블레 #가방 #20대코디 #30대코디 #데일리 #일상 #육아스타그램 #좋반 #좋아요반사 #데일리코디 #코디스타그램</t>
+  </si>
+  <si>
+    <t>.요즘 다시 빵이 땡긴다 위험하다🍞🥨🐽🐷🧇🥐</t>
+  </si>
+  <si>
+    <t>#금요일데이트 #옹근달 #케익맛집 #커피맛집 #성수핫플</t>
+  </si>
+  <si>
+    <t>⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⚪ 온화카페 성수점점심먹고 드립커피 한 잔☕커피 줄여야지~ 하는데 점심 후 커피는 포기 못해😛1일 1잔 실천! 산미 있는 원두로 골랐는데 맛있다😝⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀#온화#온화카페#성수온화#성수카페#성수동카페#성수동카페#성수핫플#성수동맛집#드립커피#커피맛집#성수존맛#성수jmt#맞팔#선팔#카페스타그램</t>
+  </si>
+  <si>
+    <t>𝐸𝓃𝓇𝒾𝒸𝒽 𝐸𝓎𝑒𝓁𝒶𝓈𝒽🗝💓#리치브로우펌 #브로우펌 #속눈썹펌반영구❌눈썹문신❌#브로우리프트 #리치브로우#속눈썹펌 #리치래쉬펌동시 시술입니다💛⠀눈과눈썹이🧚‍♀️⠀정리된 눈썹 관리하기 편한핫핫핫 시술입니다🙂30~40분시술로2달까지 쭉🤭아시는분만 아시는..🤗⠀브로우펌시술시 +  #리치브로우세럼선물로드려요🛍💛⠀예약은여유있게 해주세요🙂찾아주셔서 감사드립니다🙆‍♀️🙇‍♀️⠀⠀√문신은무섭고 눈썹숱 많이 있으신분 추천√눈썹 결 모양 원하는데로 디자인가능√힙한 눈썹 결을원하는 힙쟁이언냐들√내 눈썹 으로만 표현됩니다√단백질케어 서비스로 손상최소화√남자눈썹도 풍성하게 표현√2달이상가는 유지력 60~일 이상√브로우펌후에는 에센스세럼 필수⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀⠀﹏﹏﹏﹏﹏﹏﹏﹏﹏﹏﹏﹏﹏﹏﹏﹏⠀⠀⠀𝐄𝐍𝐑𝐈𝐂𝐇 𝐄𝐘𝐄𝐋𝐀𝐒𝐇⠀⠀⠀ᴋᴀᴋᴀᴏ⠀@리치볼륨⠀⠀⠀insta⠀⠀@sin.yumi﹏﹏﹏﹏﹏﹏﹏﹏﹏﹏﹏﹏﹏﹏﹏﹏⠀</t>
+  </si>
+  <si>
+    <t>얼마만인건지😆요기진짜좋다🤍너무커서 자동으로 사회적거리유지됨ㅋㅋㅋ...#어반소스 #브런치카페 #성수동맛집 #성수카페 #서울숲카페 #성수핫플 #루프탑 #사진맛집 #엄청크다 #카페스타그램 #사진백만장찍음 #맛도굿 #맛스타그램 #먹스타그램 #셀스타그램 #간만에뭉침 #오랜만에오니좋네 #감성사진 #금요일 #일상 #데일리 #cafe #brunch #instadaily #instapic #dailylook #instafood #좋아요</t>
+  </si>
+  <si>
+    <t>CUTIE HEAVEN 🥰- Take away only- 커피 시키려면 빵 최소 1개 주문- 밖에 앉아서 먹을 수 있는 벤치 있으나 새들이 많음,,🕊- 빵 냄새 진동해서 넘 행복 &amp; 짱맛탱 💗</t>
+  </si>
+  <si>
+    <t>당 충전 필요한 날~ 왜이리 차가 심하게 막히느뇨😱 서울시내 모든 차가 다 나온거 같음 ㅠ  #케이크#디저트#당충전#빵순이#맛집#핫플#빅토리아베이커리#victoriabakery#성수동#성수핫플#traffic#friday#불금</t>
+  </si>
+  <si>
+    <t>스코니 솔드아웃 ! 마지막 예약손님까지 스콘 마무리했어용❤️ 4판을굽고 또굽고😆</t>
+  </si>
+  <si>
+    <t>가던길 멈춰서게 만든 🐖🍗 비주얼 어쩜 나오늘 #하몽 에 #화이트와인 엄청 마시고 싶었는데!!! 어쩜!!!! 이거슨 데스트니혼자와서 그런가 사장님이 계속 이것저것 챙겨주시는데 고맙쯉니댜 🙏 히힣#라혜_성수 #라혜_뚝섬 #성수핫플 #성수 #성수동핫플레이스 #성수동맛집 #성수동와인 #하몽플레이트 #하우스와인 🥂</t>
+  </si>
+  <si>
+    <t>.수국과 나셀카찍어보는 나통나무집과 나......#셀기꾼#햇볕에타들어간다#잭과콩나물#하갠쑤데이트 #주말스타그램</t>
+  </si>
+  <si>
+    <t>세상 공주감성 다끌어모을수있는 곳💫서울외곽에나 있을법한 루프탑 인테리어가 도심한복판에 있다니 넘모 조차나🙆🏻‍♀️혼자서도 잘 노는 #infj........#성수카페 #서울숲카페 #루프탑카페 #루프탑인테리어 #날씨미침 #카페스타그램 #혼자놀기달인 #혼자놀기 #성수핫플 #서울카페추천 #옥상꾸미기 #우리집옥상 #도전 #일상 #놀러간기분 #주말그램 #출근안하는날 #쉬는날 #좋아요 #카페탐방 #카페투어 #소통</t>
+  </si>
+  <si>
+    <t>#일상을여행처럼요즘 맛집 찾아다니는 재미~#성수다락 인테리어도 예쁘고음식 퀄리티도 좋았어요소스가 킥 포인트 #카츠산도..#성수핫플#성수동맛집#서울여행지#서울맛집탐방</t>
+  </si>
+  <si>
+    <t>파랑새 : 행복의 비밀을 찾아서</t>
+  </si>
+  <si>
+    <t>⠀오늘따라 수박이 더 달고 맛있습니다!🍉달콤하고 시원하게 쉬었다 가세요😉⠀⠀⠀⠀⠀⠀✔️금요일 11:00 - 21:00</t>
+  </si>
+  <si>
+    <t>#LindaCacao</t>
+  </si>
+  <si>
+    <t>주얼리 포인트💍✨역시 반짝반짝 거려야^^_#사진맛집 #성수핫플#cafelot102 에서😄</t>
+  </si>
+  <si>
+    <t>#성수동 #거의끝집.이름 그대로 성수동 먹자골목 거의 맨 끝에 위치한 집. 들어가자마자 팩폭 날리는 문구가 나를 아프게 하지만 딱히 변명할 거리도 없기 때문에 패스. 가게는 엄청 크진않고 4-5 테이블 정도 있는 듯! 웨이팅까지 있는 건 못봤지만 항상 8-90퍼센트는 사람들이 채워져있는 곳.일단 이곳의 시그니처 메뉴는 #직화돼지찌개 로 어디에서도 들어보지못한 특이한 메뉴를 자랑함 각종 채소와 면사리 위에 돼지고기가 숭덩숭덩 올라가있는 음식인데 이게 되게 별거 아닌거 같으면서도 별거인맛ㅋㅋㅋ 맛있음 술이 계속 들어가 #술술술 이 외에도 #골뱅이무침 #베이컨콘치즈 #먹태 등 술안주로 딱 좋은 메뉴들도 많음! 가게 안이 어두운 편이라 사진들이 죄다 뻘개보이는데 정육점 조명 그런거 아니고 핸드폰 탓이니 오해는 노노...확실하진 않지만 사장님 혼자 요리 서빙 다하시는거 같은데 빠르게 대응해주시고 무엇보다 소주가 #슬러시소주 라 매우 만족쓰👍 가게 안 인테리어도 독특하게 되어 있고 야외 테라스 자리도 있어서, 너무 시끄러운 골목 한가운데를 약간 지나 한적한 곳에서 좋은 음식 분위기를 즐기고 싶은 사람들에게 왕추천! .#성수거의끝집✔️ 위치: 서울 성동구 아차산로7길 36 1층 거의끝집 (맨 뒷장 지도 참고)✔️ 전화번호: 02-499-8421✔️ 매일 17:30 ~ 1:00 일요일 공휴일 휴무✔️ 직화돼지찌개 소 21,000원 골뱅이무침 18,000원 (메뉴판을 깜박해서 나머지 음식 가격을 기억할 수 없듬..).#성수술집 #성수동술집 #성수역술집 #성수찌개 #돼지찌개맛집 #성수돼지 #성수동맛집 #성수골뱅 #콘치즈 #jmt #찌개맛집 #술안주추천 #분위기술집 #성수분위기좋은곳 #성수핫플 #인싸 #소통 #술스타그램#찐성수</t>
+  </si>
+  <si>
+    <t>ㅤㅤㅤㅤㅤ어느덧 여름이 성큼 다가온 초록빛깔 성수가든이 보이시나요?ㅤㅤㅤㅤㅤ시원한 뷰가 특히 매력적인아모레성수 가든라운지에서는한껏 여름을 즐길 수 있답니다 🏝ㅤㅤㅤㅤㅤ흘러나오는 제주 영상과 함께아모레성수에서 힐링타임을 가져보세요!ㅤㅤㅤㅤㅤCan you see the greenery Seongsu Garden bringing Summer so close?ㅤㅤㅤㅤㅤYou can indulge in Summerat AMOREseongsu Garden Loungewith exceptional views.ㅤㅤㅤㅤㅤRelax for a healingtime at AMOREseongsuwhile watching video clips of Jeju Island!ㅤㅤㅤㅤㅤ#아모레성수 #가든라운지 #휴식공간#theserif #더세리프 @samsungtv</t>
+  </si>
+  <si>
+    <t>날씨 합격🌝</t>
+  </si>
+  <si>
+    <t>#성수편집샵 #소영씨스토어 #성수핫플💚사회적 기업과 청년 소상공인 들의 제품을 파는 편집샵! 성수에 가면 꼭 가보는걸로 💚</t>
+  </si>
+  <si>
+    <t>#Repost @markgonzales_kr with @make_repost・・・-I ♡ MG성수동에서 엔젤을 찾아라!-✅성수역에 도착하면 3번 출구로 나간다.✅카페 거리 초입의 #마크곤잘레스 #엔젤 을 찾는다.✅힙 터지는 #인생샷 을 찍는다!😎⠀#마크곤잘레스 와 #뮤럴라이프 가 함께한 성수동 대신상사 벽화 앞에서 오늘의 인생샷을 건져보세요📸⠀📍서울 성동구 성수이로 97#Repost @musinsacom #무신사 #MUSINSA #마크곤잘레스#성수동 #성수핫플 #성수맛집#대신상사 #뮤럴라이프 #인증샷 #인생샷</t>
+  </si>
+  <si>
+    <t>.❤️the suum beauty❤️.묵은각질 벗어던지고 깨끗한 애기피부 찾으세요즉각적인 톤업효과에 고객님들모두 놀라십니다▪️예약 상담 문의▪️📞010-3564-0668➡️네이버검색:"더숨뷰티"➡️오픈카톡 상단클릭📌💡빠른상담은 오픈카톡입니다🙏시술중엔 답변이 다소 늦을수 있으나  순차적으로 빠른답변드릴수 있도록 하겠습니다..#더숨뷰티#스킨플래닝#더마플래닝#피부스케일링#스킨케어#각질케어#각질제거#피지제거#동안피부#노화방지#피부미인#피부관리#MTS#물광피부#탱클탱글#깐달걀피부#skinplaning#썬크림#재생크림#알로에수딩#후관리중요#솜털제거#잔털제거#피부톤업#애기피부#반영구#눈썹문신#성수핫플#소통#맞팔</t>
+  </si>
+  <si>
+    <t>-사무실 가는길에 예쁜카페🌿저울이 넘 느낌있고⚖️✨..#발렁스 #성수카페 #에일린_카페투어 #balance발렁스 #coffeetime</t>
+  </si>
+  <si>
+    <t>성수/서울숲_여음, JMT ㋡‼️⠀#일상 #서울 #성수 #서울숲 #성수여음 #여음 #파스타 #리조또 #성동구 #퓨전아시아키친 #성수맛집 #핫플 #성수핫플 #서울숲여음 #친구랑데이트 #대학생 #휴학생 #서울맛집 #뚝섬역 #성수역</t>
+  </si>
+  <si>
+    <t>*급매* 관심있으신분은 DM부탁드립니다!.보증금 3000월세 220권리 1500위치 성수역 4번출구 지식산업센터 1층평수 전용10평특징 - 프랜차이즈 테그42 토스트전문점- 매뉴얼화 되어 있어 관리 용이- 시설 일체 양도</t>
+  </si>
+  <si>
+    <t>사실은 본인이 배고파서 사진 올리는 게 맞음 ^_&lt; 🍔⠀#일상 #서울 #성수 #성동구 #성수핑거팁스 #핑거팁스버거 #배고파 #햄버거 #수제햄버거 #핑거팁스 #서울수제버거 #수제버거집 #친구들이랑데이트 #맛집 #성수핫플 #음식 #성수연방 #fingertipsburger #서점</t>
+  </si>
+  <si>
+    <t>⠀⠀⠀핸드 드립이 맛있는,문고리마저 세상 힙한,웅장하게 공간을 감싸는 음악이 멋진,⠀성수동 카페 ☕️⠀</t>
+  </si>
+  <si>
+    <t>⠀에어컨 밑에선 뜨아 ☕️⠀밖은 너무 덥고안은 너무 춥고⠀감기 걸리기 딱 좋네 🥶⠀⠀#성수카페 #오늘도 #쎈느#성수핫플 #인스타그래머블#젊은이들이많은 #사진찍는#핫플레이스 #장마라면서요#sceneseoul #coffee</t>
+  </si>
+  <si>
+    <t>Mouth watering Strawberry feast 🤤🍓 {Ttal gi-ttal gi Strawberry Cake} ₩9.8{Hallabong Jeju Orange Ade} ₩7{Valrhona 70% Dark Choco} ₩7📍Plate D 플디 🕰 12:00-20:002nd floor, 44 Sangwon-gil, Seongdong-gu, Seoul서울 성동구 상원길 44 2층</t>
+  </si>
+  <si>
+    <t>드디어 방문한 #성수동핫플레이스 #arco-#성수 #파파자켓 #성수카페 #성수동카페 #아르코 #쎈느 #쎈느카페 #성수핫플 #서울핫플 #seoul #seúl #카페투어 #카페추천 #성수브런치 #브런치카페 #아인슈페너 #브런치 #여름코디 #여름옷</t>
+  </si>
+  <si>
+    <t>えっだれ笑笑最近ソンスばっか行ってる☺飽きない❤そしてテラス大好き❤****#韓国カフェ#韓国カフェ巡り#ソウルカフェ#韓国留学#韓国移住#日韓カップル#Cafe#韓国好きな人と繋がりたい#韓国好きな人と仲良くなりたい#韓国生活#聖水#聖水カフェ#일본#인친환영#소통#나고야#일상스타그램#여행스타그램#카페스타그램#데일리#먹스타그램#일상#한일커플#카페투어#성수핫플 #성수동카페#기념일</t>
+  </si>
+  <si>
+    <t>-큭 한지구두 신었더유 👠.....#성수역 #성수핫플레이스 #성수핫플 #여성샌들 #세라샌들 #세라구두👠 #성수동#세라핸드백 #성수동수제화 #성수역3번출구 #성수동카페거리 #구두맛집 #세라 #네츄럴플렉스</t>
+  </si>
+  <si>
+    <t>-요 디자인 찜꽁 🙃내눈에도 심플 스타일이지만클래식 디자인 찾는 고객분들께도인기많은 디자인💫....#성수역 #성수핫플레이스 #성수핫플 #여성샌들 #세라샌들 #세라구두👠 #성수동#세라핸드백 #성수동수제화 #성수역3번출구 #성수동카페거리 #구두맛집 #세라 #네츄럴플렉스</t>
+  </si>
+  <si>
+    <t>-세라 마블 샌들 👡.....#성수역 #성수핫플레이스 #성수핫플 #여성샌들 #세라샌들 #세라구두👠 #성수동#세라핸드백 #성수동수제화 #성수역3번출구 #성수동카페거리 #구두맛집 #세라 #네츄럴플렉스</t>
+  </si>
+  <si>
+    <t>유졍쌤 아메 실패..#오르에르 #성수동카페 #성수핫플 #성수역카페 #orer #성수카페추천</t>
+  </si>
+  <si>
+    <t>#디앙채 개인적인 일로 마켓에 많은 신경을 못썼는데 이해해주시고 기다려주신 고객님들 정말 감사합니다♥️ 마음씨 예쁜 천사 고객님들만 계신 것 같아요🙏 감사한 마음을 담아 구매시, 금액상관없이 예쁜 집게핀 같이 드릴게요 받아주세요🤗🕊</t>
+  </si>
+  <si>
+    <t>.❤️the suum beauty❤️.더숨은 반영구 전문샵이에요오신 고객님들 소개소개 느므 많아요그만큼 실력을 신뢰한다는거겠죠?💯재방문고객님들 역시 많아요너무 감사합니다~~💞오시는 모든고객님들께 실력으로 보답하겠습니다▪️예약 상담 문의▪️📞010-3564-0668➡️네이버검색:"더숨뷰티"➡️카톡ID:thesuum68➡️오픈카톡 상단클릭📌💡빠른상담은 오픈카톡입니다🙏시술중엔 답변이 다소 늦을수 있으나 순차적으로  빠른답변 드릴 수 있도록 노력하겠습니다_#더숨뷰티#반영구추천샵#눈썹맛집#성수맛집#자연눈썹#엠보눈썹#콤보눈썹#아이라인문신#아이라인반영구#헤어라인문신#헤어라인반영구#눈썹문신#눈썹반영구#눈썹문신잘하는샵#성수눈썹문신#성수반영구#건대눈썹문신#건대반영구#잠실눈썹문신#잠실반영구#왕십리눈썹문신#왕십리반영구#뷰스타그램#반영구화장#성수핫플#젊줌마#육아#직장맘#일상#맞팔</t>
+  </si>
+  <si>
+    <t>Reposted from @arenakorea 성수동에 위치한 ‘새드 스마일 기프트 샵’에 다녀왔습니다. ‘우는 게 죄는 아니잖아요?’라며 숨어서 울지 않아도 된다는 슬로건의 커스텀멜로우 팝업 스토어입니다.⠀온라인에서만 만날 수 있었던 커스텀멜로우 새드 스마일 에디션을 모두 만나볼 수 있습니다. 본격 전국민 눈물 장려 프로젝트를 진행하고 있어 여기서는 #눈물셀카 도 허용이 됩니다. 이벤트도 가득한데요. 오픈 후 바로 품절됐던 랜덤 박스(최대 10만 원 상당 제품이 들어있는 랜덤 박스를 3만 원에 판매)가 7월 3일부터 다시 진행되며, 새드 스마일 부채를 방문자 모두에게 증정하는 등 다양하게 준비돼 있습니다. 이렇게나 알찬데 안 가보는 건 손해죠.⠀✔프로젝트 렌트 서울 성동구 서울숲길 43, 1F⠀✍🏻유선호 🎬김판기 김성재_@MYCUSTOMELLOW @SADSMILE.CUSTOMELLOW#새드스마일 #새드스마일기프트샵 #커스텀멜로우 #나는가끔눈물을흘린다 #성수동 #성수핫플 #아레나코리아 #ARENAKOREA - #regrann</t>
+  </si>
+  <si>
+    <t>어색한 포즈잡기ㅎㅎㅎ.....#성수핫플 #카페 #얼스타 #셀스타</t>
+  </si>
+  <si>
+    <t>.❤️the suum beauty❤️.[스킨플래닝].스킨플래닝이란??해외에서는 스킨플래닝,더마플래닝이라 불리우며 전 세계적으로 가장 트렌디한 관리로 떠오르는 뷰티 스킨케어 시술입니다.여기서 더마플래닝(Dema Planning)이란 피부를 뜻하는더마(Dema)와 대패질을 뜻하는 플래닝(Planning)이 합쳐진 스킨케어를 의미하는 이단어는 1970년 성형외과 의사의 트리트먼트에서 시작하여 현재 미국, 영국까지 선풍적인 인기를 끌고있는 프리미엄 스킨케어 관리입니다.맨허튼에 위치한 패션 부티크 '파이브 스토리'의 창립자인클리어 올셴이 한 매체의 인터뷰에서 더마플래닝을 받는다고할 정도로 이미 해외에서 스킨케어 루틴으로써 잡은 뷰티 프로그램입니다.피부의 죽은 각질과 노폐물, 솜털과 잔털뿐 아니라 각종 먼지와 노폐물까지 제거하는 특별한 기술을 섬세한동양인 피부에 맞추어서 개발된 전문 트리트먼트인'더숨 더마플래닝'은 일반적으로 널리 알려져있는 왁싱과 실면도, 각질제거 관리와는 달리 관리중 통증과부작용이 거의 없으며, 관리 직후 즉각적인 톤업은 물론매끄러운 피부 결과 본연의 광을 되찾아주는프리미엄 관리입니다..._▪️예약 상담 문의▪️📞010-3564-0668➡️네이버검색:"더숨뷰티"➡️오픈카톡 상단클릭📌💡빠른상담은 오픈카톡입니다🙏시술중엔 답변이 다소 늦을수 있으나   순차적으로 빠른답변드릴수 있도록 하겠습니다..#더숨뷰티#스킨플래닝#더마플래닝#피부스케일링#스킨케어#각질케어#각질제거#피지제거#동안피부#노화방지#피부미인#피부관리#MTS#물광피부#탱클탱글#깐달걀피부#skinplaning#썬크림#재생크림#알로에수딩#후관리중요#솜털제거#잔털제거#피부톤업#애기피부#반영구#눈썹문신#성수핫플#뷰티샵#추천샵</t>
+  </si>
+  <si>
+    <t>🍬솜사탕같은 옷입고 신남🍬+ 디엠으로 옷 정보 물어보셔서요! 미니포에에서 샀습니당💗</t>
+  </si>
+  <si>
+    <t>오늘도 갓구운 스코니들이식기도전에 솔드아웃되었어요!내일아침에도 넉넉히 준비해놓을게요🥰</t>
+  </si>
+  <si>
+    <t>1일1수박할수있는날이 얼마 안남았오요여름 지나면 못먹죠잉😭 열심히 씨없는 수박쥬스로 준비하겠습니다 !</t>
+  </si>
+  <si>
+    <t>.이건 네 밥 🍚🥗</t>
+  </si>
+  <si>
+    <t>성수동 핫플 그리드채플린에서🍺.그리드플래터🧡 오랜만에 먹은 타코😍진짜 소스랑 양념이랑 최고👍 너무 맛있어용감자튀김도 끝까지 바삭바삭😝.분위기도 너무 좋고 플래터도 맛있고😍.요기는 서비스 안주마저👍👍와사비 프레첼인데 너무 맛있더라구요😍😍.맥주도👍👍 자몽? 과일 맛 맥준데 진짜 너무 맛있어요😍😍 이름 찍어올걸🤣담에 또 마시러가야겠어요😊.다들 즐거운 저녁되세요💕💕..#그리드채플린 #성수동맛집 #성수맛집 #성수동핫플 #성수핫플 #성수술집 #성수동술집 #성수동회식 #성수동피자 #성수데이트 #성수동데이트 #서울숲맛집 #뚝섬맛집 @gridchaplin #ad_</t>
+  </si>
+  <si>
+    <t>오늘 촬영스케줄로 늦은오픈 했어요 ㅠㅠ그래서 오늘은 10시까지 연장 할게요~🙏🏻.#키메네상점</t>
+  </si>
+  <si>
+    <t>#로스트성수점심에 분위기 좋은 곳에서 혼밥하는 것도 좋네요 :) 브런치 메뉴로 최고인 에그베네딕트와 옥수수 스프는 정말 황금조합이네요 ㅎㅎ#톰리#톰리_성수</t>
+  </si>
+  <si>
+    <t>#JamaicaAde</t>
+  </si>
+  <si>
+    <t>성수역 3번출구 분위기좋은 이색술집🍷진짜 도박 아닌 건전하게 즐기는 카지노게임🃏단돈만원으로 즐길 수 있는 이색놀거리🎶블랙잭♠️바카라♥️룰렛♦️홀덤♣️다트🎯#성수술집 #성수카지노펍 #성수홀덤 #성수동홀덤 #건대술집 #건대홀덤 #왕십리홀덤 #한양대홀덤 #서울숲술집 #성수핫플 #슈에뜨카지노펍 #슈에뜨펍 #성수동술집 #성수이색술집 #성수카페거리 #성수펍 #성수역술집</t>
+  </si>
+  <si>
+    <t>맛 최고,,🥗🍷😊</t>
+  </si>
+  <si>
+    <t>.감사한 6월을 보낸 매듭에서 7월 한 달 동안 10% 할인된 금액으로 클래스를 진행합니다.6월에 수강하셨던 분들은 페인팅 원데이클래스 수강 시 혜택을 드리려 합니다☺️앞으로도 매듭공방과 여행 같은 시간을 공유할 수 있길 바라며 다시 한번 감사 인사드립니다🤍⠀수강신청은 네이버모두 홈페이지(MAEDEUP)에서 신청/클래스 구매 가능합니다.프로필에 링크를 ⬇️눌러 확인해주세요➰</t>
+  </si>
+  <si>
+    <t>•질겅질겅 오징어 꾸워서 마요네즈랑 고추장 번갈아가면서 찍먹하기👋🏻여기에 시원한 맥주 한잔이면 더위타파가능이예요 😚목요팅 하세여 ⠀⠀⠀⠀#먹스타그램 #맛팔 #먹팔 #맛스타그램 #인친 #서울맛집 #오늘뭐먹지#음식사진 #foodstagram #좋아요 #먹방 #데이트코스 #존맛탱#맛집 #먹스타맞팔 #인스타푸드 #인스타뷰티 #럽스타그램 #좋테#좋반 #카페스타그램 #foodpics #쿡스타그램 #푸드스타그램 #홈쿡#집밥스타그램 #성수데이트 #성수맛집 #성수핫플 #오징어볶음 ⠀⠀</t>
+  </si>
+  <si>
+    <t>ㅤㅤㅤㅤㅤ많은 분들이 기다려주신 아모레성수여름 포토 클래스가 드디어 오픈합니다!ㅤㅤㅤㅤㅤAMORE성수 X CANON ACADEMY와 함께멋진 여름 날들을 기록해보세요 :)ㅤㅤㅤㅤㅤ기초적인 카메라 사용법부터 구도와 컬러 표현법까지,다양한 팁을 통해 하나뿐인 나만의 여름 앨범을 완성할 수 있답니다 📸ㅤㅤㅤㅤㅤ아모레퍼시픽 메이크업 아티스트들과함께하는 메이크오버 시간도 놓치지 마세요!ㅤㅤㅤㅤㅤ*클래스 진행 시 손소독제 비치는 물론,입장 시 체온 측정과 열화상카메라 설치가 함께이루어질 예정입니다.ㅤㅤㅤㅤㅤ✔ 진행 일정: 7/23(목) ~ 9/3(목) *격주 목요일 총 4번✔ 신청 방법: 아모레성수 인스타그램 프로필 링크✔ 모집 인원: 8명✔ 수강료: 10만원✔ 장소: 아모레성수 2F 컨퍼런스룸✔ 혜택: 캐논 DSLR 200D 대여#아모레성수 #클래스 #사진기록</t>
+  </si>
+  <si>
+    <t>나만 알고싶던 성수 #헤이보울 🥭🍌💛꾸덕함에 감동해서 꼭 다시 가야지하다가 또 왔다 (ღ'ᴗ'ღ)액체 없이 갈아준거라 이렇게 꾸덕하답니다 최고임 정말‼️아사이볼 같지만 블루베리가 들어간 퍼플볼도 맛있었는데이번엔 여름 같은 상큼새콤 옐로보울✨ 패션프룻+망바헤이보울 처음 방문 했던 날에는 그동안 한국에서 간간히 보이던 묽고 창렬인 아사이볼 생각하며 실망할 각오 하고 갔는데 맛있고 합리적인(?) 스무디볼에 넓고 밝은 매장, 그리고 친절한 직원분들에 완조니 반해버려따 ❤️ㅠㅠ한국에서도 미국에서만큼 띡(thick)하고 건강한 슴디볼을먹을 수 있음에 감사하다 ㅎㅎ 헤이보울 가고 광명찾자 🌟</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>🛋</t>
+  </si>
+  <si>
+    <t>Open . July .11st</t>
+  </si>
+  <si>
+    <t>꼼지락</t>
+  </si>
+  <si>
+    <t>분위기에 맛까지 좋았던 #온량-성수점 온량시작전에 가서 웨이팅👍🏻-#토마토호크포크커틀렛 고기가 전혀 질리지 않고 입안에서 녹는 느낌-#봉골레파스타봉골레에 조개양 실화인가!!양이 푸짐해서 감동스💖-다음에는 로제파스타를 도오전!!</t>
+  </si>
+  <si>
+    <t>인스타보고 방문주신 고객님 👼🏻자연스러운 #애쉬그레이이제 탈색은 더 안하고 싶다는 고객님 🤟🏻뿌리부터 붉은기없이 톤체인지 🌻⠀✔️ 염색 1회 ( 믹스컬러 )- 기존 베이스와 원하는컬러에 맞춰 믹스컬러로 들어갑니다⠀💌 가격문의 dm 가능⠀⠀⠀예약은 프로필상단에 네이버예약 링크 눌러주세용 💛👍🏻⠀⠀</t>
+  </si>
+  <si>
+    <t>⠀증말⠀패널 자꾸 올리게 되네 ㅋㅋ또  만오처넌 벌었쟈나쟈나 ♥️⠀고객이 알아서 결제 해주시니너~~~~~~~무 편하다⠀왜 이제서야이거 만들어 주신건가유~~~?⠀애펌 만쉐✌️⠀총 수익은 좀 더 있다 공개해야징 ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>#b101workroom 의 #포토존 😊✨ 편하게 사진찍고 놀다가세요! ( 거울이 아주 길어보여요? 셀카 맛집이에용🙄✨)✔️포토존의 모든 작품들 판매중이니 편하게 문의 해주세요✔️카카오페이 가능합니다😊🤍✔️진열된 상품으로 주문제작 가능합니다(핸드폰케이스, 세라믹 오브제및 제품)✔️클래스 문의는 언제나 환영이에요. 메세지 보내주시면 빠르게 답변해드리고 있습니다.</t>
+  </si>
+  <si>
+    <t>지구에 불시착한 아더 스페이스 2.0⠀우주선, 무중력 룸, 침대가 마련된 피팅룸...이번 달 말 정식 오픈(예정)을 앞두고 있는 아더에서 성수 플래그십 스토어입니다. 개성 있는 공간과 전시는 물론 메종 키츠네, 푸마 등과의 협업으로 독특한 정체성을 드러내온 아더 에러의 두 번째 스토어죠. 마치 우주 어딘가에 와 있는 듯한 느낌인데 옷을 고르고 입어보고 계산하는 순간까지도 독특한 매장 경험을 할 수 있도록 재미난 장치를 곳곳에 숨겨놓았습니다. 정식 오픈과 동시에 2층에는 아더 에러의 자체 브랜드인 텅(Tongue) 카페도 함께 선보일 예정입니다.⠀add. 서울시 성동구 성수이로 82⠀#designspot #desigospot_seoul #adererror #스페이스2.0 #디자인스팟 #디자인스팟_서울 #아더에러성수 #플래그십스토어 #성수핫플 #editor_sangheeoh</t>
+  </si>
+  <si>
+    <t>🍽✍🏻..#보이어 .. 버터향이 가득했던은대구파스타는 단연 최고👏 ...분위기도 좋고 맛도 괜찮아서 조만간 재방문 예정🤍 ....#성수핫플#성수맛집#보이어#파스타#와인맛집</t>
+  </si>
+  <si>
+    <t>새드 스마일 기프트 샵#repost @arenakorea・・・성수동에 위치한 ‘새드 스마일 기프트 샵’에 다녀왔습니다. ‘우는 게 죄는 아니잖아요?’라며 숨어서 울지 않아도 된다는 슬로건의 커스텀멜로우 팝업 스토어입니다.⠀온라인에서만 만날 수 있었던 커스텀멜로우 새드 스마일 에디션을 모두 만나볼 수 있습니다. 본격 전국민 눈물 장려 프로젝트를 진행하고 있어 여기서는 #눈물셀카 도 허용이 됩니다. 이벤트도 가득한데요. 오픈 후 바로 품절됐던 랜덤 박스(최대 10만 원 상당 제품이 들어있는 랜덤 박스를 3만 원에 판매)가 7월 3일부터 다시 진행되며, 새드 스마일 부채를 방문자 모두에게 증정하는 등 다양하게 준비돼 있습니다. 이렇게나 알찬데 안 가보는 건 손해죠.⠀✔프로젝트 렌트 서울 성동구 서울숲길 43, 1F⠀✍🏻유선호 🎬김판기 김성재_@MYCUSTOMELLOW @SADSMILE.CUSTOMELLOW#새드스마일 #새드스마일기프트샵 #커스텀멜로우 #나는가끔눈물을흘린다 #성수동 #성수핫플 #아레나코리아 #ARENAKOREA</t>
+  </si>
+  <si>
+    <t>⠀⠀좋은 사람과 커피한잔은언제나 꿀같은 시간💕⠀⠀⠀#블루보틀라떼#성수핫플#오늘날씨맑음🌞#사진찍기좋은곳📷⠀</t>
+  </si>
+  <si>
+    <t>돌아와요 내바이오리듬! 💪🏻</t>
+  </si>
+  <si>
+    <t>...점심 식사 맛있게 하셨나요?..맛있게 밥먹고 내가 좋아하는 #생자몽주스🍊🍎🍑.근데여기 핫플이람서... 엄청 유명한 까페람서..실망실망맛없음..에잇 집에 가서 갈아 마셔야겠어 😝.샌들사러 성수동왔는데..아...ㅜㅜ...#성수동수제화거리 #성수수제화구두#수제화구두 #수제구두 #여름샌들#수제가방 #가방 #가죽가방#성수동까페 #성수동맛집 #성수맛집#어반소스 #루프탑카페 #정원까페#성수핫플 #아모레성수 #성수 #뚝섬맛집 #서울숲 #서울숲맛집#건대맛집 #건대 #건대까페 #아모레방판언니#아모레카운셀러#셀카 #얼스타그램 #뷰티그램#소통맞팔좋아요</t>
+  </si>
+  <si>
+    <t>.점심시간,바로옆에 배우 이제훈이...🤩목소리도 쏘스윗😊..#성수핫플 #회사앞핫플#우동가조쿠성수점#냉우동맛집</t>
+  </si>
+  <si>
+    <t>🌴브릭캠퍼스 서울 현장 이벤트🌴⠀무더운 여름을 피해 실내에서 시원하게 전시, 체험, 카페 모두 즐길 수 있는 현명한 문화생활 바로 브릭캠퍼스!다들 빠져들 수밖에없는 브캉스오셔서 집콕 필수템까지 받아가세요༼,,•̃͡ ɷ-̃͡༽⠀❣이벤트 참여방법❣⠀1.친구 가족 연인과 브릭캠퍼스로 브캉스를 온다2.시원한 실내에서 전시, 체험, 카페를 이용한다3.SNS 브캉스를 즐기는 사진과 필수 해시태그에서 2개 이상 포함해서 업로드 한다4.굿즈샵에 인증 후 선물을 받는다 ✧٩(•́⌄•́๑)و ✧⠀✔이벤트기간 :상품 소진시까지✔필수 해시태그 : #브릭캠퍼스 #브캉스 #여름전시 #성수핫플 #서울숲전시</t>
+  </si>
+  <si>
+    <t>➰</t>
+  </si>
+  <si>
+    <t>오늘 성수동가는 사람 손✋✅요즘 정말 핫한 브랜드 답게, ✅핫한 성수동 길거리를 걷다가,✅시선을 확 사로잡은 마크곤잘레스의 벽화에 발길이 딱😎스케이트 보더이자 아티스트로 유명한 #마크곤잘레스 특유의 엔젤로고를 담고 있어 멀리서도 눈에 확들어오는건 부정할수 없네요😁.오늘 성수동 가시는 분들!🙋🏼‍♀️모두들 성수 대신상사 벽화에서 엔젤과 힘터지는 인생샷을 남겨보세요📸.... #마크곤잘레스 #markgonzales #엔젤 #성수동 #성수핫플 #성수맛집 #뮤럴라이프 #인증샷 #인생샷 #성수추천 #성수동카페 #성수동핫플레이스 #성수핫플 #성수역 #소통 #좋아요</t>
+  </si>
+  <si>
+    <t>arena_hiddenshop성수동에 위치한 ‘새드 스마일 기프트 샵’에 다녀왔습니다. ‘우는 게 죄는 아니잖아요?’라며 숨어서 울지 않아도 된다는 슬로건의 커스텀멜로우 팝업 스토어입니다.⠀온라인에서만 만날 수 있었던 커스텀멜로우 새드 스마일 에디션을 모두 만나볼 수 있습니다. 본격 전국민 눈물 장려 프로젝트를 진행하고 있어 여기서는 #눈물셀카 도 허용이 됩니다. 이벤트도 가득한데요. 오픈 후 바로 품절됐던 랜덤 박스(최대 10만 원 상당 제품이 들어있는 랜덤 박스를 3만 원에 판매)가 7월 3일부터 다시 진행되며, 새드 스마일 부채를 방문자 모두에게 증정하는 등 다양하게 준비돼 있습니다. 이렇게나 알찬데 안 가보는 건 손해죠.⠀✔프로젝트 렌트 서울 성동구 서울숲길 43, 1F⠀✍🏻유선호 🎬김판기 김성재_@MYCUSTOMELLOW @SADSMILE.CUSTOMELLOW#새드스마일 #새드스마일기프트샵 #커스텀멜로우 #나는가끔눈물을흘린다 #성수동 #성수핫플 #아레나코리아 #ARENAKOREA</t>
+  </si>
+  <si>
+    <t>망원동티라미수 먹고싶은 날 🏄🏻‍♀️저때과감했네 🤣🧸🤾🏻‍♀️</t>
+  </si>
+  <si>
+    <t>⠀오늘도 활짝 오픈 했어요 :)즐거운 목요일 보냅시다 모두들🤍⠀⠀⠀⠀⠀✔️목요일 10:00 - 20:00</t>
+  </si>
+  <si>
+    <t>ˢᵁᴺᴰᴬᵞ썬데이모닝 다운 사진!나땜에 너네가 고생이라고하기엔,, 너무 즐거워하네? ㅋㅋㅋ#찡얼찡얼#우울하다난리 ㅋㅋㅋ#bnhr성수</t>
+  </si>
+  <si>
+    <t>오늘도 비비해이 여름맛 가득한 디저트 준비해놓을게요🏝 #bbhay #비비해이⠀-@xino._.muk 님께서 찍어주셨어요:)</t>
+  </si>
+  <si>
+    <t>⠀생각을 멈추고 오롯이나에게만 집중할수 있었던 시간🌹@chihyun_j 덕분에 행복한 경험한 날! ⠀타임랩스로 과정 기록하고싶었으나기본영상으로 저장되고있었다 ........집에와서 변환하려했으나 귀찮......⠀결국 브이로그처럼 되버렸지만어쨌든 추억 저장완료!⠀⠀⠀⠀#타임랩스 #실패 #미술 #그림 #painting #성수 #성수핫플 #동영상 #브이로그 #힐링 #사진 #photo #일상 #daily #취미 #selfie #selca #얼스타그램 #성수동핫플레이스</t>
+  </si>
+  <si>
+    <t>윤경 : 뚝섬역 근처에 위치한 프리미엄 돈까스 집입니당 딱 육즙가득한 돈까스 맛이 었어요! but,,,, 성수동에서 프리미엄 돈까스를 추천 드리면 ...여기말고 다른곳을...추천드릴게요 (돈까스만 본다면)😆 돈까스랑 후토마끼랑 여러가지 음식을 같이 즐기시고싶으시다면 이곳을 추천 드립니댜 😘▪️안심+등심 돈까스 : 19,000▪️후토마끼 : 12,000▪️가츠산도 : 12,000</t>
+  </si>
+  <si>
+    <t>일찍출근했습니다~❤️ 갓구운 스코니 하나씩 드시러오세용❤️❤️</t>
+  </si>
+  <si>
+    <t>😋🍽⠀📍낙원테산도 성수⠀성수동 지나가다가 우연히 발견한 낙원테산도!저번에 강남역에서 봤던거 같은데 성수동에도 있었넹⠀웨이팅 줄이 길어서 힘들었지만사람이 많은 곳은 다 이유가 있었다 🐷👍🏻👍🏻⠀#낙원테산도 #낙원테산도성수</t>
+  </si>
+  <si>
+    <t>인테리어도 맛도 쵝오!!!!! #kuna #성수동</t>
+  </si>
+  <si>
+    <t>_펜시덕후는 그냥 지나치지 못하고...🤍🤍발걸음이 이끄는대로 가보니 이미 계산대 앞 컄컄 #지난주말 #행복했따</t>
+  </si>
+  <si>
+    <t>최고 미남 두명과의 힐링타임수다만 떨어도 스트레스 풀린다👍👍저세상 드립 앞으로 마니마니 하자요😆</t>
+  </si>
+  <si>
+    <t>이곳이 성수의 핫플인가...#성수#성수동카페#우디집#완전취저#장롱문#성수핫플#카페투어#디저트카페#레트로갬성뿜뿜#일상#소통</t>
+  </si>
+  <si>
+    <t>.헛헛한백허그짤</t>
+  </si>
+  <si>
+    <t>3주내리 고단한 일정🤤그 와중에 알콜 소독하자는 이십대 청춘들. 뭐가 그리 재밌는지 깔깔대다가 집에 못 갈뻔🤫 .아주 어린기억속에 우리집 건너편에 왕 대추나무 키우시던 할머니네 집이 생각 나는 곳. 참 조으다 :) 나무 질감, 골드스타 냉장고. 찐 레트로의 집합체..#shotoniphone #lightroom</t>
+  </si>
+  <si>
+    <t>그냥 좋은곳</t>
+  </si>
+  <si>
+    <t>성수 핫플너무나 추웠다.#가맥집#성수동맛집#성수핫플#들어갔다바로나옴😆</t>
+  </si>
+  <si>
+    <t>7월1일😳😱⠀⠀와디즈 오픈예정 알림신청이벤트는 아직 진행중이어요🎁🔛🥳</t>
+  </si>
+  <si>
+    <t>뒤늦게 방문한 아모레 성수 - 폐차장을 개발해 정원이 있는 브랜드 하우스로 만들면서, 자유롭게 화장품을 테스트할 수 있는 공간. 아름다움을 알아가는 곳이라는 모토가 꽤나 잘 어울리는 공간이다. 다만 코시국에는 화장품을 자유롭게 테스트하기 어려운 것이 조금 아쉽지만 자본의 힘이 잘 발휘된 균형있는 공간 아닌가 싶었다#아모레성수 #성수동 #아모레퍼시픽 #성수여행 #성수핫플</t>
+  </si>
+  <si>
+    <t>언니들과 브런치 타임🥗🍽오늘 선선해서 밖에서 브런치하기 딱 좋은 날씨💕난 다이어트중이어서 샐러드만 먹었지만 분위기 좋아서 그나마 기분이 좋았음😊샐러드는 양파가 너무 많아서 양파먹고 계속 냄새나죽는줄^^언니들은 맛있다고 3단세트 다 드심 ㅋㅋㅋㅋㅋㅋ난 눈으로 먹었음👀...#빙봉 #서울숲브런치 #서울숲빙봉 #서울숲카페 #서울숲 #브런치카페 #뚝섬카페 #뚝섬맛집 #데일리 #일상 #daily #성수동핫플 #서울숲핫플 #brunchcafe #brunch #성수핫플 #브런치맛집 #🥗</t>
+  </si>
+  <si>
+    <t>[🍕]날씨 좋은 어느날의 #이태리차차화덕으로 구워주는 피자 도우가 아주 쫠깃해요😋__#뚝섬카페 #뚝섬 #성수카페 #성수카페거리 #뚝섬유원지역카페 #뚝섬유원지 #성수동핫플 #성수핫플 #뚝섬핫플 #뚝섬핫플레이스 #성수맛집 #뚝섬맛집 #성수역맛집 #뚝섬역맛집</t>
+  </si>
+  <si>
+    <t>즐거웠던 아모레 성수에서😻솔까리 멤버들과 사진만 천장은찍은 듯ㅋㅋㅋㅋㅋㅋㅋㅋ인생샷 건지기 참 힘들군🤭답사후 잠수교에서!!! 넘 맛있으😚근무환경 참 좋은 @chocobbam님 고생했으요👍#아모레퍼시픽 #아모레성수 #솔까리#잠수교 #성수핫플 #성수동맛집 #성수</t>
+  </si>
+  <si>
+    <t>오늘도 어김없이 #샘플팩토리 는  #건강스타그램 중중중😆😆😆다들 이상하시겠지만ㅋ 저희직원들은 출근해서 일하는거보다 운동하는걸 더 즐겨요ㅍㅎㅎㅎ운동가자하면,버선발로 뛰쳐나가심⛹️‍♀️⛹️‍♀️⛹️‍♀️🤸‍♀️🤸‍♀️🤸‍♀️땀흘리는게 제일 좋다는 직원들이 근무하는 그런곳 진정 #성수핫플 ㅋㅋㅋ...그런와중 오늘은 @lee_zu531  지우히메가 느무나큰 나무 젤 꼭대기에 공을 딱 꽂으셨음🎾🎾🎾 숙련된 리라사장이 공을 낙하시키며 매우 좋아하심ㅋㅋ왜일까???ㅋ</t>
+  </si>
+  <si>
+    <t>_구욱희씨네💛 카페인지 모르고 사진만 찍고 나왔다는... #뎨둉해요담엔커피마시구갈게요!🙏🏻</t>
+  </si>
+  <si>
+    <t>엄청 바빴던 하루 🤍#명동 #명동맛집 #성수동카페 #성수카페 #성수핫플 #서울핫플레이스 #건대 #분위기좋은카페 #카페추천 #오르에르 #orer #성수동맛집 #일상 #소통 #daily #직장스타그램 #얼스타그램 #셀피 #천호 #강동 #길동 #이천</t>
+  </si>
+  <si>
+    <t>갹 오브코에서 노티드</t>
+  </si>
+  <si>
+    <t>#헤이보울 #성수 #리보추천 .진정한 여름의 맛 heybowl💫#옐로우보울💛 상큼달달하게 망고.파인애플 베이스에 바나나, 망고, 청포도 토핑!#퍼플보울💜 라즈베리, 블랙베리, 산딸기 등 베리류의 상콤달달 원조 아사이볼#그린보울💚옐로우의 베이스에 사과, 키위와 케일로 초록의 맛#라즈베리바질❤ 라즈베리.바질 베이스에 산딸기, 방울토마토, 카카오 그래놀라 토핑! 과일러버들은 옐로우와 퍼플! 야채류를 좋아하시면 그린이나 바질! 얘네도 씁쓸하지않고 달달상콤해요! 특히 개인적으로 그린과 바질맛이 너무 매력적☺ 그리고 여긴 그래놀라맛집이다🌿달달: 옐로우&gt;=퍼플&gt;라즈베리바질&gt;그린상큼: 퍼플&gt;=옐로우&gt;라즈베리바질&gt;그린조화: 그린&gt;=라즈베리바질&gt;옐로우&gt;퍼플오늘도 다들 예뻤던 토리쿠밍 모임 가지고 쿠이의 궁금했던 #오거트 선물까지♡ 사실 궁금해서 오늘 드르려고 했어♡ 우리 모두 오래가쟈🌷.</t>
+  </si>
+  <si>
+    <t>미...안 후츄.....(작업실에 이젠 후츄용 밥그릇 배변패드 응아봉투 구비해둠....)</t>
+  </si>
+  <si>
+    <t>온화(성수점) : 성수역과 뚝섬역 사이에 있는 수플레 팬케이크 집이에요! 수플레케이크가 그렇듯 가격대는 조금 있지만 자리까지 음식을 가져다 주셔요 분위기듀 좋규여 😆  가격이 사악하지만.. 그래도 한번쯤 성수동에서 수플레케이크를 드시고 싶으시다면 온화를 추천 드려용 !!▪️딸기수플레 : 19,000</t>
+  </si>
+  <si>
+    <t>소바식당 : 항상 줄서는 성수동 소바 맛집 입니다. 드라마에서도 나왔었죠!! 단새우 소바를 먹으러 간거였는데 단새우 소바는 품절이더라구요 ㅠㅠ  그래도 제 사랑 성게알 소바를 먹을 수 있어서 다행이었어요 🥰  예전에 도쿄등심 코스에 나오눈 우니 먹고 진짜 실망했는데 여기는 북해도 우니 보다는 아니지만 상태가 꽤 괜찮았어요 !! 또 타마고 멘치카츠는 한정메뉴 인데 다행이 제가 갔을땐 있더라구용 그냥 딱 생각하는 그맛이에용 ㅋㅋ 😘 여름엔 냉소바가 최고인듯 해요 🥰▪️우니냉소바 : 14,000▪️전복냉소바 : 12,000▪️타마고멘치카츠 : 9,000</t>
+  </si>
+  <si>
+    <t>저희 #b101workroom 은 #반려견동반가능 작업실이에요😊 강아지와 함께 도자기 만들고 가세요!🤍✔️수업 예약시 문의 주시면 프라이빗 클래스로 진행, 또는 해당 수업동반 가능여부 다시 한 번 알려드릴게요!🤍🐶✔️모든 문의와 클래스 예약은 메세지📩보내주세요 최대한 빠른시간내에 답변해드리고 있습니다.⠀</t>
+  </si>
+  <si>
+    <t>갑자기 추워져 뜨아로😢#오늘도성수</t>
+  </si>
+  <si>
+    <t>⛱파라솔이 절대 필요한 공간.#성수아르코 🏝#성수핫플#파라솔@docent_official_</t>
+  </si>
+  <si>
+    <t>나미야 잡화점의 기적이 이로나따 ✨</t>
+  </si>
+  <si>
+    <t>ㅤㅤㅤㅤㅤ아모레성수에 찾아온 설레는 소식,영롱한 7월 신제품들이 입고되었어요! 🙊ㅤㅤㅤㅤㅤ아모레성수 신제품 테이블에서는화사한 메이크업 효과를 유지시켜주는헤라 아이 글로우미 블랙 LED 쿠션은 물론,ㅤㅤㅤㅤㅤ귀여운 디즈니 캐릭터가 담긴 에뛰드 어썸 파티 콜렉션 등다채로운 신제품을 체험해보실 수 있답니다 ✨ㅤㅤㅤㅤㅤ곧 찾아올 이지피지와 이니스프리,그리고 려의 신제품도 많은 기대 부탁드려요 :)ㅤㅤㅤㅤㅤLong awaited news for new products in July at AMOREseongsu!ㅤㅤㅤㅤㅤTest various brand new products from HERA I GLOW ME BLACK CUSHION for lasting fine makeup to ETUDE AWESOME PARTY COLLECTION with lovely Disney characters!ㅤㅤㅤㅤㅤMore brands to come such asEASY PEASY, innisfree, and Ryo!ㅤㅤㅤㅤㅤ#아모레성수 #신제품 #코덕환영#AMOREseongsu #newproduct #cosmeticlover</t>
+  </si>
+  <si>
+    <t>햇살좋은 서울숲 옆 브런치레스토랑언박스키친의 시즌메뉴 .아보카도 온 토스트🥑🥑유기농 식빵 위에 신선한 아보카토,톡터치는 수란까지 완전 JMT...♡.평일 낮엔 커피랑 세트라고하니빠르게 고고씽!#성수동맛집 #언박스키친 #성수동데이트 #서울숲데이트 #성수핫플</t>
   </si>
   <si>
     <t>2020-06-17</t>
   </si>
   <si>
+    <t>2020-05-20</t>
+  </si>
+  <si>
+    <t>2020-04-03</t>
+  </si>
+  <si>
     <t>2020-07-01</t>
   </si>
   <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>2020-06-24</t>
-  </si>
-  <si>
-    <t>37,868</t>
-  </si>
-  <si>
-    <t>1,095</t>
-  </si>
-  <si>
-    <t>한라산 사라오름</t>
-  </si>
-  <si>
-    <t>['#사라오름', '#제주돈아서귀포점', '#서귀다원', '#제주미니', '#jejumini']</t>
-  </si>
-  <si>
-    <t>['#성산일출봉', '#코코마마.계절마다', '#성산맛집', '#성산일출봉맛집', '#서귀포맛집', '#제주맛집', '#제주도맛집', '#애월맛집', '#우도맛집', '#제주도여행', '#월정리카페', '#오설록맛집', '#산방산맛집', '#모슬포맛집', '#서귀포카페']</t>
-  </si>
-  <si>
-    <t>['#경미네집📍07:00', '#띵크추천', '#띵크제주', '#사랑분식', '#애월맛집', '#동문시장맛집', '#동문시장', '#공항근처맛집', '#제주공항맛집', '#제주공항근처맛집', '#제주도여행', '#제주도맛집', '#제주도분식맛집', '#협재맛집', '#서귀포맛집', '#경미휴게소', '#중문맛집', '#우도맛집', '#성산일출봉맛집', '#월정리맛집']</t>
-  </si>
-  <si>
-    <t>['#표선맛집', '#제주표선맛집', '#제주도표선맛집', '#우도맛집', '#제주간장게장맛집', '#제주도간장게장맛집', '#제주간장게장', '#제주도간장게장', '#제주밥집', '#제주도밥집']</t>
-  </si>
-  <si>
-    <t>['#제주맛집베스트', '#제주맛집여행', '#섭지코지', '#광치기해변', '#우도맛집', '#종달리', '#종달리맛집', '#하도리맛집', '#세화리맛집', '#제주도맛집탐방']</t>
+    <t>2020-06-25</t>
+  </si>
+  <si>
+    <t>2020-07-04</t>
+  </si>
+  <si>
+    <t>2020-07-02</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>2020-05-07</t>
+  </si>
+  <si>
+    <t>2020-07-07</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>2020-07-05</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>2019-08-02</t>
+  </si>
+  <si>
+    <t>2020-05-21</t>
+  </si>
+  <si>
+    <t>2020-05-19</t>
+  </si>
+  <si>
+    <t>2020-05-16</t>
+  </si>
+  <si>
+    <t>2020-02-18</t>
+  </si>
+  <si>
+    <t>2020-02-07</t>
+  </si>
+  <si>
+    <t>2019-06-11</t>
+  </si>
+  <si>
+    <t>2020-06-21</t>
+  </si>
+  <si>
+    <t>2020-02-02</t>
+  </si>
+  <si>
+    <t>2019-12-09</t>
+  </si>
+  <si>
+    <t>2020-07-03</t>
+  </si>
+  <si>
+    <t>2020-06-23</t>
+  </si>
+  <si>
+    <t>3,664</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>2,787</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>525</t>
+  </si>
+  <si>
+    <t>818</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>396</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>1,198</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>654</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>Nontanto</t>
+  </si>
+  <si>
+    <t>서울숲 오후</t>
+  </si>
+  <si>
+    <t>성수동</t>
+  </si>
+  <si>
+    <t>Below Seongsoo</t>
+  </si>
+  <si>
+    <t>다로베darobe</t>
+  </si>
+  <si>
+    <t>BBHAY</t>
+  </si>
+  <si>
+    <t>Arco  아르코</t>
+  </si>
+  <si>
+    <t>헤이보울</t>
+  </si>
+  <si>
+    <t>연무장</t>
+  </si>
+  <si>
+    <t>뚝섬 미술관</t>
+  </si>
+  <si>
+    <t>칼퇴근길</t>
+  </si>
+  <si>
+    <t>Seoul, Korea</t>
+  </si>
+  <si>
+    <t>바이산 대림창고점</t>
+  </si>
+  <si>
+    <t>키메네상점</t>
+  </si>
+  <si>
+    <t>성수동 성수2가</t>
+  </si>
+  <si>
+    <t>레이더</t>
+  </si>
+  <si>
+    <t>유어네임히얼</t>
+  </si>
+  <si>
+    <t>Raw Coffee Stand</t>
+  </si>
+  <si>
+    <t>오레노카츠</t>
+  </si>
+  <si>
+    <t>서울숲 Seoul Forest Park</t>
+  </si>
+  <si>
+    <t>cociety</t>
+  </si>
+  <si>
+    <t>성수동근처</t>
+  </si>
+  <si>
+    <t>현명한 소비의 시작, 오브젝트</t>
+  </si>
+  <si>
+    <t>힌스 아틀리에</t>
+  </si>
+  <si>
+    <t>로스트 성수</t>
+  </si>
+  <si>
+    <t>아모레성수</t>
+  </si>
+  <si>
+    <t>블루보틀 Blue Bottle 성수</t>
+  </si>
+  <si>
+    <t>할아버지공장</t>
+  </si>
+  <si>
+    <t>BNHR</t>
+  </si>
+  <si>
+    <t>이태리차차</t>
+  </si>
+  <si>
+    <t>메쉬커피 Meshcoffee</t>
+  </si>
+  <si>
+    <t>성수동 어니언</t>
+  </si>
+  <si>
+    <t>낙원테산도성수</t>
+  </si>
+  <si>
+    <t>시몬스 하드웨어 스토어</t>
+  </si>
+  <si>
+    <t>성수동 어반소스</t>
+  </si>
+  <si>
+    <t>성수빈티지</t>
+  </si>
+  <si>
+    <t>Cheongdam-dong</t>
+  </si>
+  <si>
+    <t>청담동 Cheongdam dong</t>
+  </si>
+  <si>
+    <t>현대백화점</t>
+  </si>
+  <si>
+    <t>하루나</t>
+  </si>
+  <si>
+    <t>커피사피엔스 성수점</t>
+  </si>
+  <si>
+    <t>소바식당</t>
+  </si>
+  <si>
+    <t>우동가조쿠</t>
+  </si>
+  <si>
+    <t>성수다락</t>
+  </si>
+  <si>
+    <t>바스버거 성수점</t>
+  </si>
+  <si>
+    <t>cumulus</t>
+  </si>
+  <si>
+    <t>Affiel Tower</t>
+  </si>
+  <si>
+    <t>성수연방</t>
+  </si>
+  <si>
+    <t>성수동 우디집</t>
+  </si>
+  <si>
+    <t>Immute</t>
+  </si>
+  <si>
+    <t>뚝섬 어딘가</t>
+  </si>
+  <si>
+    <t>성수</t>
+  </si>
+  <si>
+    <t>오키로북스 파크</t>
+  </si>
+  <si>
+    <t>마를리</t>
+  </si>
+  <si>
+    <t>여음</t>
+  </si>
+  <si>
+    <t>헤이보울 hey.bowl</t>
+  </si>
+  <si>
+    <t>카멜 커피</t>
+  </si>
+  <si>
+    <t>구욱희씨</t>
+  </si>
+  <si>
+    <t>성수명당</t>
+  </si>
+  <si>
+    <t>제스티살룬 Zesty Saloon</t>
+  </si>
+  <si>
+    <t>Cafe Onion</t>
+  </si>
+  <si>
+    <t>센터커피 - Center Coffee</t>
+  </si>
+  <si>
+    <t>Fe26.seoul</t>
+  </si>
+  <si>
+    <t>카페.오롯 Cafe.orot</t>
+  </si>
+  <si>
+    <t>옹근달</t>
+  </si>
+  <si>
+    <t>토우드 갤러리</t>
+  </si>
+  <si>
+    <t>펍포레스트</t>
+  </si>
+  <si>
+    <t>스케줄청담</t>
+  </si>
+  <si>
+    <t>Contempo</t>
+  </si>
+  <si>
+    <t>린다비스타</t>
+  </si>
+  <si>
+    <t>캘리소프트서브 서울숲점</t>
+  </si>
+  <si>
+    <t>오브코하우스</t>
+  </si>
+  <si>
+    <t>온화 성수점</t>
+  </si>
+  <si>
+    <t>인리치아이래쉬</t>
+  </si>
+  <si>
+    <t>빅토리아 베이커리</t>
+  </si>
+  <si>
+    <t>MOG</t>
+  </si>
+  <si>
+    <t>5to7</t>
+  </si>
+  <si>
+    <t>거의끝집</t>
+  </si>
+  <si>
+    <t>성수동어느건물</t>
+  </si>
+  <si>
+    <t>Balance 발렁스</t>
+  </si>
+  <si>
+    <t>핑거팁스</t>
+  </si>
+  <si>
+    <t>SCENE SEOUL</t>
+  </si>
+  <si>
+    <t>세라성수점</t>
+  </si>
+  <si>
+    <t>orer 오르에르</t>
+  </si>
+  <si>
+    <t>마켓온오프</t>
+  </si>
+  <si>
+    <t>건대입구역</t>
+  </si>
+  <si>
+    <t>보이어 - boyer</t>
+  </si>
+  <si>
+    <t>온량</t>
+  </si>
+  <si>
+    <t>메가박스 성수</t>
+  </si>
+  <si>
+    <t>B101workroom</t>
+  </si>
+  <si>
+    <t>성수역 어딘가</t>
+  </si>
+  <si>
+    <t>망원동티라미수 연남동점</t>
+  </si>
+  <si>
+    <t>성수미술관</t>
+  </si>
+  <si>
+    <t>윤경 倫敬 성수동</t>
+  </si>
+  <si>
+    <t>Kuna</t>
+  </si>
+  <si>
+    <t>오브젝트 성수점</t>
+  </si>
+  <si>
+    <t>오늘와인한잔</t>
+  </si>
+  <si>
+    <t>공간 와디즈</t>
+  </si>
+  <si>
+    <t>Bimbom</t>
+  </si>
+  <si>
+    <t>명동</t>
+  </si>
+  <si>
+    <t>서울숲</t>
+  </si>
+  <si>
+    <t>['#니콘', '#nikonZ50', '#daily_nikon']</t>
+  </si>
+  <si>
+    <t>['#서울숲오후', '#스테키동', '#서울숲', '#서울숲맛집', '#서울숲카페', '#서울숲핫플', '#성수동', '#성수동맛집', '#성수맛집', '#성수카페', '#성수핫플', '#블루보틀성수', '#갤러리아포레맛집', '#갤러리아포레', '#뚝섬맛집', '#뚝섬핫플', '#뚝섬카페']</t>
+  </si>
+  <si>
+    <t>['#시몬스', '#시몬스침대', '#시몬스테라스', '#시몬스하드웨어스토어', '#simmonshardwarestore']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['#bbhay', '#비비해이-@j__w.n']</t>
+  </si>
+  <si>
+    <t>['#냐냐_냠냠', '#냐냐_다이어트⠀200523', '#스무디볼']</t>
+  </si>
+  <si>
+    <t>['#목요팅', '#목요일', '#출근중', '#연무장', '#성수핫플', '#성수동핫플', '#루프탑카페', '#날씨좋아', '#여름날씨', '#반팔', '#반바지', '#츄리닝', '#출근룩', '#강남역', '#건대입구', '#서울숲', '#한남동', '#주말뭐하지', '#seoul', '#나들이', '#일개미', '#소통스타그램', '#댓글소통']</t>
+  </si>
+  <si>
+    <t>['#서울무채색카페', '#무채색카페', '#색감카페', '#흑백카페', '#성수카페', '#성수동카페', '#성수핫플', '#성수데이트', '#성수동핫플', '#성수동데이트']</t>
+  </si>
+  <si>
+    <t>['#index', '#indexcaramel', '#수제카라멜', '#생카라멜', '#화요일', '#칼퇴성공']</t>
+  </si>
+  <si>
+    <t>['#백수라이프', '#공방데이트']</t>
+  </si>
+  <si>
+    <t>['#일상을여행처럼린다G', '#바이산..', '#성수핫플', '#놀면뭐하니', '#서울여행지', '#바이산대림창고', '#놀면뭐하니촬영장소', '#성수카페']</t>
+  </si>
+  <si>
+    <t>['#브릭캠퍼스', '#브캉스', '#성수핫플', '#서울숲전시']</t>
+  </si>
+  <si>
+    <t>['#아모레성수', '#헤라', '#쿠션추천', '#AMOREseongsu', '#HERA', '#recommendcushion']</t>
+  </si>
+  <si>
+    <t>['#키메네상점']</t>
+  </si>
+  <si>
+    <t>['#청주한씨', '#알콜소비촉진위원회', '#닭은치킨이지', '#양념반후라이드반', '#그래도여름엔', '#치킨대신', '#성수동청주한씨', '#한식오마카세', '#성수맛집', '#성수술집', '#성수핫플', '#한경희셰프', '#한식주점', '#여름보양식', '#트러플리조또']</t>
+  </si>
+  <si>
+    <t>['#Doros', '#도로스', '#ssfashion', '#ootd', '#daily', '#instalike', '#selfie', '#fashion', '#bag', '#summerbag', '#followforfollowback', '#model', '#👜', '#studio', '#맞팔', '#좋반', '#여름신상', '#신상가방', '#여름패션', '#20대쇼핑몰', '#30대쇼핑몰', '#데일리룩', '#데일리코디', '#성수동카페', '#바캉스룩', '#젤리슈즈', '#여름신발', '#토트백', '#성수핫플', '#신상업뎃']</t>
+  </si>
+  <si>
+    <t>['#Doros', '#도로스', '#ssfashion', '#ootd', '#daily', '#instalike', '#selfie', '#fashion', '#bag', '#summerbag', '#followforfollowback', '#model', '#👜', '#studio', '#맞팔', '#좋반', '#여름신상', '#신상가방', '#여름패션', '#20대쇼핑몰', '#30대쇼핑몰', '#데일리룩', '#데일리코디', '#성수동카페', '#바캉스룩', '#젤리슈즈', '#여름신발', '#토트백', '#성수핫플', '#여름가방']</t>
+  </si>
+  <si>
+    <t>['#Doros', '#도로스', '#ssfashion', '#ootd', '#daily', '#instalike', '#selfie', '#fashion', '#bag', '#summerbag', '#followforfollowback', '#model', '#👜', '#studio', '#맞팔', '#좋반', '#여름신상', '#신상가방', '#여름패션', '#20대쇼핑몰', '#30대쇼핑몰', '#데일리룩', '#데일리코디', '#성수동카페', '#바캉스룩', '#젤리슈즈', '#여름신발', '#토트백', '#성수핫플', '#마크라메가방']</t>
+  </si>
+  <si>
+    <t>['#Doros', '#도로스', '#macrame', '#ootd', '#daily', '#instalike', '#selfie', '#fashion', '#bag', '#summerbag', '#followforfollowback', '#model', '#👜', '#studio', '#맞팔', '#좋반', '#여름신상', '#신상가방', '#여름패션', '#20대가방', '#30대가방', '#데일리룩', '#데일리코디', '#성수동카페', '#여행가방', '#젤리슈즈', '#여름신발', '#토트백', '#성수핫플', '#마크라메가방']</t>
+  </si>
+  <si>
+    <t>['#Doros', '#도로스', '#macrame', '#ootd', '#daily', '#instalike', '#selfie', '#fashion', '#bag', '#summerbag', '#followforfollowback', '#model', '#👜', '#studio', '#맞팔', '#좋반', '#여름신상', '#신상가방', '#여름패션', '#20대가방', '#30대가방', '#데일리룩', '#데일리코디', '#성수동카페', '#촬영', '#젤리슈즈', '#여름신발', '#토트백', '#성수핫플', '#마크라메가방']</t>
+  </si>
+  <si>
+    <t>['#옹근달', '#성수핫플', '#카페', '#디저트', '#커피', '#일상', '#소통', '#여행', '#먹스타그램', '#핫플', '#커피스타그램', '#요리', '#서울', '#홍대', '#건대', '#이태원', '#가로수길', '#성수', '#합정', '#을지로', '#food', '#selfie', '#fashion', '#fff']</t>
+  </si>
+  <si>
+    <t>['#뚝섬미술관', '#파랑새']</t>
+  </si>
+  <si>
+    <t>['#rawcoffeestand', '#로우커피스탠드@아이스아메리카노⠀골목골목.']</t>
+  </si>
+  <si>
+    <t>['#수제돈카츠', '#오레노카츠']</t>
+  </si>
+  <si>
+    <t>['#ig_korea', '#seoultravel', '#iseoulu', '#dametraveler', '#darlingescape', '#momentsofmine', '#picnictime', '#travelbloggerkorea', '#seoulforestpark', '#seoulforest', '#daily', '#성수동', '#성수핫플', '#서울숲', '#서울숲나들이', '#서울숲피크닉', '#시나의두시', '#피크닉도시락', '#좋반', '#좋아요', '#소통', '#일상']</t>
+  </si>
+  <si>
+    <t>['#morelloartstudio']</t>
+  </si>
+  <si>
+    <t>['#다꾸', '#문구', '#오브젝트', '#오브젝트성수점']</t>
+  </si>
+  <si>
+    <t>['#모모아일상⠀온통']</t>
+  </si>
+  <si>
+    <t>['#힌스', '#힌스아뜰리에', '#성수핫플', '#뚝섬역', '#코덕환영', '#코스메틱', '#코덕', '#코덕맞팔', '#코덕스타그램', '#핑크스타그램', '#뷰티블로거', '#코덕그램', '#여름메이크업', '#내돈내산', '#립스틱덕후', '#hince', '#hincelipstick', '#hinceatelier', '#ヒンス', '#abbeatthealgorithm', '#magicalgirlguidetoseoul', '#koreanmakeup', '#abcommunity', '#asianbeautyblogger', '#rasianbeauty', '#mabubsonyeoreview', '#seoulshopping', '#seoulstagram', '#kbeautyshopping', '#summermakeup']</t>
+  </si>
+  <si>
+    <t>['#여친스타그램', '#깔스타그램', '#커플스타그램', '#성수동', '#성수핫플', '#성수맛집', '#나누리잡화점']</t>
+  </si>
+  <si>
+    <t>['#더숨뷰티', '#스킨플래닝', '#더마플래닝', '#피부스케일링', '#스킨케어', '#각질케어', '#각질제거', '#피지제거', '#동안피부', '#노화방지', '#피부미인', '#피부관리', '#MTS', '#물광피부', '#탱클탱글', '#깐달걀피부', '#skinplaning', '#썬크림', '#재생크림', '#알로에수딩', '#후관리중요', '#솜털제거', '#잔털제거', '#피부톤업', '#애기피부', '#반영구', '#눈썹문신', '#성수핫플']</t>
+  </si>
+  <si>
+    <t>['#아모레성수', '#성수동', '#amoreseongsu', '#selfies', '#sel', '#planterior', '#운동하는여자', '#헬스하는여자', '#연우어디가', '#주말일상', '#액자식정원', '#성수데이트', '#성수', '#성수핫플']</t>
+  </si>
+  <si>
+    <t>['#성수동속눈썹', '#뚝섬속눈썹연장', '#서울숲', '#성수동카페', '#속눈썹연장', '#속눈썹펌', '#뷰러펌', '#강남속눈썹연장', '#왕십리반영구', '#뚝섬역', '#성수핫플', '#성수동눈썹문신', '#반영구눈썹', '#성수동미용실', '#성수동맛집', '#왕십리속눈썹', '#한양대', '#메이크업', '#반영구화장', '#타투']</t>
+  </si>
+  <si>
+    <t>['#성수동핫플투어..여긴', '#성수ader', '#adererror', '#ader', '#성수핫플', '#누가만들었는지감탄', '#패션', '#오오티디', '#데일리룩', '#검검패션', '#더워', '#데일리룩코디', '#검청패션', '#일상', '#좋아요', '#세틴팬츠', '#세틴좋아', '#하늘짱이쁨', '#아더에러', '#아더에러성수', '#아더에러쇼룸']</t>
+  </si>
+  <si>
+    <t>['#오키로북스', '#오키로북스파크']</t>
+  </si>
+  <si>
+    <t>['#우디집', '#성수핫플', '#성수동가볼만힌곳', '#성수동카페', '#갬성카페']</t>
+  </si>
+  <si>
+    <t>['#카페간다예', '#벤허커피', '#BNHR⠀한남동에', '#성수', '#데이트', '#성공적']</t>
+  </si>
+  <si>
+    <t>['#성수', '#성수핫플', '#카페', '#맛집', '#어반소스', '#나도이제인싸😎', '#ㅋㅋㅋㅋㅋㅋㅋㅋ', '#여긴뭔데', '#컵도이뻐', '#크크', '#결혼축하해요🎉', '#내가제일축하해❤️', '#집들이는', '#언제쯤', '#❔', '#일상', '#daily']</t>
+  </si>
+  <si>
+    <t>['#일상을여행처럼예능', '#성수핫플', '#놀면뭐하니', '#서울여행지', '#할아버지공장', '#놀면뭐하니촬영장소', '#성수카페']</t>
+  </si>
+  <si>
+    <t>['#로스트성수', '#로스트인내추럴', '#톰리', '#톰리_성수']</t>
+  </si>
+  <si>
+    <t>['#성수동', '#어니언⭐️3.5/5빵천국❣️']</t>
+  </si>
+  <si>
+    <t>['#성수동', '#라무진.라무진이야', '#양갈비', '#성수카페거리', '#라무진성수점', '#프렌치렉', '#마늘밥', '#라무진성수✔️', '#성수동맛집', '#성수양갈비', '#성수양고기', '#징기스칸', '#성수양꼬치', '#성수동술집', '#성수역술집', '#성수역맛집', '#양갈비맛집', '#양고기맛집', '#성수생맥주', '#삿뽀로', '#성수카페거리맛집', '#데이트추천', '#데이트장소', '#성수데이트', '#소개팅장소', '#성수소개팅', '#분위기맛집', '#성수핫플', '#소통', '#찐성수']</t>
+  </si>
+  <si>
+    <t>['#뚝섬미술관']</t>
+  </si>
+  <si>
+    <t>['#냉모밀세트', '#성수동하루나', '#성수동맛집하루나', '#모밀맛집', '#소바맛집', '#돈까스맛집', '#맛스타그램', '#성수핫플']</t>
+  </si>
+  <si>
+    <t>['#bbhay', '#비비해이-내일과']</t>
+  </si>
+  <si>
+    <t>['#인정소비', '#소비일상', '#폴라앳홈', '#polarathome', '#구매후기', '#내돈내산', '#맞팔선팔환영', '#좋아요반사', '#맞팔환영', '#블로그', '#솔직후기', '#성수핫플', '#성수핫플레이스']</t>
+  </si>
+  <si>
+    <t>['#웨이팅맛집', '#성수맛집', '#소바식당', '#소바식당성수점', '#성게알덮밥', '#게딱지장덮밥', '#단새우냉소바', '#전복냉소바', '#성수', '#성수동', '#성수맛집', '#성수소바맛집', '#성수핫플', '#서울숲맛집', '#성수동맛집', '#성수역', '#먹스타그램', '#맛스타그램', '#맛집스타그램', '#소바', '#메밀소바', '#모밀소바', '#전복소바', '#새우소바', '#게딱지볶음밥', '#게딱지밥', '#게딱지장', '#게딱지비빔밥', '#서울숲', '#서울숲맛집추천', '#성수맛집추천']</t>
+  </si>
+  <si>
+    <t>['#키치룩']</t>
+  </si>
+  <si>
+    <t>['#20200703', '#FRI.오랜만에']</t>
+  </si>
+  <si>
+    <t>['#성수핫플', '#성수다락', '#할아버지공장', '#인스타갬성', '#보조개', '#아파', '#너무', '#많이', '#웃어서', '#ㅎㅎㅎ']</t>
+  </si>
+  <si>
+    <t>['#우동가조쿠', '#성수점날', '#붓가케우동', '#냉우동)', '#가조쿠우동', '#타마고우동', '#가성비맛집', '#새우튀김', '#유부초밥', '#정파리픽']</t>
+  </si>
+  <si>
+    <t>['#favorseoul']</t>
+  </si>
+  <si>
+    <t>['#성수동맛집', '#성수핫플', '#성수다락', '#먹스타그램', '#맛스타그램', '#주말점심', '#미쳤니', '#다이어트는내일부터']</t>
+  </si>
+  <si>
+    <t>['#탐욕버거', '#와사비쉬림프버거']</t>
+  </si>
+  <si>
+    <t>['#서울숲맛집', '#파르코', '#다헤맛집브레이킹타임']</t>
+  </si>
+  <si>
+    <t>['#주말정리찾아와', '#발밍아웃', '#무지외반증', '#퇴근길']</t>
+  </si>
+  <si>
+    <t>['#헤어모델']</t>
+  </si>
+  <si>
+    <t>['#옴브레']</t>
+  </si>
+  <si>
+    <t>['#성수연방']</t>
+  </si>
+  <si>
+    <t>['#성수핫플', '#성수scene', '#성수동카페', '#맞팔', '#맞팔해요', '#소통해요']</t>
+  </si>
+  <si>
+    <t>['#노랑노랑']</t>
+  </si>
+  <si>
+    <t>['#틱톡입문', '#틱톡병아리', '#틱린이', '#취미생김', '#성수동', '#성수', '#성수핫플', '#할아버지공장', '#할방공', '#틱톡뜨자', '#데일리', '#오오티디', '#오오티디룩', '#tiktok', '#tiktokdance', '#tiktokchallenge', '#ootd', '#ootdlook', '#daily', '#ffff', '#f4f', '#맞팔', '#선팔', '#인친', '#좋아요', '#like4like']</t>
+  </si>
+  <si>
+    <t>['#뚝섬미술관', '#파랑새전시회']</t>
+  </si>
+  <si>
+    <t>['#sona_seoul']</t>
+  </si>
+  <si>
+    <t>['#마를리..🌝🌝🌝🌝(4/5)매일']</t>
+  </si>
+  <si>
+    <t>['#성수동', '#여음⠀-', '#명란크림파스타', '#깍두기대창필라프', '#가츠산도', '#성수', '#성수맛집', '#성수동맛집', '#성수동카페', '#성수핫플', '#성수데이트', '#뚝섬맛집', '#서울숲', '#서울숲맛집', '#서울숲파스타', '#서울숲데이트', '#파스타맛집', '#성수동파스타', '#성수동핫플', '#맛집추천', '#먹스타그램', '#맛집스타그램', '#먹스타맞팔', '#좋아요', '#소통']</t>
+  </si>
+  <si>
+    <t>['#일상을여행처럼우연히', '#서울나들이', '#성수핫플', '#골목길']</t>
+  </si>
+  <si>
+    <t>['#푸딘코', '#헤이보울', '#성수핫플', '#집에서도_만들어봐야지', '#다이어트식단', '#옴뇸뇸']</t>
+  </si>
+  <si>
+    <t>['#하쉬그린', '#아이디어개러지', '#아이디어개러지', '#블루보틀성수']</t>
+  </si>
+  <si>
+    <t>['#성수카페', '#구욱희씨', '#가오픈']</t>
+  </si>
+  <si>
+    <t>['#성수', '#성수동', '#성수핫플', '#성스러운', '#멋진남자', '#운동하는남자', '#핏줄', '#selfie', '#selca', '#daily', '#likeforfollow', '#like4likes', '#follow', '#followers', '#follow4followback', '#photography', '#photo', '#instagram', '#instagood', '#instadaily', '#daily', '#fff', '#lfl', '#좋반', '#좋아요', '#좋아요반사', '#맞팔', '#선팔하면맞팔', '#팔로미', '#팔로우']</t>
+  </si>
+  <si>
+    <t>['#셔링탑', '#스키니진👖너무', '#일상', '#기록', '#어니언', '#어니언카페', '#onioncafe', '#성수카페', '#성수핫플', '#ootd', '#skinnyjeans', '#오오티디', '#데일리룩', '#스트릿룩', '#흰티에청바지', '#청바지핏', '#몸매스타그램', '#전신샷', '#립합', '#히프나틱']</t>
+  </si>
+  <si>
+    <t>['#decaf', '#디카페인', '#일상', '#기록', '#어니언', '#어니언카페', '#onioncafe', '#성수카페', '#성수핫플', '#ootd', '#오오티디', '#데일리룩', '#스트릿룩', '#흰티에청바지', '#스키니진', '#청바지핏']</t>
+  </si>
+  <si>
+    <t>['#성수카페', '#성수핫플', '#서울숲카페', '#서울숲', '#센터커피', '#아꼬떼뒤파르크']</t>
+  </si>
+  <si>
+    <t>['#브릭캠퍼스', '#브캉스', '#여름전시', '#성수핫플', '#서울숲전시']</t>
+  </si>
+  <si>
+    <t>['#아르코']</t>
+  </si>
+  <si>
+    <t>['#압구정곱창', '#성수', '#압구정', '#압구정로데오', '#압구정맛집', '#성수', '#성수핫플', '#데어바타테', '#전시회']</t>
+  </si>
+  <si>
+    <t>['#주말힐링', '#성수핫플', '#성수미술관', '#언니랑', '#취미생활', '#그래픽디자인', '#이랑', '#달라', '#재밌었다', '#직딩일상', '#기분전환', '#성수역', '#데이트', '#24', '#25']</t>
+  </si>
+  <si>
+    <t>['#성수빈티지']</t>
+  </si>
+  <si>
+    <t>['#bbhay', '#비비해이-@sshani_d']</t>
+  </si>
+  <si>
+    <t>['#성수카페', '#성수연방', '#성수동카페', '#성수동', '#성수', '#성수핫플', '#성수핫플레이스', '#촬영데이트', '#소확행', '#웜톤', '#안경', '#안경페션', '#안경스타그램', '#glowing', '#glassesfashion', '#glassesgirl', '#glasses', '#brickwall', '#bobhaircut', '#inmyfeels', '#inmyhappyplace', '#seongsu']</t>
+  </si>
+  <si>
+    <t>['#성수핫플', '#fe26', '#우리셋', '#모두', '#만족', '#주말', '#힐링', '#만남', '#쇼핑']</t>
+  </si>
+  <si>
+    <t>['#카페오롯', '#뚝섬핫플', '#성수카페', '#성수핫플']</t>
+  </si>
+  <si>
+    <t>['#일상', '#데일리', '#악세사리', '#핸드백', '#디자인', '#디자이너', '#주말', '#저녁', '#모임', '#와인', '#오랜만에', '#성수동', '#맛집', '#핫플', '#재즈공연', '#라이브공연', '#감성', '#공감', '#공간', '#좋아요', '#제주도', '#떠나요', '#성수모임', '#성수핫플', '#성수맛집']</t>
+  </si>
+  <si>
+    <t>['#𝙘𝙖𝙛𝙚', '#𝙧𝙚𝙫𝙞𝙚𝙬⠀여기는', '#할아버지공장']</t>
+  </si>
+  <si>
+    <t>['#성수동', '#옹근달⭐️3/5', '#성수역']</t>
+  </si>
+  <si>
+    <t>['#청주한씨', '#정상적인멘션왜죠', '#이거슨광고용', '#콘텐츠', '#정상인코스프레중', '#바앤다이닝', '#만세🙆\u200d♀️', '#정기구독갑시다', '#성수동청주한씨', '#한식오마카세', '#한식주점', '#한경희셰프', '#성수맛집', '#성수술집', '#성수핫플', '#되고싶어라🙏', '#매니저님미남설', '#쏘스윗🥰', '#셰프님🐷']</t>
+  </si>
+  <si>
+    <t>['#일상을여행처럼성수동', '#서울나들이', '#성수핫플', '#골목풍경']</t>
+  </si>
+  <si>
+    <t>['#토우드편집샵', '#연무장카페', '#연무장길', '#성수편집샵', '#연무장굿즈', '#쏘비트타워', '#성수핫플', '#성수카페', '#TOWED']</t>
+  </si>
+  <si>
+    <t>['#성수동', '#성수동술집', '#성수술집', '#펍포레스트', '#성수동바', '#성수동위스키', '#성수동칵테일', '#성수동카페거리', '#성수동핫플', '#성수동핫플레이스', '#성수동데이트', '#성수동맛집추천', '#성수동회식', '#인스타맛집그램', '#인스타술집그램', '#성수동맛집', '#성수맛집', '#성수동핫플레이스', '#성수동데이트', '#성수동핫플', '#성수핫플', '#성수술집', '#성수핫플레이스', '#성수동맛집추천', '#pubforest']</t>
+  </si>
+  <si>
+    <t>['#아르코', '#arco']</t>
+  </si>
+  <si>
+    <t>['#브릭캠퍼스', '#브캉스', '#성수핫플']</t>
+  </si>
+  <si>
+    <t>['#압구정카페', '#압구정맛집', '#건대맛집', '#건대카페', '#성수맛집', '#성수카페', '#뚝섬', '#한강공원', '#성신여대맛집', '#성신여대', '#서울맛집', '#서울카페', '#서울숲', '#서울숲카페', '#신사동맛집', '#신사역', '#압구정로데오', '#서울핫플', '#송파', '#강남', '#강남역', '#강남헤어모델', '#서울헤어모델', '#강남핫플', '#성수핫플', '#연남동핫플']</t>
+  </si>
+  <si>
+    <t>['#LindaLatte']</t>
+  </si>
+  <si>
+    <t>['#우디집..', '#기록', '#일상', '#운동하는여자']</t>
+  </si>
+  <si>
+    <t>['#성수명당', '#성수동맛집', '#성수핫플', '#고등어초밥', '#찐맛탱', '#꼭먹어야해', '#비싼건함정', '#송별회', '#은영이잘가', '#이쁜애옆에이쁜애', '#귀요미들', '#먹스타그램', '#휴무']</t>
+  </si>
+  <si>
+    <t>['#스트릿캐주얼', '#트렌디베이직']</t>
+  </si>
+  <si>
+    <t>['#우니', '#우니참치김밥', '#파스타', '#스테이크', '#성수명당', '#하이앤드소주바', '#성수맛집', '#성수핫플', '#성수역', '#성수동핫플레이스', '#성수']</t>
+  </si>
+  <si>
+    <t>['#메리클로젯', '#가방맛집', '#두블레', '#프라다두블레', '#가방', '#20대코디', '#30대코디', '#데일리', '#일상', '#육아스타그램', '#좋반', '#좋아요반사', '#데일리코디', '#코디스타그램']</t>
+  </si>
+  <si>
+    <t>['#금요일데이트', '#옹근달', '#케익맛집', '#커피맛집', '#성수핫플']</t>
+  </si>
+  <si>
+    <t>['#온화', '#온화카페', '#성수온화', '#성수카페', '#성수동카페', '#성수동카페', '#성수핫플', '#성수동맛집', '#드립커피', '#커피맛집', '#성수존맛', '#성수jmt', '#맞팔', '#선팔', '#카페스타그램']</t>
+  </si>
+  <si>
+    <t>['#리치브로우펌', '#브로우펌', '#속눈썹펌반영구❌눈썹문신❌', '#브로우리프트', '#리치브로우', '#속눈썹펌', '#리치래쉬펌동시', '#리치브로우세럼선물로드려요🛍💛⠀예약은여유있게']</t>
+  </si>
+  <si>
+    <t>['#어반소스', '#브런치카페', '#성수동맛집', '#성수카페', '#서울숲카페', '#성수핫플', '#루프탑', '#사진맛집', '#엄청크다', '#카페스타그램', '#사진백만장찍음', '#맛도굿', '#맛스타그램', '#먹스타그램', '#셀스타그램', '#간만에뭉침', '#오랜만에오니좋네', '#감성사진', '#금요일', '#일상', '#데일리', '#cafe', '#brunch', '#instadaily', '#instapic', '#dailylook', '#instafood', '#좋아요']</t>
+  </si>
+  <si>
+    <t>['#케이크', '#디저트', '#당충전', '#빵순이', '#맛집', '#핫플', '#빅토리아베이커리', '#victoriabakery', '#성수동', '#성수핫플', '#traffic', '#friday', '#불금']</t>
+  </si>
+  <si>
+    <t>['#하몽', '#화이트와인', '#라혜_성수', '#라혜_뚝섬', '#성수핫플', '#성수', '#성수동핫플레이스', '#성수동맛집', '#성수동와인', '#하몽플레이트', '#하우스와인']</t>
+  </si>
+  <si>
+    <t>['#셀기꾼', '#햇볕에타들어간다', '#잭과콩나물', '#하갠쑤데이트', '#주말스타그램']</t>
+  </si>
+  <si>
+    <t>['#infj........', '#성수카페', '#서울숲카페', '#루프탑카페', '#루프탑인테리어', '#날씨미침', '#카페스타그램', '#혼자놀기달인', '#혼자놀기', '#성수핫플', '#서울카페추천', '#옥상꾸미기', '#우리집옥상', '#도전', '#일상', '#놀러간기분', '#주말그램', '#출근안하는날', '#쉬는날', '#좋아요', '#카페탐방', '#카페투어', '#소통']</t>
+  </si>
+  <si>
+    <t>['#일상을여행처럼요즘', '#성수다락', '#카츠산도..', '#성수핫플', '#성수동맛집', '#서울여행지', '#서울맛집탐방']</t>
+  </si>
+  <si>
+    <t>['#LindaCacao']</t>
+  </si>
+  <si>
+    <t>['#사진맛집', '#성수핫플', '#cafelot102']</t>
+  </si>
+  <si>
+    <t>['#성수동', '#거의끝집.이름', '#직화돼지찌개', '#술술술', '#골뱅이무침', '#베이컨콘치즈', '#먹태', '#슬러시소주', '#성수거의끝집✔️', '#성수술집', '#성수동술집', '#성수역술집', '#성수찌개', '#돼지찌개맛집', '#성수돼지', '#성수동맛집', '#성수골뱅', '#콘치즈', '#jmt', '#찌개맛집', '#술안주추천', '#분위기술집', '#성수분위기좋은곳', '#성수핫플', '#인싸', '#소통', '#술스타그램', '#찐성수']</t>
+  </si>
+  <si>
+    <t>['#아모레성수', '#가든라운지', '#휴식공간', '#theserif', '#더세리프']</t>
+  </si>
+  <si>
+    <t>['#성수편집샵', '#소영씨스토어', '#성수핫플💚사회적']</t>
+  </si>
+  <si>
+    <t>['#Repost', '#마크곤잘레스', '#엔젤', '#인생샷', '#마크곤잘레스', '#뮤럴라이프', '#Repost', '#무신사', '#MUSINSA', '#마크곤잘레스', '#성수동', '#성수핫플', '#성수맛집', '#대신상사', '#뮤럴라이프', '#인증샷', '#인생샷']</t>
+  </si>
+  <si>
+    <t>['#더숨뷰티', '#스킨플래닝', '#더마플래닝', '#피부스케일링', '#스킨케어', '#각질케어', '#각질제거', '#피지제거', '#동안피부', '#노화방지', '#피부미인', '#피부관리', '#MTS', '#물광피부', '#탱클탱글', '#깐달걀피부', '#skinplaning', '#썬크림', '#재생크림', '#알로에수딩', '#후관리중요', '#솜털제거', '#잔털제거', '#피부톤업', '#애기피부', '#반영구', '#눈썹문신', '#성수핫플', '#소통', '#맞팔']</t>
+  </si>
+  <si>
+    <t>['#발렁스', '#성수카페', '#에일린_카페투어', '#balance발렁스', '#coffeetime']</t>
+  </si>
+  <si>
+    <t>['#일상', '#서울', '#성수', '#서울숲', '#성수여음', '#여음', '#파스타', '#리조또', '#성동구', '#퓨전아시아키친', '#성수맛집', '#핫플', '#성수핫플', '#서울숲여음', '#친구랑데이트', '#대학생', '#휴학생', '#서울맛집', '#뚝섬역', '#성수역']</t>
+  </si>
+  <si>
+    <t>['#일상', '#서울', '#성수', '#성동구', '#성수핑거팁스', '#핑거팁스버거', '#배고파', '#햄버거', '#수제햄버거', '#핑거팁스', '#서울수제버거', '#수제버거집', '#친구들이랑데이트', '#맛집', '#성수핫플', '#음식', '#성수연방', '#fingertipsburger', '#서점']</t>
+  </si>
+  <si>
+    <t>['#성수카페', '#오늘도', '#쎈느', '#성수핫플', '#인스타그래머블', '#젊은이들이많은', '#사진찍는', '#핫플레이스', '#장마라면서요', '#sceneseoul', '#coffee']</t>
+  </si>
+  <si>
+    <t>['#성수동핫플레이스', '#arco-', '#성수', '#파파자켓', '#성수카페', '#성수동카페', '#아르코', '#쎈느', '#쎈느카페', '#성수핫플', '#서울핫플', '#seoul', '#seúl', '#카페투어', '#카페추천', '#성수브런치', '#브런치카페', '#아인슈페너', '#브런치', '#여름코디', '#여름옷']</t>
+  </si>
+  <si>
+    <t>['#韓国カフェ', '#韓国カフェ巡り', '#ソウルカフェ', '#韓国留学', '#韓国移住', '#日韓カップル', '#Cafe', '#韓国好きな人と繋がりたい', '#韓国好きな人と仲良くなりたい', '#韓国生活', '#聖水', '#聖水カフェ', '#일본', '#인친환영', '#소통', '#나고야', '#일상스타그램', '#여행스타그램', '#카페스타그램', '#데일리', '#먹스타그램', '#일상', '#한일커플', '#카페투어', '#성수핫플', '#성수동카페', '#기념일']</t>
+  </si>
+  <si>
+    <t>['#성수역', '#성수핫플레이스', '#성수핫플', '#여성샌들', '#세라샌들', '#세라구두👠', '#성수동', '#세라핸드백', '#성수동수제화', '#성수역3번출구', '#성수동카페거리', '#구두맛집', '#세라', '#네츄럴플렉스']</t>
+  </si>
+  <si>
+    <t>['#오르에르', '#성수동카페', '#성수핫플', '#성수역카페', '#orer', '#성수카페추천']</t>
+  </si>
+  <si>
+    <t>['#디앙채']</t>
+  </si>
+  <si>
+    <t>['#더숨뷰티', '#반영구추천샵', '#눈썹맛집', '#성수맛집', '#자연눈썹', '#엠보눈썹', '#콤보눈썹', '#아이라인문신', '#아이라인반영구', '#헤어라인문신', '#헤어라인반영구', '#눈썹문신', '#눈썹반영구', '#눈썹문신잘하는샵', '#성수눈썹문신', '#성수반영구', '#건대눈썹문신', '#건대반영구', '#잠실눈썹문신', '#잠실반영구', '#왕십리눈썹문신', '#왕십리반영구', '#뷰스타그램', '#반영구화장', '#성수핫플', '#젊줌마', '#육아', '#직장맘', '#일상', '#맞팔']</t>
+  </si>
+  <si>
+    <t>['#눈물셀카', '#새드스마일', '#새드스마일기프트샵', '#커스텀멜로우', '#나는가끔눈물을흘린다', '#성수동', '#성수핫플', '#아레나코리아', '#ARENAKOREA', '#regrann']</t>
+  </si>
+  <si>
+    <t>['#성수핫플', '#카페', '#얼스타', '#셀스타']</t>
+  </si>
+  <si>
+    <t>['#더숨뷰티', '#스킨플래닝', '#더마플래닝', '#피부스케일링', '#스킨케어', '#각질케어', '#각질제거', '#피지제거', '#동안피부', '#노화방지', '#피부미인', '#피부관리', '#MTS', '#물광피부', '#탱클탱글', '#깐달걀피부', '#skinplaning', '#썬크림', '#재생크림', '#알로에수딩', '#후관리중요', '#솜털제거', '#잔털제거', '#피부톤업', '#애기피부', '#반영구', '#눈썹문신', '#성수핫플', '#뷰티샵', '#추천샵']</t>
+  </si>
+  <si>
+    <t>['#그리드채플린', '#성수동맛집', '#성수맛집', '#성수동핫플', '#성수핫플', '#성수술집', '#성수동술집', '#성수동회식', '#성수동피자', '#성수데이트', '#성수동데이트', '#서울숲맛집', '#뚝섬맛집', '#ad_']</t>
+  </si>
+  <si>
+    <t>['#로스트성수점심에', '#톰리', '#톰리_성수']</t>
+  </si>
+  <si>
+    <t>['#JamaicaAde']</t>
+  </si>
+  <si>
+    <t>['#성수술집', '#성수카지노펍', '#성수홀덤', '#성수동홀덤', '#건대술집', '#건대홀덤', '#왕십리홀덤', '#한양대홀덤', '#서울숲술집', '#성수핫플', '#슈에뜨카지노펍', '#슈에뜨펍', '#성수동술집', '#성수이색술집', '#성수카페거리', '#성수펍', '#성수역술집']</t>
+  </si>
+  <si>
+    <t>['#먹스타그램', '#맛팔', '#먹팔', '#맛스타그램', '#인친', '#서울맛집', '#오늘뭐먹지', '#음식사진', '#foodstagram', '#좋아요', '#먹방', '#데이트코스', '#존맛탱', '#맛집', '#먹스타맞팔', '#인스타푸드', '#인스타뷰티', '#럽스타그램', '#좋테', '#좋반', '#카페스타그램', '#foodpics', '#쿡스타그램', '#푸드스타그램', '#홈쿡', '#집밥스타그램', '#성수데이트', '#성수맛집', '#성수핫플', '#오징어볶음']</t>
+  </si>
+  <si>
+    <t>['#아모레성수', '#클래스', '#사진기록']</t>
+  </si>
+  <si>
+    <t>['#헤이보울']</t>
+  </si>
+  <si>
+    <t>['#온량-성수점', '#토마토호크포크커틀렛', '#봉골레파스타봉골레에']</t>
+  </si>
+  <si>
+    <t>['#애쉬그레이이제']</t>
+  </si>
+  <si>
+    <t>['#b101workroom', '#포토존']</t>
+  </si>
+  <si>
+    <t>['#designspot', '#desigospot_seoul', '#adererror', '#스페이스2.0', '#디자인스팟', '#디자인스팟_서울', '#아더에러성수', '#플래그십스토어', '#성수핫플', '#editor_sangheeoh']</t>
+  </si>
+  <si>
+    <t>['#보이어', '#성수핫플', '#성수맛집', '#보이어', '#파스타', '#와인맛집']</t>
+  </si>
+  <si>
+    <t>['#repost', '#눈물셀카', '#새드스마일', '#새드스마일기프트샵', '#커스텀멜로우', '#나는가끔눈물을흘린다', '#성수동', '#성수핫플', '#아레나코리아', '#ARENAKOREA']</t>
+  </si>
+  <si>
+    <t>['#블루보틀라떼', '#성수핫플', '#오늘날씨맑음🌞', '#사진찍기좋은곳📷⠀']</t>
+  </si>
+  <si>
+    <t>['#생자몽주스🍊🍎🍑.근데여기', '#성수동수제화거리', '#성수수제화구두', '#수제화구두', '#수제구두', '#여름샌들', '#수제가방', '#가방', '#가죽가방', '#성수동까페', '#성수동맛집', '#성수맛집', '#어반소스', '#루프탑카페', '#정원까페', '#성수핫플', '#아모레성수', '#성수', '#뚝섬맛집', '#서울숲', '#서울숲맛집', '#건대맛집', '#건대', '#건대까페', '#아모레방판언니', '#아모레카운셀러', '#셀카', '#얼스타그램', '#뷰티그램', '#소통맞팔좋아요']</t>
+  </si>
+  <si>
+    <t>['#성수핫플', '#회사앞핫플', '#우동가조쿠성수점', '#냉우동맛집']</t>
+  </si>
+  <si>
+    <t>['#마크곤잘레스', '#마크곤잘레스', '#markgonzales', '#엔젤', '#성수동', '#성수핫플', '#성수맛집', '#뮤럴라이프', '#인증샷', '#인생샷', '#성수추천', '#성수동카페', '#성수동핫플레이스', '#성수핫플', '#성수역', '#소통', '#좋아요']</t>
+  </si>
+  <si>
+    <t>['#눈물셀카', '#새드스마일', '#새드스마일기프트샵', '#커스텀멜로우', '#나는가끔눈물을흘린다', '#성수동', '#성수핫플', '#아레나코리아', '#ARENAKOREA']</t>
+  </si>
+  <si>
+    <t>['#찡얼찡얼', '#우울하다난리', '#bnhr성수']</t>
+  </si>
+  <si>
+    <t>['#bbhay', '#비비해이⠀-@xino._.muk']</t>
+  </si>
+  <si>
+    <t>['#타임랩스', '#실패', '#미술', '#그림', '#painting', '#성수', '#성수핫플', '#동영상', '#브이로그', '#힐링', '#사진', '#photo', '#일상', '#daily', '#취미', '#selfie', '#selca', '#얼스타그램', '#성수동핫플레이스']</t>
+  </si>
+  <si>
+    <t>['#낙원테산도', '#낙원테산도성수']</t>
+  </si>
+  <si>
+    <t>['#kuna', '#성수동']</t>
+  </si>
+  <si>
+    <t>['#지난주말', '#행복했따']</t>
+  </si>
+  <si>
+    <t>['#성수', '#성수동카페', '#우디집', '#완전취저', '#장롱문', '#성수핫플', '#카페투어', '#디저트카페', '#레트로갬성뿜뿜', '#일상', '#소통']</t>
+  </si>
+  <si>
+    <t>['#shotoniphone', '#lightroom']</t>
+  </si>
+  <si>
+    <t>['#가맥집', '#성수동맛집', '#성수핫플', '#들어갔다바로나옴😆']</t>
+  </si>
+  <si>
+    <t>['#아모레성수', '#성수동', '#아모레퍼시픽', '#성수여행', '#성수핫플']</t>
+  </si>
+  <si>
+    <t>['#빙봉', '#서울숲브런치', '#서울숲빙봉', '#서울숲카페', '#서울숲', '#브런치카페', '#뚝섬카페', '#뚝섬맛집', '#데일리', '#일상', '#daily', '#성수동핫플', '#서울숲핫플', '#brunchcafe', '#brunch', '#성수핫플', '#브런치맛집', '#🥗']</t>
+  </si>
+  <si>
+    <t>['#이태리차차화덕으로', '#뚝섬카페', '#뚝섬', '#성수카페', '#성수카페거리', '#뚝섬유원지역카페', '#뚝섬유원지', '#성수동핫플', '#성수핫플', '#뚝섬핫플', '#뚝섬핫플레이스', '#성수맛집', '#뚝섬맛집', '#성수역맛집', '#뚝섬역맛집']</t>
+  </si>
+  <si>
+    <t>['#아모레퍼시픽', '#아모레성수', '#솔까리', '#잠수교', '#성수핫플', '#성수동맛집', '#성수']</t>
+  </si>
+  <si>
+    <t>['#샘플팩토리', '#건강스타그램', '#성수핫플']</t>
+  </si>
+  <si>
+    <t>['#뎨둉해요담엔커피마시구갈게요!🙏🏻']</t>
+  </si>
+  <si>
+    <t>['#명동', '#명동맛집', '#성수동카페', '#성수카페', '#성수핫플', '#서울핫플레이스', '#건대', '#분위기좋은카페', '#카페추천', '#오르에르', '#orer', '#성수동맛집', '#일상', '#소통', '#daily', '#직장스타그램', '#얼스타그램', '#셀피', '#천호', '#강동', '#길동', '#이천']</t>
+  </si>
+  <si>
+    <t>['#헤이보울', '#성수', '#리보추천', '#옐로우보울💛', '#퍼플보울💜', '#그린보울💚옐로우의', '#라즈베리바질❤', '#오거트']</t>
+  </si>
+  <si>
+    <t>['#b101workroom', '#반려견동반가능']</t>
+  </si>
+  <si>
+    <t>['#오늘도성수']</t>
+  </si>
+  <si>
+    <t>['#성수아르코', '#성수핫플', '#파라솔@docent_official_']</t>
+  </si>
+  <si>
+    <t>['#아모레성수', '#신제품', '#코덕환영', '#AMOREseongsu', '#newproduct', '#cosmeticlover']</t>
+  </si>
+  <si>
+    <t>['#성수동맛집', '#언박스키친', '#성수동데이트', '#서울숲데이트', '#성수핫플']</t>
   </si>
 </sst>
 </file>
@@ -437,7 +2657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,16 +2688,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>304</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>329</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>493</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>594</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -488,13 +2708,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+        <v>305</v>
+      </c>
+      <c r="D3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" t="s">
+        <v>494</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -505,13 +2728,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>331</v>
+      </c>
+      <c r="E4" t="s">
+        <v>495</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -522,13 +2748,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>307</v>
+      </c>
+      <c r="D5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E5" t="s">
+        <v>496</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -539,13 +2768,5658 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E6" t="s">
+        <v>497</v>
+      </c>
+      <c r="F6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="D6">
+      <c r="C7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E8" t="s">
+        <v>499</v>
+      </c>
+      <c r="F8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E9" t="s">
+        <v>500</v>
+      </c>
+      <c r="F9" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" t="s">
+        <v>337</v>
+      </c>
+      <c r="E10" t="s">
+        <v>501</v>
+      </c>
+      <c r="F10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E12" t="s">
+        <v>502</v>
+      </c>
+      <c r="F12" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D13" t="s">
+        <v>340</v>
+      </c>
+      <c r="F13" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D14" t="s">
+        <v>341</v>
+      </c>
+      <c r="E14" t="s">
+        <v>503</v>
+      </c>
+      <c r="F14" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>313</v>
+      </c>
+      <c r="D15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E15" t="s">
+        <v>504</v>
+      </c>
+      <c r="F15" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D16" t="s">
+        <v>343</v>
+      </c>
+      <c r="E16" t="s">
+        <v>505</v>
+      </c>
+      <c r="F16" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>313</v>
+      </c>
+      <c r="D17" t="s">
+        <v>344</v>
+      </c>
+      <c r="F17" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" t="s">
+        <v>339</v>
+      </c>
+      <c r="F18" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D19" t="s">
+        <v>345</v>
+      </c>
+      <c r="F19" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" t="s">
+        <v>346</v>
+      </c>
+      <c r="F20" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>313</v>
+      </c>
+      <c r="D21" t="s">
+        <v>339</v>
+      </c>
+      <c r="E21" t="s">
+        <v>506</v>
+      </c>
+      <c r="F21" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>313</v>
+      </c>
+      <c r="D22" t="s">
+        <v>347</v>
+      </c>
+      <c r="F22" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" t="s">
+        <v>339</v>
+      </c>
+      <c r="E23" t="s">
+        <v>507</v>
+      </c>
+      <c r="F23" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>313</v>
+      </c>
+      <c r="D24" t="s">
+        <v>348</v>
+      </c>
+      <c r="E24" t="s">
+        <v>507</v>
+      </c>
+      <c r="F24" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>313</v>
+      </c>
+      <c r="D25" t="s">
+        <v>348</v>
+      </c>
+      <c r="E25" t="s">
+        <v>507</v>
+      </c>
+      <c r="F25" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>313</v>
+      </c>
+      <c r="D26" t="s">
+        <v>349</v>
+      </c>
+      <c r="E26" t="s">
+        <v>507</v>
+      </c>
+      <c r="F26" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>313</v>
+      </c>
+      <c r="D27" t="s">
+        <v>350</v>
+      </c>
+      <c r="E27" t="s">
+        <v>507</v>
+      </c>
+      <c r="F27" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>313</v>
+      </c>
+      <c r="D28" t="s">
+        <v>351</v>
+      </c>
+      <c r="E28" t="s">
+        <v>507</v>
+      </c>
+      <c r="F28" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29" t="s">
+        <v>352</v>
+      </c>
+      <c r="E29" t="s">
+        <v>508</v>
+      </c>
+      <c r="F29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>313</v>
+      </c>
+      <c r="D30" t="s">
+        <v>353</v>
+      </c>
+      <c r="E30" t="s">
+        <v>504</v>
+      </c>
+      <c r="F30" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>313</v>
+      </c>
+      <c r="D31" t="s">
+        <v>354</v>
+      </c>
+      <c r="E31" t="s">
+        <v>502</v>
+      </c>
+      <c r="F31" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>313</v>
+      </c>
+      <c r="D32" t="s">
+        <v>350</v>
+      </c>
+      <c r="E32" t="s">
+        <v>509</v>
+      </c>
+      <c r="F32" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>313</v>
+      </c>
+      <c r="D33" t="s">
+        <v>353</v>
+      </c>
+      <c r="E33" t="s">
+        <v>510</v>
+      </c>
+      <c r="F33" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>313</v>
+      </c>
+      <c r="D34" t="s">
+        <v>355</v>
+      </c>
+      <c r="E34" t="s">
+        <v>511</v>
+      </c>
+      <c r="F34" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>314</v>
+      </c>
+      <c r="D35" t="s">
+        <v>344</v>
+      </c>
+      <c r="E35" t="s">
+        <v>512</v>
+      </c>
+      <c r="F35" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>314</v>
+      </c>
+      <c r="D36" t="s">
+        <v>356</v>
+      </c>
+      <c r="E36" t="s">
+        <v>513</v>
+      </c>
+      <c r="F36" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>314</v>
+      </c>
+      <c r="D37" t="s">
+        <v>350</v>
+      </c>
+      <c r="F37" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>314</v>
+      </c>
+      <c r="D38" t="s">
+        <v>357</v>
+      </c>
+      <c r="E38" t="s">
+        <v>514</v>
+      </c>
+      <c r="F38" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>314</v>
+      </c>
+      <c r="D39" t="s">
+        <v>358</v>
+      </c>
+      <c r="E39" t="s">
+        <v>515</v>
+      </c>
+      <c r="F39" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>314</v>
+      </c>
+      <c r="D40" t="s">
+        <v>359</v>
+      </c>
+      <c r="F40" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>314</v>
+      </c>
+      <c r="D41" t="s">
+        <v>360</v>
+      </c>
+      <c r="E41" t="s">
+        <v>516</v>
+      </c>
+      <c r="F41" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>314</v>
+      </c>
+      <c r="D42" t="s">
+        <v>361</v>
+      </c>
+      <c r="F42" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>314</v>
+      </c>
+      <c r="D43" t="s">
+        <v>362</v>
+      </c>
+      <c r="E43" t="s">
+        <v>501</v>
+      </c>
+      <c r="F43" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>314</v>
+      </c>
+      <c r="D44" t="s">
+        <v>363</v>
+      </c>
+      <c r="E44" t="s">
+        <v>517</v>
+      </c>
+      <c r="F44" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" t="s">
+        <v>314</v>
+      </c>
+      <c r="D45" t="s">
+        <v>364</v>
+      </c>
+      <c r="F45" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>314</v>
+      </c>
+      <c r="D46" t="s">
+        <v>365</v>
+      </c>
+      <c r="E46" t="s">
+        <v>495</v>
+      </c>
+      <c r="F46" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>314</v>
+      </c>
+      <c r="D47" t="s">
+        <v>366</v>
+      </c>
+      <c r="E47" t="s">
+        <v>518</v>
+      </c>
+      <c r="F47" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>314</v>
+      </c>
+      <c r="D48" t="s">
+        <v>338</v>
+      </c>
+      <c r="E48" t="s">
+        <v>519</v>
+      </c>
+      <c r="F48" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>314</v>
+      </c>
+      <c r="D49" t="s">
+        <v>367</v>
+      </c>
+      <c r="E49" t="s">
+        <v>499</v>
+      </c>
+      <c r="F49" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>314</v>
+      </c>
+      <c r="D50" t="s">
+        <v>368</v>
+      </c>
+      <c r="F50" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>314</v>
+      </c>
+      <c r="D51" t="s">
+        <v>349</v>
+      </c>
+      <c r="E51" t="s">
+        <v>506</v>
+      </c>
+      <c r="F51" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>314</v>
+      </c>
+      <c r="D52" t="s">
+        <v>339</v>
+      </c>
+      <c r="F52" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>314</v>
+      </c>
+      <c r="D53" t="s">
+        <v>369</v>
+      </c>
+      <c r="F53" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>314</v>
+      </c>
+      <c r="D54" t="s">
+        <v>370</v>
+      </c>
+      <c r="E54" t="s">
+        <v>520</v>
+      </c>
+      <c r="F54" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>314</v>
+      </c>
+      <c r="D55" t="s">
+        <v>371</v>
+      </c>
+      <c r="F55" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>314</v>
+      </c>
+      <c r="D56" t="s">
+        <v>372</v>
+      </c>
+      <c r="E56" t="s">
+        <v>521</v>
+      </c>
+      <c r="F56" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>314</v>
+      </c>
+      <c r="D57" t="s">
+        <v>373</v>
+      </c>
+      <c r="F57" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>314</v>
+      </c>
+      <c r="D58" t="s">
+        <v>374</v>
+      </c>
+      <c r="E58" t="s">
+        <v>522</v>
+      </c>
+      <c r="F58" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>314</v>
+      </c>
+      <c r="D59" t="s">
+        <v>375</v>
+      </c>
+      <c r="F59" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
+        <v>314</v>
+      </c>
+      <c r="D60" t="s">
+        <v>376</v>
+      </c>
+      <c r="E60" t="s">
+        <v>499</v>
+      </c>
+      <c r="F60" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>314</v>
+      </c>
+      <c r="D61" t="s">
+        <v>377</v>
+      </c>
+      <c r="E61" t="s">
+        <v>523</v>
+      </c>
+      <c r="F61" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>314</v>
+      </c>
+      <c r="D62" t="s">
+        <v>378</v>
+      </c>
+      <c r="E62" t="s">
+        <v>520</v>
+      </c>
+      <c r="F62" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>314</v>
+      </c>
+      <c r="D63" t="s">
+        <v>379</v>
+      </c>
+      <c r="E63" t="s">
+        <v>499</v>
+      </c>
+      <c r="F63" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>314</v>
+      </c>
+      <c r="D64" t="s">
+        <v>380</v>
+      </c>
+      <c r="E64" t="s">
+        <v>517</v>
+      </c>
+      <c r="F64" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>314</v>
+      </c>
+      <c r="D65" t="s">
+        <v>381</v>
+      </c>
+      <c r="E65" t="s">
+        <v>524</v>
+      </c>
+      <c r="F65" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>314</v>
+      </c>
+      <c r="D66" t="s">
+        <v>382</v>
+      </c>
+      <c r="E66" t="s">
+        <v>514</v>
+      </c>
+      <c r="F66" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>314</v>
+      </c>
+      <c r="D67" t="s">
+        <v>339</v>
+      </c>
+      <c r="E67" t="s">
+        <v>506</v>
+      </c>
+      <c r="F67" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>314</v>
+      </c>
+      <c r="D68" t="s">
+        <v>383</v>
+      </c>
+      <c r="E68" t="s">
+        <v>525</v>
+      </c>
+      <c r="F68" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>314</v>
+      </c>
+      <c r="D69" t="s">
+        <v>384</v>
+      </c>
+      <c r="F69" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>314</v>
+      </c>
+      <c r="D70" t="s">
+        <v>341</v>
+      </c>
+      <c r="E70" t="s">
+        <v>502</v>
+      </c>
+      <c r="F70" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>314</v>
+      </c>
+      <c r="D71" t="s">
+        <v>385</v>
+      </c>
+      <c r="E71" t="s">
+        <v>509</v>
+      </c>
+      <c r="F71" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>314</v>
+      </c>
+      <c r="D72" t="s">
+        <v>386</v>
+      </c>
+      <c r="E72" t="s">
+        <v>526</v>
+      </c>
+      <c r="F72" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>314</v>
+      </c>
+      <c r="D73" t="s">
+        <v>364</v>
+      </c>
+      <c r="E73" t="s">
+        <v>527</v>
+      </c>
+      <c r="F73" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>314</v>
+      </c>
+      <c r="D74" t="s">
+        <v>387</v>
+      </c>
+      <c r="F74" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>314</v>
+      </c>
+      <c r="D75" t="s">
+        <v>351</v>
+      </c>
+      <c r="E75" t="s">
+        <v>504</v>
+      </c>
+      <c r="F75" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>315</v>
+      </c>
+      <c r="D76" t="s">
+        <v>388</v>
+      </c>
+      <c r="E76" t="s">
+        <v>528</v>
+      </c>
+      <c r="F76" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>315</v>
+      </c>
+      <c r="D77" t="s">
+        <v>338</v>
+      </c>
+      <c r="E77" t="s">
+        <v>504</v>
+      </c>
+      <c r="F77" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>315</v>
+      </c>
+      <c r="D78" t="s">
+        <v>389</v>
+      </c>
+      <c r="E78" t="s">
+        <v>501</v>
+      </c>
+      <c r="F78" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" t="s">
+        <v>309</v>
+      </c>
+      <c r="D79" t="s">
+        <v>390</v>
+      </c>
+      <c r="E79" t="s">
+        <v>529</v>
+      </c>
+      <c r="F79" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" t="s">
+        <v>316</v>
+      </c>
+      <c r="D80" t="s">
+        <v>391</v>
+      </c>
+      <c r="E80" t="s">
+        <v>530</v>
+      </c>
+      <c r="F80" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" t="s">
+        <v>317</v>
+      </c>
+      <c r="D81">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
+      <c r="E81" t="s">
+        <v>531</v>
+      </c>
+      <c r="F81" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" t="s">
+        <v>314</v>
+      </c>
+      <c r="D82" t="s">
+        <v>377</v>
+      </c>
+      <c r="E82" t="s">
+        <v>532</v>
+      </c>
+      <c r="F82" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" t="s">
+        <v>314</v>
+      </c>
+      <c r="D83" t="s">
+        <v>392</v>
+      </c>
+      <c r="F83" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
+        <v>314</v>
+      </c>
+      <c r="D84" t="s">
+        <v>382</v>
+      </c>
+      <c r="E84" t="s">
+        <v>504</v>
+      </c>
+      <c r="F84" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
+        <v>314</v>
+      </c>
+      <c r="D85" t="s">
+        <v>393</v>
+      </c>
+      <c r="E85" t="s">
+        <v>498</v>
+      </c>
+      <c r="F85" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>315</v>
+      </c>
+      <c r="D86" t="s">
+        <v>348</v>
+      </c>
+      <c r="E86" t="s">
+        <v>533</v>
+      </c>
+      <c r="F86" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>315</v>
+      </c>
+      <c r="D87" t="s">
+        <v>394</v>
+      </c>
+      <c r="E87" t="s">
+        <v>513</v>
+      </c>
+      <c r="F87" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" t="s">
+        <v>315</v>
+      </c>
+      <c r="D88" t="s">
+        <v>395</v>
+      </c>
+      <c r="E88" t="s">
+        <v>522</v>
+      </c>
+      <c r="F88" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" t="s">
+        <v>315</v>
+      </c>
+      <c r="D89" t="s">
+        <v>384</v>
+      </c>
+      <c r="E89" t="s">
+        <v>501</v>
+      </c>
+      <c r="F89" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" t="s">
+        <v>315</v>
+      </c>
+      <c r="D90" t="s">
+        <v>340</v>
+      </c>
+      <c r="E90" t="s">
+        <v>501</v>
+      </c>
+      <c r="F90" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" t="s">
+        <v>315</v>
+      </c>
+      <c r="D91" t="s">
+        <v>369</v>
+      </c>
+      <c r="F91" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
+        <v>315</v>
+      </c>
+      <c r="D92" t="s">
+        <v>396</v>
+      </c>
+      <c r="E92" t="s">
+        <v>534</v>
+      </c>
+      <c r="F92" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" t="s">
+        <v>315</v>
+      </c>
+      <c r="D93" t="s">
+        <v>397</v>
+      </c>
+      <c r="E93" t="s">
+        <v>501</v>
+      </c>
+      <c r="F93" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" t="s">
+        <v>315</v>
+      </c>
+      <c r="D94" t="s">
+        <v>353</v>
+      </c>
+      <c r="F94" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" t="s">
+        <v>315</v>
+      </c>
+      <c r="D95" t="s">
+        <v>398</v>
+      </c>
+      <c r="F95" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" t="s">
+        <v>315</v>
+      </c>
+      <c r="D96" t="s">
+        <v>359</v>
+      </c>
+      <c r="E96" t="s">
+        <v>535</v>
+      </c>
+      <c r="F96" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
+        <v>315</v>
+      </c>
+      <c r="D97" t="s">
+        <v>399</v>
+      </c>
+      <c r="E97" t="s">
+        <v>499</v>
+      </c>
+      <c r="F97" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>315</v>
+      </c>
+      <c r="D98" t="s">
+        <v>400</v>
+      </c>
+      <c r="E98" t="s">
+        <v>495</v>
+      </c>
+      <c r="F98" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
+        <v>315</v>
+      </c>
+      <c r="D99" t="s">
+        <v>401</v>
+      </c>
+      <c r="E99" t="s">
+        <v>499</v>
+      </c>
+      <c r="F99" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" t="s">
+        <v>315</v>
+      </c>
+      <c r="D100" t="s">
+        <v>402</v>
+      </c>
+      <c r="E100" t="s">
+        <v>536</v>
+      </c>
+      <c r="F100" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" t="s">
+        <v>315</v>
+      </c>
+      <c r="D101" t="s">
+        <v>403</v>
+      </c>
+      <c r="E101" t="s">
+        <v>537</v>
+      </c>
+      <c r="F101" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" t="s">
+        <v>315</v>
+      </c>
+      <c r="D102" t="s">
+        <v>404</v>
+      </c>
+      <c r="F102" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" t="s">
+        <v>315</v>
+      </c>
+      <c r="D103" t="s">
+        <v>405</v>
+      </c>
+      <c r="F103" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" t="s">
+        <v>315</v>
+      </c>
+      <c r="D104" t="s">
+        <v>406</v>
+      </c>
+      <c r="E104" t="s">
+        <v>538</v>
+      </c>
+      <c r="F104" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" t="s">
+        <v>315</v>
+      </c>
+      <c r="D105" t="s">
+        <v>407</v>
+      </c>
+      <c r="E105" t="s">
+        <v>524</v>
+      </c>
+      <c r="F105" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" t="s">
+        <v>315</v>
+      </c>
+      <c r="D106" t="s">
+        <v>385</v>
+      </c>
+      <c r="E106" t="s">
+        <v>529</v>
+      </c>
+      <c r="F106" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" t="s">
+        <v>309</v>
+      </c>
+      <c r="D107" t="s">
+        <v>406</v>
+      </c>
+      <c r="E107" t="s">
+        <v>529</v>
+      </c>
+      <c r="F107" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" t="s">
+        <v>318</v>
+      </c>
+      <c r="D108" t="s">
+        <v>408</v>
+      </c>
+      <c r="E108" t="s">
+        <v>530</v>
+      </c>
+      <c r="F108" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" t="s">
+        <v>319</v>
+      </c>
+      <c r="D109" t="s">
+        <v>409</v>
+      </c>
+      <c r="E109" t="s">
+        <v>530</v>
+      </c>
+      <c r="F109" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" t="s">
+        <v>320</v>
+      </c>
+      <c r="D110" t="s">
+        <v>410</v>
+      </c>
+      <c r="E110" t="s">
+        <v>530</v>
+      </c>
+      <c r="F110" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" t="s">
+        <v>316</v>
+      </c>
+      <c r="D111" t="s">
+        <v>411</v>
+      </c>
+      <c r="E111" t="s">
+        <v>530</v>
+      </c>
+      <c r="F111" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>114</v>
+      </c>
+      <c r="C112" t="s">
+        <v>321</v>
+      </c>
+      <c r="D112" t="s">
+        <v>412</v>
+      </c>
+      <c r="E112" t="s">
+        <v>539</v>
+      </c>
+      <c r="F112" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" t="s">
+        <v>322</v>
+      </c>
+      <c r="D113" t="s">
+        <v>413</v>
+      </c>
+      <c r="E113" t="s">
+        <v>529</v>
+      </c>
+      <c r="F113" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>116</v>
+      </c>
+      <c r="C114" t="s">
+        <v>323</v>
+      </c>
+      <c r="D114" t="s">
+        <v>378</v>
+      </c>
+      <c r="E114" t="s">
+        <v>540</v>
+      </c>
+      <c r="F114" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>117</v>
+      </c>
+      <c r="C115" t="s">
+        <v>315</v>
+      </c>
+      <c r="D115" t="s">
+        <v>414</v>
+      </c>
+      <c r="E115" t="s">
+        <v>527</v>
+      </c>
+      <c r="F115" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>118</v>
+      </c>
+      <c r="C116" t="s">
+        <v>315</v>
+      </c>
+      <c r="D116" t="s">
+        <v>415</v>
+      </c>
+      <c r="E116" t="s">
+        <v>541</v>
+      </c>
+      <c r="F116" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>119</v>
+      </c>
+      <c r="C117" t="s">
+        <v>315</v>
+      </c>
+      <c r="D117" t="s">
+        <v>377</v>
+      </c>
+      <c r="E117" t="s">
+        <v>542</v>
+      </c>
+      <c r="F117" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" t="s">
+        <v>315</v>
+      </c>
+      <c r="D118" t="s">
+        <v>385</v>
+      </c>
+      <c r="E118" t="s">
+        <v>509</v>
+      </c>
+      <c r="F118" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" t="s">
+        <v>315</v>
+      </c>
+      <c r="D119" t="s">
+        <v>416</v>
+      </c>
+      <c r="E119" t="s">
+        <v>543</v>
+      </c>
+      <c r="F119" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" t="s">
+        <v>315</v>
+      </c>
+      <c r="D120" t="s">
+        <v>380</v>
+      </c>
+      <c r="E120" t="s">
+        <v>544</v>
+      </c>
+      <c r="F120" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" t="s">
+        <v>315</v>
+      </c>
+      <c r="D121" t="s">
+        <v>340</v>
+      </c>
+      <c r="F121" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" t="s">
+        <v>315</v>
+      </c>
+      <c r="D122" t="s">
+        <v>378</v>
+      </c>
+      <c r="F122" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>125</v>
+      </c>
+      <c r="C123" t="s">
+        <v>315</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>520</v>
+      </c>
+      <c r="F123" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>126</v>
+      </c>
+      <c r="C124" t="s">
+        <v>315</v>
+      </c>
+      <c r="D124" t="s">
+        <v>375</v>
+      </c>
+      <c r="F124" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>127</v>
+      </c>
+      <c r="C125" t="s">
+        <v>315</v>
+      </c>
+      <c r="D125" t="s">
+        <v>417</v>
+      </c>
+      <c r="E125" t="s">
+        <v>499</v>
+      </c>
+      <c r="F125" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>128</v>
+      </c>
+      <c r="C126" t="s">
+        <v>309</v>
+      </c>
+      <c r="D126" t="s">
+        <v>418</v>
+      </c>
+      <c r="E126" t="s">
+        <v>504</v>
+      </c>
+      <c r="F126" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>129</v>
+      </c>
+      <c r="C127" t="s">
+        <v>315</v>
+      </c>
+      <c r="D127" t="s">
+        <v>419</v>
+      </c>
+      <c r="F127" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>130</v>
+      </c>
+      <c r="C128" t="s">
+        <v>315</v>
+      </c>
+      <c r="D128" t="s">
+        <v>338</v>
+      </c>
+      <c r="E128" t="s">
+        <v>545</v>
+      </c>
+      <c r="F128" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>131</v>
+      </c>
+      <c r="C129" t="s">
+        <v>315</v>
+      </c>
+      <c r="D129" t="s">
+        <v>420</v>
+      </c>
+      <c r="E129" t="s">
+        <v>546</v>
+      </c>
+      <c r="F129" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>132</v>
+      </c>
+      <c r="C130" t="s">
+        <v>315</v>
+      </c>
+      <c r="D130" t="s">
+        <v>421</v>
+      </c>
+      <c r="E130" t="s">
+        <v>547</v>
+      </c>
+      <c r="F130" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>133</v>
+      </c>
+      <c r="C131" t="s">
+        <v>315</v>
+      </c>
+      <c r="D131" t="s">
+        <v>422</v>
+      </c>
+      <c r="F131" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>134</v>
+      </c>
+      <c r="C132" t="s">
+        <v>315</v>
+      </c>
+      <c r="D132" t="s">
+        <v>353</v>
+      </c>
+      <c r="E132" t="s">
+        <v>548</v>
+      </c>
+      <c r="F132" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133" t="s">
+        <v>315</v>
+      </c>
+      <c r="D133" t="s">
+        <v>423</v>
+      </c>
+      <c r="E133" t="s">
+        <v>512</v>
+      </c>
+      <c r="F133" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" t="s">
+        <v>315</v>
+      </c>
+      <c r="D134" t="s">
+        <v>424</v>
+      </c>
+      <c r="E134" t="s">
+        <v>549</v>
+      </c>
+      <c r="F134" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" t="s">
+        <v>315</v>
+      </c>
+      <c r="D135" t="s">
+        <v>425</v>
+      </c>
+      <c r="F135" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>138</v>
+      </c>
+      <c r="C136" t="s">
+        <v>315</v>
+      </c>
+      <c r="D136" t="s">
+        <v>382</v>
+      </c>
+      <c r="E136" t="s">
+        <v>550</v>
+      </c>
+      <c r="F136" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137" t="s">
+        <v>315</v>
+      </c>
+      <c r="D137" t="s">
+        <v>426</v>
+      </c>
+      <c r="F137" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138" t="s">
+        <v>315</v>
+      </c>
+      <c r="D138" t="s">
+        <v>427</v>
+      </c>
+      <c r="E138" t="s">
+        <v>495</v>
+      </c>
+      <c r="F138" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>141</v>
+      </c>
+      <c r="C139" t="s">
+        <v>315</v>
+      </c>
+      <c r="D139" t="s">
+        <v>378</v>
+      </c>
+      <c r="E139" t="s">
+        <v>551</v>
+      </c>
+      <c r="F139" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>142</v>
+      </c>
+      <c r="C140" t="s">
+        <v>315</v>
+      </c>
+      <c r="D140" t="s">
+        <v>428</v>
+      </c>
+      <c r="E140" t="s">
+        <v>528</v>
+      </c>
+      <c r="F140" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" t="s">
+        <v>315</v>
+      </c>
+      <c r="D141" t="s">
+        <v>343</v>
+      </c>
+      <c r="E141" t="s">
+        <v>552</v>
+      </c>
+      <c r="F141" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>144</v>
+      </c>
+      <c r="C142" t="s">
+        <v>315</v>
+      </c>
+      <c r="D142" t="s">
+        <v>429</v>
+      </c>
+      <c r="E142" t="s">
+        <v>553</v>
+      </c>
+      <c r="F142" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>145</v>
+      </c>
+      <c r="C143" t="s">
+        <v>315</v>
+      </c>
+      <c r="D143" t="s">
+        <v>425</v>
+      </c>
+      <c r="E143" t="s">
+        <v>553</v>
+      </c>
+      <c r="F143" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>146</v>
+      </c>
+      <c r="C144" t="s">
+        <v>315</v>
+      </c>
+      <c r="D144" t="s">
+        <v>408</v>
+      </c>
+      <c r="E144" t="s">
+        <v>554</v>
+      </c>
+      <c r="F144" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>147</v>
+      </c>
+      <c r="C145" t="s">
+        <v>315</v>
+      </c>
+      <c r="D145" t="s">
+        <v>430</v>
+      </c>
+      <c r="F145" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>148</v>
+      </c>
+      <c r="C146" t="s">
+        <v>315</v>
+      </c>
+      <c r="D146" t="s">
+        <v>416</v>
+      </c>
+      <c r="F146" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" t="s">
+        <v>315</v>
+      </c>
+      <c r="D147" t="s">
+        <v>431</v>
+      </c>
+      <c r="E147" t="s">
+        <v>499</v>
+      </c>
+      <c r="F147" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>150</v>
+      </c>
+      <c r="C148" t="s">
+        <v>315</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="F148" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>151</v>
+      </c>
+      <c r="C149" t="s">
+        <v>315</v>
+      </c>
+      <c r="D149" t="s">
+        <v>432</v>
+      </c>
+      <c r="F149" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>152</v>
+      </c>
+      <c r="C150" t="s">
+        <v>310</v>
+      </c>
+      <c r="D150" t="s">
+        <v>424</v>
+      </c>
+      <c r="E150" t="s">
+        <v>528</v>
+      </c>
+      <c r="F150" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>153</v>
+      </c>
+      <c r="C151" t="s">
+        <v>315</v>
+      </c>
+      <c r="D151" t="s">
+        <v>433</v>
+      </c>
+      <c r="E151" t="s">
+        <v>502</v>
+      </c>
+      <c r="F151" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>154</v>
+      </c>
+      <c r="C152" t="s">
+        <v>315</v>
+      </c>
+      <c r="D152" t="s">
+        <v>434</v>
+      </c>
+      <c r="E152" t="s">
+        <v>498</v>
+      </c>
+      <c r="F152" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>155</v>
+      </c>
+      <c r="C153" t="s">
+        <v>309</v>
+      </c>
+      <c r="D153" t="s">
+        <v>435</v>
+      </c>
+      <c r="E153" t="s">
+        <v>540</v>
+      </c>
+      <c r="F153" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>156</v>
+      </c>
+      <c r="C154" t="s">
+        <v>309</v>
+      </c>
+      <c r="D154" t="s">
+        <v>436</v>
+      </c>
+      <c r="E154" t="s">
+        <v>555</v>
+      </c>
+      <c r="F154" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" t="s">
+        <v>309</v>
+      </c>
+      <c r="D155" t="s">
+        <v>437</v>
+      </c>
+      <c r="E155" t="s">
+        <v>556</v>
+      </c>
+      <c r="F155" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>158</v>
+      </c>
+      <c r="C156" t="s">
+        <v>309</v>
+      </c>
+      <c r="D156" t="s">
+        <v>438</v>
+      </c>
+      <c r="E156" t="s">
+        <v>499</v>
+      </c>
+      <c r="F156" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>159</v>
+      </c>
+      <c r="C157" t="s">
+        <v>309</v>
+      </c>
+      <c r="D157" t="s">
+        <v>412</v>
+      </c>
+      <c r="F157" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>160</v>
+      </c>
+      <c r="C158" t="s">
+        <v>309</v>
+      </c>
+      <c r="D158" t="s">
+        <v>439</v>
+      </c>
+      <c r="E158" t="s">
+        <v>520</v>
+      </c>
+      <c r="F158" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>161</v>
+      </c>
+      <c r="C159" t="s">
+        <v>309</v>
+      </c>
+      <c r="D159" t="s">
+        <v>440</v>
+      </c>
+      <c r="E159" t="s">
+        <v>518</v>
+      </c>
+      <c r="F159" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>162</v>
+      </c>
+      <c r="C160" t="s">
+        <v>309</v>
+      </c>
+      <c r="D160" t="s">
+        <v>441</v>
+      </c>
+      <c r="E160" t="s">
+        <v>544</v>
+      </c>
+      <c r="F160" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>163</v>
+      </c>
+      <c r="C161" t="s">
+        <v>309</v>
+      </c>
+      <c r="D161" t="s">
+        <v>371</v>
+      </c>
+      <c r="F161" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>164</v>
+      </c>
+      <c r="C162" t="s">
+        <v>324</v>
+      </c>
+      <c r="D162" t="s">
+        <v>442</v>
+      </c>
+      <c r="E162" t="s">
+        <v>504</v>
+      </c>
+      <c r="F162" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>165</v>
+      </c>
+      <c r="C163" t="s">
+        <v>309</v>
+      </c>
+      <c r="D163" t="s">
+        <v>443</v>
+      </c>
+      <c r="E163" t="s">
+        <v>557</v>
+      </c>
+      <c r="F163" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>166</v>
+      </c>
+      <c r="C164" t="s">
+        <v>309</v>
+      </c>
+      <c r="D164" t="s">
+        <v>444</v>
+      </c>
+      <c r="F164" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>167</v>
+      </c>
+      <c r="C165" t="s">
+        <v>309</v>
+      </c>
+      <c r="D165" t="s">
+        <v>369</v>
+      </c>
+      <c r="F165" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>168</v>
+      </c>
+      <c r="C166" t="s">
+        <v>309</v>
+      </c>
+      <c r="D166" t="s">
+        <v>348</v>
+      </c>
+      <c r="E166" t="s">
+        <v>558</v>
+      </c>
+      <c r="F166" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>169</v>
+      </c>
+      <c r="C167" t="s">
+        <v>309</v>
+      </c>
+      <c r="D167" t="s">
+        <v>348</v>
+      </c>
+      <c r="E167" t="s">
+        <v>533</v>
+      </c>
+      <c r="F167" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>170</v>
+      </c>
+      <c r="C168" t="s">
+        <v>309</v>
+      </c>
+      <c r="D168" t="s">
+        <v>424</v>
+      </c>
+      <c r="E168" t="s">
+        <v>559</v>
+      </c>
+      <c r="F168" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>171</v>
+      </c>
+      <c r="C169" t="s">
+        <v>309</v>
+      </c>
+      <c r="D169" t="s">
+        <v>445</v>
+      </c>
+      <c r="E169" t="s">
+        <v>499</v>
+      </c>
+      <c r="F169" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>172</v>
+      </c>
+      <c r="C170" t="s">
+        <v>309</v>
+      </c>
+      <c r="D170" t="s">
+        <v>416</v>
+      </c>
+      <c r="F170" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>173</v>
+      </c>
+      <c r="C171" t="s">
+        <v>309</v>
+      </c>
+      <c r="D171" t="s">
+        <v>357</v>
+      </c>
+      <c r="E171" t="s">
+        <v>499</v>
+      </c>
+      <c r="F171" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>174</v>
+      </c>
+      <c r="C172" t="s">
+        <v>325</v>
+      </c>
+      <c r="D172" t="s">
+        <v>362</v>
+      </c>
+      <c r="E172" t="s">
+        <v>560</v>
+      </c>
+      <c r="F172" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>175</v>
+      </c>
+      <c r="C173" t="s">
+        <v>326</v>
+      </c>
+      <c r="D173" t="s">
+        <v>446</v>
+      </c>
+      <c r="E173" t="s">
+        <v>531</v>
+      </c>
+      <c r="F173" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>176</v>
+      </c>
+      <c r="C174" t="s">
+        <v>309</v>
+      </c>
+      <c r="D174" t="s">
+        <v>447</v>
+      </c>
+      <c r="E174" t="s">
+        <v>561</v>
+      </c>
+      <c r="F174" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>177</v>
+      </c>
+      <c r="C175" t="s">
+        <v>309</v>
+      </c>
+      <c r="D175" t="s">
+        <v>433</v>
+      </c>
+      <c r="E175" t="s">
+        <v>557</v>
+      </c>
+      <c r="F175" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>178</v>
+      </c>
+      <c r="C176" t="s">
+        <v>309</v>
+      </c>
+      <c r="D176" t="s">
+        <v>448</v>
+      </c>
+      <c r="E176" t="s">
+        <v>562</v>
+      </c>
+      <c r="F176" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>179</v>
+      </c>
+      <c r="C177" t="s">
+        <v>309</v>
+      </c>
+      <c r="D177" t="s">
+        <v>449</v>
+      </c>
+      <c r="E177" t="s">
+        <v>507</v>
+      </c>
+      <c r="F177" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>180</v>
+      </c>
+      <c r="C178" t="s">
+        <v>309</v>
+      </c>
+      <c r="D178" t="s">
+        <v>450</v>
+      </c>
+      <c r="E178" t="s">
+        <v>541</v>
+      </c>
+      <c r="F178" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>181</v>
+      </c>
+      <c r="C179" t="s">
+        <v>309</v>
+      </c>
+      <c r="D179" t="s">
+        <v>382</v>
+      </c>
+      <c r="E179" t="s">
+        <v>509</v>
+      </c>
+      <c r="F179" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>182</v>
+      </c>
+      <c r="C180" t="s">
+        <v>309</v>
+      </c>
+      <c r="D180" t="s">
+        <v>451</v>
+      </c>
+      <c r="F180" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>183</v>
+      </c>
+      <c r="C181" t="s">
+        <v>309</v>
+      </c>
+      <c r="D181" t="s">
+        <v>361</v>
+      </c>
+      <c r="E181" t="s">
+        <v>551</v>
+      </c>
+      <c r="F181" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>184</v>
+      </c>
+      <c r="C182" t="s">
+        <v>309</v>
+      </c>
+      <c r="D182" t="s">
+        <v>353</v>
+      </c>
+      <c r="F182" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>185</v>
+      </c>
+      <c r="C183" t="s">
+        <v>309</v>
+      </c>
+      <c r="D183" t="s">
+        <v>452</v>
+      </c>
+      <c r="F183" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>186</v>
+      </c>
+      <c r="C184" t="s">
+        <v>309</v>
+      </c>
+      <c r="D184" t="s">
+        <v>409</v>
+      </c>
+      <c r="E184" t="s">
+        <v>499</v>
+      </c>
+      <c r="F184" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>187</v>
+      </c>
+      <c r="C185" t="s">
+        <v>309</v>
+      </c>
+      <c r="D185" t="s">
+        <v>453</v>
+      </c>
+      <c r="F185" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>188</v>
+      </c>
+      <c r="C186" t="s">
+        <v>309</v>
+      </c>
+      <c r="D186" t="s">
+        <v>418</v>
+      </c>
+      <c r="E186" t="s">
+        <v>551</v>
+      </c>
+      <c r="F186" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>189</v>
+      </c>
+      <c r="C187" t="s">
+        <v>309</v>
+      </c>
+      <c r="D187" t="s">
+        <v>454</v>
+      </c>
+      <c r="E187" t="s">
+        <v>533</v>
+      </c>
+      <c r="F187" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>190</v>
+      </c>
+      <c r="C188" t="s">
+        <v>327</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188" t="s">
+        <v>529</v>
+      </c>
+      <c r="F188" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>191</v>
+      </c>
+      <c r="C189" t="s">
+        <v>327</v>
+      </c>
+      <c r="D189" t="s">
+        <v>455</v>
+      </c>
+      <c r="E189" t="s">
+        <v>499</v>
+      </c>
+      <c r="F189" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>192</v>
+      </c>
+      <c r="C190" t="s">
+        <v>327</v>
+      </c>
+      <c r="D190" t="s">
+        <v>454</v>
+      </c>
+      <c r="E190" t="s">
+        <v>563</v>
+      </c>
+      <c r="F190" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>193</v>
+      </c>
+      <c r="C191" t="s">
+        <v>327</v>
+      </c>
+      <c r="D191" t="s">
+        <v>456</v>
+      </c>
+      <c r="F191" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>194</v>
+      </c>
+      <c r="C192" t="s">
+        <v>327</v>
+      </c>
+      <c r="D192" t="s">
+        <v>437</v>
+      </c>
+      <c r="F192" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>195</v>
+      </c>
+      <c r="C193" t="s">
+        <v>327</v>
+      </c>
+      <c r="D193" t="s">
+        <v>375</v>
+      </c>
+      <c r="F193" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>196</v>
+      </c>
+      <c r="C194" t="s">
+        <v>327</v>
+      </c>
+      <c r="D194" t="s">
+        <v>338</v>
+      </c>
+      <c r="E194" t="s">
+        <v>564</v>
+      </c>
+      <c r="F194" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>197</v>
+      </c>
+      <c r="C195" t="s">
+        <v>327</v>
+      </c>
+      <c r="D195" t="s">
+        <v>416</v>
+      </c>
+      <c r="E195" t="s">
+        <v>557</v>
+      </c>
+      <c r="F195" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>198</v>
+      </c>
+      <c r="C196" t="s">
+        <v>327</v>
+      </c>
+      <c r="D196" t="s">
+        <v>362</v>
+      </c>
+      <c r="E196" t="s">
+        <v>565</v>
+      </c>
+      <c r="F196" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>199</v>
+      </c>
+      <c r="C197" t="s">
+        <v>327</v>
+      </c>
+      <c r="D197" t="s">
+        <v>457</v>
+      </c>
+      <c r="E197" t="s">
+        <v>566</v>
+      </c>
+      <c r="F197" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>200</v>
+      </c>
+      <c r="C198" t="s">
+        <v>327</v>
+      </c>
+      <c r="D198" t="s">
+        <v>458</v>
+      </c>
+      <c r="F198" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>201</v>
+      </c>
+      <c r="C199" t="s">
+        <v>327</v>
+      </c>
+      <c r="D199" t="s">
+        <v>369</v>
+      </c>
+      <c r="E199" t="s">
+        <v>567</v>
+      </c>
+      <c r="F199" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>202</v>
+      </c>
+      <c r="C200" t="s">
+        <v>327</v>
+      </c>
+      <c r="D200" t="s">
+        <v>353</v>
+      </c>
+      <c r="F200" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>203</v>
+      </c>
+      <c r="C201" t="s">
+        <v>327</v>
+      </c>
+      <c r="D201" t="s">
+        <v>349</v>
+      </c>
+      <c r="E201" t="s">
+        <v>533</v>
+      </c>
+      <c r="F201" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>204</v>
+      </c>
+      <c r="C202" t="s">
+        <v>327</v>
+      </c>
+      <c r="D202" t="s">
+        <v>361</v>
+      </c>
+      <c r="E202" t="s">
+        <v>568</v>
+      </c>
+      <c r="F202" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>205</v>
+      </c>
+      <c r="C203" t="s">
+        <v>327</v>
+      </c>
+      <c r="D203" t="s">
+        <v>459</v>
+      </c>
+      <c r="E203" t="s">
+        <v>520</v>
+      </c>
+      <c r="F203" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>206</v>
+      </c>
+      <c r="C204" t="s">
+        <v>327</v>
+      </c>
+      <c r="D204" t="s">
+        <v>460</v>
+      </c>
+      <c r="E204" t="s">
+        <v>569</v>
+      </c>
+      <c r="F204" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>207</v>
+      </c>
+      <c r="C205" t="s">
+        <v>327</v>
+      </c>
+      <c r="D205" t="s">
+        <v>375</v>
+      </c>
+      <c r="E205" t="s">
+        <v>536</v>
+      </c>
+      <c r="F205" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>208</v>
+      </c>
+      <c r="C206" t="s">
+        <v>327</v>
+      </c>
+      <c r="D206" t="s">
+        <v>453</v>
+      </c>
+      <c r="E206" t="s">
+        <v>502</v>
+      </c>
+      <c r="F206" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>209</v>
+      </c>
+      <c r="C207" t="s">
+        <v>327</v>
+      </c>
+      <c r="D207" t="s">
+        <v>378</v>
+      </c>
+      <c r="E207" t="s">
+        <v>509</v>
+      </c>
+      <c r="F207" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>210</v>
+      </c>
+      <c r="C208" t="s">
+        <v>327</v>
+      </c>
+      <c r="D208" t="s">
+        <v>461</v>
+      </c>
+      <c r="E208" t="s">
+        <v>562</v>
+      </c>
+      <c r="F208" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>211</v>
+      </c>
+      <c r="C209" t="s">
+        <v>327</v>
+      </c>
+      <c r="D209" t="s">
+        <v>462</v>
+      </c>
+      <c r="F209" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>212</v>
+      </c>
+      <c r="C210" t="s">
+        <v>327</v>
+      </c>
+      <c r="D210" t="s">
+        <v>373</v>
+      </c>
+      <c r="E210" t="s">
+        <v>570</v>
+      </c>
+      <c r="F210" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>213</v>
+      </c>
+      <c r="C211" t="s">
+        <v>327</v>
+      </c>
+      <c r="D211" t="s">
+        <v>463</v>
+      </c>
+      <c r="F211" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>214</v>
+      </c>
+      <c r="C212" t="s">
+        <v>327</v>
+      </c>
+      <c r="D212" t="s">
+        <v>369</v>
+      </c>
+      <c r="E212" t="s">
+        <v>514</v>
+      </c>
+      <c r="F212" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>215</v>
+      </c>
+      <c r="C213" t="s">
+        <v>327</v>
+      </c>
+      <c r="D213" t="s">
+        <v>343</v>
+      </c>
+      <c r="E213" t="s">
+        <v>544</v>
+      </c>
+      <c r="F213" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>216</v>
+      </c>
+      <c r="C214" t="s">
+        <v>327</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>571</v>
+      </c>
+      <c r="F214" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>217</v>
+      </c>
+      <c r="C215" t="s">
+        <v>327</v>
+      </c>
+      <c r="D215" t="s">
+        <v>453</v>
+      </c>
+      <c r="F215" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>218</v>
+      </c>
+      <c r="C216" t="s">
+        <v>327</v>
+      </c>
+      <c r="D216" t="s">
+        <v>450</v>
+      </c>
+      <c r="E216" t="s">
+        <v>572</v>
+      </c>
+      <c r="F216" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>219</v>
+      </c>
+      <c r="C217" t="s">
+        <v>327</v>
+      </c>
+      <c r="D217" t="s">
+        <v>454</v>
+      </c>
+      <c r="E217" t="s">
+        <v>512</v>
+      </c>
+      <c r="F217" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>220</v>
+      </c>
+      <c r="C218" t="s">
+        <v>310</v>
+      </c>
+      <c r="D218" t="s">
+        <v>442</v>
+      </c>
+      <c r="F218" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>221</v>
+      </c>
+      <c r="C219" t="s">
+        <v>310</v>
+      </c>
+      <c r="D219" t="s">
+        <v>464</v>
+      </c>
+      <c r="E219" t="s">
+        <v>573</v>
+      </c>
+      <c r="F219" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>222</v>
+      </c>
+      <c r="C220" t="s">
+        <v>310</v>
+      </c>
+      <c r="D220" t="s">
+        <v>452</v>
+      </c>
+      <c r="F220" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>223</v>
+      </c>
+      <c r="C221" t="s">
+        <v>310</v>
+      </c>
+      <c r="D221" t="s">
+        <v>343</v>
+      </c>
+      <c r="E221" t="s">
+        <v>574</v>
+      </c>
+      <c r="F221" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>224</v>
+      </c>
+      <c r="C222" t="s">
+        <v>310</v>
+      </c>
+      <c r="D222" t="s">
+        <v>452</v>
+      </c>
+      <c r="E222" t="s">
+        <v>543</v>
+      </c>
+      <c r="F222" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C223" t="s">
+        <v>328</v>
+      </c>
+      <c r="D223" t="s">
+        <v>465</v>
+      </c>
+      <c r="E223" t="s">
+        <v>499</v>
+      </c>
+      <c r="F223" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>226</v>
+      </c>
+      <c r="C224" t="s">
+        <v>310</v>
+      </c>
+      <c r="D224" t="s">
+        <v>466</v>
+      </c>
+      <c r="F224" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>227</v>
+      </c>
+      <c r="C225" t="s">
+        <v>310</v>
+      </c>
+      <c r="D225" t="s">
+        <v>339</v>
+      </c>
+      <c r="E225" t="s">
+        <v>575</v>
+      </c>
+      <c r="F225" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>228</v>
+      </c>
+      <c r="C226" t="s">
+        <v>310</v>
+      </c>
+      <c r="D226" t="s">
+        <v>467</v>
+      </c>
+      <c r="E226" t="s">
+        <v>575</v>
+      </c>
+      <c r="F226" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>229</v>
+      </c>
+      <c r="C227" t="s">
+        <v>310</v>
+      </c>
+      <c r="D227" t="s">
+        <v>416</v>
+      </c>
+      <c r="E227" t="s">
+        <v>575</v>
+      </c>
+      <c r="F227" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>230</v>
+      </c>
+      <c r="C228" t="s">
+        <v>310</v>
+      </c>
+      <c r="D228" t="s">
+        <v>369</v>
+      </c>
+      <c r="E228" t="s">
+        <v>576</v>
+      </c>
+      <c r="F228" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>231</v>
+      </c>
+      <c r="C229" t="s">
+        <v>310</v>
+      </c>
+      <c r="D229" t="s">
+        <v>468</v>
+      </c>
+      <c r="E229" t="s">
+        <v>499</v>
+      </c>
+      <c r="F229" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>232</v>
+      </c>
+      <c r="C230" t="s">
+        <v>310</v>
+      </c>
+      <c r="D230" t="s">
+        <v>469</v>
+      </c>
+      <c r="F230" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>233</v>
+      </c>
+      <c r="C231" t="s">
+        <v>310</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="F231" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>234</v>
+      </c>
+      <c r="C232" t="s">
+        <v>310</v>
+      </c>
+      <c r="D232" t="s">
+        <v>361</v>
+      </c>
+      <c r="E232" t="s">
+        <v>501</v>
+      </c>
+      <c r="F232" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>235</v>
+      </c>
+      <c r="C233" t="s">
+        <v>310</v>
+      </c>
+      <c r="D233" t="s">
+        <v>450</v>
+      </c>
+      <c r="F233" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>236</v>
+      </c>
+      <c r="C234" t="s">
+        <v>310</v>
+      </c>
+      <c r="D234" t="s">
+        <v>470</v>
+      </c>
+      <c r="E234" t="s">
+        <v>499</v>
+      </c>
+      <c r="F234" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>237</v>
+      </c>
+      <c r="C235" t="s">
+        <v>310</v>
+      </c>
+      <c r="D235" t="s">
+        <v>348</v>
+      </c>
+      <c r="E235" t="s">
+        <v>533</v>
+      </c>
+      <c r="F235" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>238</v>
+      </c>
+      <c r="C236" t="s">
+        <v>310</v>
+      </c>
+      <c r="D236" t="s">
+        <v>339</v>
+      </c>
+      <c r="E236" t="s">
+        <v>533</v>
+      </c>
+      <c r="F236" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>239</v>
+      </c>
+      <c r="C237" t="s">
+        <v>310</v>
+      </c>
+      <c r="D237" t="s">
+        <v>354</v>
+      </c>
+      <c r="E237" t="s">
+        <v>577</v>
+      </c>
+      <c r="F237" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>240</v>
+      </c>
+      <c r="C238" t="s">
+        <v>310</v>
+      </c>
+      <c r="D238" t="s">
+        <v>471</v>
+      </c>
+      <c r="F238" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>241</v>
+      </c>
+      <c r="C239" t="s">
+        <v>310</v>
+      </c>
+      <c r="D239" t="s">
+        <v>339</v>
+      </c>
+      <c r="E239" t="s">
+        <v>506</v>
+      </c>
+      <c r="F239" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>242</v>
+      </c>
+      <c r="C240" t="s">
+        <v>310</v>
+      </c>
+      <c r="D240" t="s">
+        <v>472</v>
+      </c>
+      <c r="E240" t="s">
+        <v>517</v>
+      </c>
+      <c r="F240" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>243</v>
+      </c>
+      <c r="C241" t="s">
+        <v>310</v>
+      </c>
+      <c r="D241" t="s">
+        <v>457</v>
+      </c>
+      <c r="E241" t="s">
+        <v>578</v>
+      </c>
+      <c r="F241" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>244</v>
+      </c>
+      <c r="C242" t="s">
+        <v>310</v>
+      </c>
+      <c r="D242" t="s">
+        <v>388</v>
+      </c>
+      <c r="E242" t="s">
+        <v>544</v>
+      </c>
+      <c r="F242" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>245</v>
+      </c>
+      <c r="C243" t="s">
+        <v>310</v>
+      </c>
+      <c r="D243" t="s">
+        <v>446</v>
+      </c>
+      <c r="E243" t="s">
+        <v>579</v>
+      </c>
+      <c r="F243" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>246</v>
+      </c>
+      <c r="C244" t="s">
+        <v>310</v>
+      </c>
+      <c r="D244" t="s">
+        <v>429</v>
+      </c>
+      <c r="F244" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>247</v>
+      </c>
+      <c r="C245" t="s">
+        <v>310</v>
+      </c>
+      <c r="D245" t="s">
+        <v>473</v>
+      </c>
+      <c r="F245" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>248</v>
+      </c>
+      <c r="C246" t="s">
+        <v>310</v>
+      </c>
+      <c r="D246" t="s">
+        <v>474</v>
+      </c>
+      <c r="F246" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>249</v>
+      </c>
+      <c r="C247" t="s">
+        <v>310</v>
+      </c>
+      <c r="D247" t="s">
+        <v>475</v>
+      </c>
+      <c r="E247" t="s">
+        <v>548</v>
+      </c>
+      <c r="F247" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>250</v>
+      </c>
+      <c r="C248" t="s">
+        <v>310</v>
+      </c>
+      <c r="D248" t="s">
+        <v>464</v>
+      </c>
+      <c r="F248" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>251</v>
+      </c>
+      <c r="C249" t="s">
+        <v>310</v>
+      </c>
+      <c r="D249" t="s">
+        <v>350</v>
+      </c>
+      <c r="F249" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>252</v>
+      </c>
+      <c r="C250" t="s">
+        <v>310</v>
+      </c>
+      <c r="D250" t="s">
+        <v>339</v>
+      </c>
+      <c r="F250" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>253</v>
+      </c>
+      <c r="C251" t="s">
+        <v>307</v>
+      </c>
+      <c r="D251" t="s">
+        <v>476</v>
+      </c>
+      <c r="E251" t="s">
+        <v>528</v>
+      </c>
+      <c r="F251" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>254</v>
+      </c>
+      <c r="C252" t="s">
+        <v>310</v>
+      </c>
+      <c r="D252" t="s">
+        <v>464</v>
+      </c>
+      <c r="E252" t="s">
+        <v>580</v>
+      </c>
+      <c r="F252" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>255</v>
+      </c>
+      <c r="C253" t="s">
+        <v>310</v>
+      </c>
+      <c r="D253" t="s">
+        <v>477</v>
+      </c>
+      <c r="E253" t="s">
+        <v>581</v>
+      </c>
+      <c r="F253" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>256</v>
+      </c>
+      <c r="C254" t="s">
+        <v>310</v>
+      </c>
+      <c r="D254" t="s">
+        <v>464</v>
+      </c>
+      <c r="F254" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>257</v>
+      </c>
+      <c r="C255" t="s">
+        <v>310</v>
+      </c>
+      <c r="D255" t="s">
+        <v>382</v>
+      </c>
+      <c r="E255" t="s">
+        <v>582</v>
+      </c>
+      <c r="F255" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>258</v>
+      </c>
+      <c r="C256" t="s">
+        <v>310</v>
+      </c>
+      <c r="D256" t="s">
+        <v>356</v>
+      </c>
+      <c r="F256" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>259</v>
+      </c>
+      <c r="C257" t="s">
+        <v>310</v>
+      </c>
+      <c r="D257" t="s">
+        <v>390</v>
+      </c>
+      <c r="E257" t="s">
+        <v>579</v>
+      </c>
+      <c r="F257" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>260</v>
+      </c>
+      <c r="C258" t="s">
+        <v>310</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="F258" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>261</v>
+      </c>
+      <c r="C259" t="s">
+        <v>310</v>
+      </c>
+      <c r="D259" t="s">
+        <v>340</v>
+      </c>
+      <c r="E259" t="s">
+        <v>519</v>
+      </c>
+      <c r="F259" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>262</v>
+      </c>
+      <c r="C260" t="s">
+        <v>310</v>
+      </c>
+      <c r="D260" t="s">
+        <v>478</v>
+      </c>
+      <c r="E260" t="s">
+        <v>582</v>
+      </c>
+      <c r="F260" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>263</v>
+      </c>
+      <c r="C261" t="s">
+        <v>310</v>
+      </c>
+      <c r="D261" t="s">
+        <v>363</v>
+      </c>
+      <c r="F261" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>264</v>
+      </c>
+      <c r="C262" t="s">
+        <v>310</v>
+      </c>
+      <c r="D262" t="s">
+        <v>402</v>
+      </c>
+      <c r="E262" t="s">
+        <v>535</v>
+      </c>
+      <c r="F262" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>265</v>
+      </c>
+      <c r="C263" t="s">
+        <v>310</v>
+      </c>
+      <c r="D263" t="s">
+        <v>472</v>
+      </c>
+      <c r="F263" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>266</v>
+      </c>
+      <c r="C264" t="s">
+        <v>310</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="F264" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>267</v>
+      </c>
+      <c r="C265" t="s">
+        <v>310</v>
+      </c>
+      <c r="D265" t="s">
+        <v>479</v>
+      </c>
+      <c r="E265" t="s">
+        <v>583</v>
+      </c>
+      <c r="F265" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>268</v>
+      </c>
+      <c r="C266" t="s">
+        <v>310</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="F266" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>269</v>
+      </c>
+      <c r="C267" t="s">
+        <v>310</v>
+      </c>
+      <c r="D267" t="s">
+        <v>480</v>
+      </c>
+      <c r="E267" t="s">
+        <v>584</v>
+      </c>
+      <c r="F267" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>270</v>
+      </c>
+      <c r="C268" t="s">
+        <v>310</v>
+      </c>
+      <c r="D268" t="s">
+        <v>422</v>
+      </c>
+      <c r="E268" t="s">
+        <v>509</v>
+      </c>
+      <c r="F268" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>271</v>
+      </c>
+      <c r="C269" t="s">
+        <v>310</v>
+      </c>
+      <c r="D269" t="s">
+        <v>408</v>
+      </c>
+      <c r="E269" t="s">
+        <v>521</v>
+      </c>
+      <c r="F269" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>272</v>
+      </c>
+      <c r="C270" t="s">
+        <v>310</v>
+      </c>
+      <c r="D270" t="s">
+        <v>481</v>
+      </c>
+      <c r="E270" t="s">
+        <v>498</v>
+      </c>
+      <c r="F270" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>273</v>
+      </c>
+      <c r="C271" t="s">
+        <v>310</v>
+      </c>
+      <c r="D271" t="s">
+        <v>482</v>
+      </c>
+      <c r="E271" t="s">
+        <v>585</v>
+      </c>
+      <c r="F271" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>274</v>
+      </c>
+      <c r="C272" t="s">
+        <v>307</v>
+      </c>
+      <c r="D272" t="s">
+        <v>483</v>
+      </c>
+      <c r="E272" t="s">
+        <v>586</v>
+      </c>
+      <c r="F272" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>275</v>
+      </c>
+      <c r="C273" t="s">
+        <v>307</v>
+      </c>
+      <c r="D273" t="s">
+        <v>350</v>
+      </c>
+      <c r="E273" t="s">
+        <v>533</v>
+      </c>
+      <c r="F273" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>276</v>
+      </c>
+      <c r="C274" t="s">
+        <v>307</v>
+      </c>
+      <c r="D274" t="s">
+        <v>425</v>
+      </c>
+      <c r="E274" t="s">
+        <v>525</v>
+      </c>
+      <c r="F274" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" t="s">
+        <v>277</v>
+      </c>
+      <c r="C275" t="s">
+        <v>307</v>
+      </c>
+      <c r="D275" t="s">
+        <v>415</v>
+      </c>
+      <c r="E275" t="s">
+        <v>587</v>
+      </c>
+      <c r="F275" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" t="s">
+        <v>278</v>
+      </c>
+      <c r="C276" t="s">
+        <v>307</v>
+      </c>
+      <c r="D276" t="s">
+        <v>484</v>
+      </c>
+      <c r="E276" t="s">
+        <v>588</v>
+      </c>
+      <c r="F276" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" t="s">
+        <v>279</v>
+      </c>
+      <c r="C277" t="s">
+        <v>307</v>
+      </c>
+      <c r="D277" t="s">
+        <v>437</v>
+      </c>
+      <c r="E277" t="s">
+        <v>589</v>
+      </c>
+      <c r="F277" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" t="s">
+        <v>280</v>
+      </c>
+      <c r="C278" t="s">
+        <v>307</v>
+      </c>
+      <c r="D278" t="s">
+        <v>446</v>
+      </c>
+      <c r="F278" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" t="s">
+        <v>281</v>
+      </c>
+      <c r="C279" t="s">
+        <v>307</v>
+      </c>
+      <c r="D279" t="s">
+        <v>343</v>
+      </c>
+      <c r="E279" t="s">
+        <v>499</v>
+      </c>
+      <c r="F279" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" t="s">
+        <v>282</v>
+      </c>
+      <c r="C280" t="s">
+        <v>307</v>
+      </c>
+      <c r="D280" t="s">
+        <v>406</v>
+      </c>
+      <c r="F280" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" t="s">
+        <v>283</v>
+      </c>
+      <c r="C281" t="s">
+        <v>307</v>
+      </c>
+      <c r="D281" t="s">
+        <v>375</v>
+      </c>
+      <c r="F281" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" t="s">
+        <v>284</v>
+      </c>
+      <c r="C282" t="s">
+        <v>307</v>
+      </c>
+      <c r="D282" t="s">
+        <v>353</v>
+      </c>
+      <c r="F282" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" t="s">
+        <v>285</v>
+      </c>
+      <c r="C283" t="s">
+        <v>307</v>
+      </c>
+      <c r="D283" t="s">
+        <v>382</v>
+      </c>
+      <c r="E283" t="s">
+        <v>590</v>
+      </c>
+      <c r="F283" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" t="s">
+        <v>286</v>
+      </c>
+      <c r="C284" t="s">
+        <v>307</v>
+      </c>
+      <c r="D284" t="s">
+        <v>425</v>
+      </c>
+      <c r="F284" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" t="s">
+        <v>287</v>
+      </c>
+      <c r="C285" t="s">
+        <v>307</v>
+      </c>
+      <c r="D285" t="s">
+        <v>485</v>
+      </c>
+      <c r="E285" t="s">
+        <v>591</v>
+      </c>
+      <c r="F285" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" t="s">
+        <v>288</v>
+      </c>
+      <c r="C286" t="s">
+        <v>307</v>
+      </c>
+      <c r="D286" t="s">
+        <v>486</v>
+      </c>
+      <c r="E286" t="s">
+        <v>522</v>
+      </c>
+      <c r="F286" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" t="s">
+        <v>289</v>
+      </c>
+      <c r="C287" t="s">
+        <v>307</v>
+      </c>
+      <c r="D287" t="s">
+        <v>487</v>
+      </c>
+      <c r="E287" t="s">
+        <v>518</v>
+      </c>
+      <c r="F287" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" t="s">
+        <v>290</v>
+      </c>
+      <c r="C288" t="s">
+        <v>307</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="F288" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" t="s">
+        <v>291</v>
+      </c>
+      <c r="C289" t="s">
+        <v>307</v>
+      </c>
+      <c r="D289" t="s">
+        <v>377</v>
+      </c>
+      <c r="E289" t="s">
+        <v>550</v>
+      </c>
+      <c r="F289" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" t="s">
+        <v>292</v>
+      </c>
+      <c r="C290" t="s">
+        <v>307</v>
+      </c>
+      <c r="D290" t="s">
+        <v>488</v>
+      </c>
+      <c r="E290" t="s">
+        <v>592</v>
+      </c>
+      <c r="F290" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" t="s">
+        <v>293</v>
+      </c>
+      <c r="C291" t="s">
+        <v>307</v>
+      </c>
+      <c r="D291" t="s">
+        <v>380</v>
+      </c>
+      <c r="E291" t="s">
+        <v>593</v>
+      </c>
+      <c r="F291" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" t="s">
+        <v>294</v>
+      </c>
+      <c r="C292" t="s">
+        <v>307</v>
+      </c>
+      <c r="D292" t="s">
+        <v>489</v>
+      </c>
+      <c r="E292" t="s">
+        <v>548</v>
+      </c>
+      <c r="F292" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" t="s">
+        <v>295</v>
+      </c>
+      <c r="C293" t="s">
+        <v>307</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="F293" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" t="s">
+        <v>296</v>
+      </c>
+      <c r="C294" t="s">
+        <v>307</v>
+      </c>
+      <c r="D294" t="s">
+        <v>490</v>
+      </c>
+      <c r="E294" t="s">
+        <v>565</v>
+      </c>
+      <c r="F294" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" t="s">
+        <v>297</v>
+      </c>
+      <c r="C295" t="s">
+        <v>307</v>
+      </c>
+      <c r="D295" t="s">
+        <v>491</v>
+      </c>
+      <c r="E295" t="s">
+        <v>534</v>
+      </c>
+      <c r="F295" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" t="s">
+        <v>298</v>
+      </c>
+      <c r="C296" t="s">
+        <v>307</v>
+      </c>
+      <c r="D296" t="s">
+        <v>464</v>
+      </c>
+      <c r="F296" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" t="s">
+        <v>299</v>
+      </c>
+      <c r="C297" t="s">
+        <v>307</v>
+      </c>
+      <c r="D297" t="s">
+        <v>351</v>
+      </c>
+      <c r="F297" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" t="s">
+        <v>300</v>
+      </c>
+      <c r="C298" t="s">
+        <v>307</v>
+      </c>
+      <c r="D298" t="s">
+        <v>492</v>
+      </c>
+      <c r="F298" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" t="s">
+        <v>301</v>
+      </c>
+      <c r="C299" t="s">
+        <v>307</v>
+      </c>
+      <c r="D299" t="s">
+        <v>408</v>
+      </c>
+      <c r="F299" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" t="s">
+        <v>302</v>
+      </c>
+      <c r="C300" t="s">
+        <v>307</v>
+      </c>
+      <c r="D300" t="s">
+        <v>413</v>
+      </c>
+      <c r="F300" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" t="s">
+        <v>303</v>
+      </c>
+      <c r="C301" t="s">
+        <v>307</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="F301" t="s">
+        <v>761</v>
       </c>
     </row>
   </sheetData>
